--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2024.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2024.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1633"/>
+  <dimension ref="A1:C2017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9913,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="C866">
-        <v>5004.9</v>
+        <v>4704.1</v>
       </c>
     </row>
     <row r="867" spans="1:3">
@@ -9924,7 +9924,7 @@
         <v>2</v>
       </c>
       <c r="C867">
-        <v>4964.9</v>
+        <v>4654.1</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9935,7 +9935,7 @@
         <v>3</v>
       </c>
       <c r="C868">
-        <v>4904.9</v>
+        <v>4594.1</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9946,7 +9946,7 @@
         <v>4</v>
       </c>
       <c r="C869">
-        <v>4834.9</v>
+        <v>4544.1</v>
       </c>
     </row>
     <row r="870" spans="1:3">
@@ -9957,7 +9957,7 @@
         <v>5</v>
       </c>
       <c r="C870">
-        <v>5576.5</v>
+        <v>5254.2</v>
       </c>
     </row>
     <row r="871" spans="1:3">
@@ -9968,7 +9968,7 @@
         <v>6</v>
       </c>
       <c r="C871">
-        <v>5536.5</v>
+        <v>5214.2</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9979,7 +9979,7 @@
         <v>7</v>
       </c>
       <c r="C872">
-        <v>5496.5</v>
+        <v>5174.2</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -9990,7 +9990,7 @@
         <v>8</v>
       </c>
       <c r="C873">
-        <v>5466.5</v>
+        <v>5134.2</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -10001,7 +10001,7 @@
         <v>9</v>
       </c>
       <c r="C874">
-        <v>5576.3</v>
+        <v>5637.2</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -10012,7 +10012,7 @@
         <v>10</v>
       </c>
       <c r="C875">
-        <v>5566.3</v>
+        <v>5607.2</v>
       </c>
     </row>
     <row r="876" spans="1:3">
@@ -10023,7 +10023,7 @@
         <v>11</v>
       </c>
       <c r="C876">
-        <v>5556.3</v>
+        <v>5587.2</v>
       </c>
     </row>
     <row r="877" spans="1:3">
@@ -10034,7 +10034,7 @@
         <v>12</v>
       </c>
       <c r="C877">
-        <v>5556.3</v>
+        <v>5577.2</v>
       </c>
     </row>
     <row r="878" spans="1:3">
@@ -10045,7 +10045,7 @@
         <v>13</v>
       </c>
       <c r="C878">
-        <v>5774.5</v>
+        <v>5576.3</v>
       </c>
     </row>
     <row r="879" spans="1:3">
@@ -10056,7 +10056,7 @@
         <v>14</v>
       </c>
       <c r="C879">
-        <v>5794.5</v>
+        <v>5576.3</v>
       </c>
     </row>
     <row r="880" spans="1:3">
@@ -10067,7 +10067,7 @@
         <v>15</v>
       </c>
       <c r="C880">
-        <v>5794.5</v>
+        <v>5576.3</v>
       </c>
     </row>
     <row r="881" spans="1:3">
@@ -10078,7 +10078,7 @@
         <v>16</v>
       </c>
       <c r="C881">
-        <v>5804.5</v>
+        <v>5576.3</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -10089,7 +10089,7 @@
         <v>17</v>
       </c>
       <c r="C882">
-        <v>5808.7</v>
+        <v>5716.9</v>
       </c>
     </row>
     <row r="883" spans="1:3">
@@ -10100,7 +10100,7 @@
         <v>18</v>
       </c>
       <c r="C883">
-        <v>5818.7</v>
+        <v>5706.9</v>
       </c>
     </row>
     <row r="884" spans="1:3">
@@ -10111,7 +10111,7 @@
         <v>19</v>
       </c>
       <c r="C884">
-        <v>5828.7</v>
+        <v>5706.9</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10122,7 +10122,7 @@
         <v>20</v>
       </c>
       <c r="C885">
-        <v>5848.7</v>
+        <v>5716.9</v>
       </c>
     </row>
     <row r="886" spans="1:3">
@@ -10133,7 +10133,7 @@
         <v>21</v>
       </c>
       <c r="C886">
-        <v>4650.8</v>
+        <v>5783.3</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10144,7 +10144,7 @@
         <v>22</v>
       </c>
       <c r="C887">
-        <v>4700.8</v>
+        <v>5823.3</v>
       </c>
     </row>
     <row r="888" spans="1:3">
@@ -10155,7 +10155,7 @@
         <v>23</v>
       </c>
       <c r="C888">
-        <v>4750.8</v>
+        <v>5873.3</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10166,7 +10166,7 @@
         <v>24</v>
       </c>
       <c r="C889">
-        <v>4820.8</v>
+        <v>5933.3</v>
       </c>
     </row>
     <row r="890" spans="1:3">
@@ -10177,7 +10177,7 @@
         <v>25</v>
       </c>
       <c r="C890">
-        <v>4759.9</v>
+        <v>4896.8</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10188,7 +10188,7 @@
         <v>26</v>
       </c>
       <c r="C891">
-        <v>4839.9</v>
+        <v>4986.8</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10199,7 +10199,7 @@
         <v>27</v>
       </c>
       <c r="C892">
-        <v>4919.9</v>
+        <v>5086.8</v>
       </c>
     </row>
     <row r="893" spans="1:3">
@@ -10210,7 +10210,7 @@
         <v>28</v>
       </c>
       <c r="C893">
-        <v>5009.9</v>
+        <v>5186.8</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10221,7 +10221,7 @@
         <v>29</v>
       </c>
       <c r="C894">
-        <v>5787.1</v>
+        <v>5591.8</v>
       </c>
     </row>
     <row r="895" spans="1:3">
@@ -10232,7 +10232,7 @@
         <v>30</v>
       </c>
       <c r="C895">
-        <v>5857.1</v>
+        <v>5681.8</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10243,7 +10243,7 @@
         <v>31</v>
       </c>
       <c r="C896">
-        <v>5917.1</v>
+        <v>5761.8</v>
       </c>
     </row>
     <row r="897" spans="1:3">
@@ -10254,7 +10254,7 @@
         <v>32</v>
       </c>
       <c r="C897">
-        <v>5957.1</v>
+        <v>5831.8</v>
       </c>
     </row>
     <row r="898" spans="1:3">
@@ -10265,7 +10265,7 @@
         <v>33</v>
       </c>
       <c r="C898">
-        <v>6079.1</v>
+        <v>6226.1</v>
       </c>
     </row>
     <row r="899" spans="1:3">
@@ -10276,7 +10276,7 @@
         <v>34</v>
       </c>
       <c r="C899">
-        <v>6099.1</v>
+        <v>6256.1</v>
       </c>
     </row>
     <row r="900" spans="1:3">
@@ -10287,7 +10287,7 @@
         <v>35</v>
       </c>
       <c r="C900">
-        <v>6099.1</v>
+        <v>6256.1</v>
       </c>
     </row>
     <row r="901" spans="1:3">
@@ -10298,7 +10298,7 @@
         <v>36</v>
       </c>
       <c r="C901">
-        <v>6079.1</v>
+        <v>6236.1</v>
       </c>
     </row>
     <row r="902" spans="1:3">
@@ -10309,7 +10309,7 @@
         <v>37</v>
       </c>
       <c r="C902">
-        <v>6142.9</v>
+        <v>5942.9</v>
       </c>
     </row>
     <row r="903" spans="1:3">
@@ -10320,7 +10320,7 @@
         <v>38</v>
       </c>
       <c r="C903">
-        <v>6102.9</v>
+        <v>5882.9</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10331,7 +10331,7 @@
         <v>39</v>
       </c>
       <c r="C904">
-        <v>6062.9</v>
+        <v>5822.9</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10342,7 +10342,7 @@
         <v>40</v>
       </c>
       <c r="C905">
-        <v>6012.9</v>
+        <v>5752.9</v>
       </c>
     </row>
     <row r="906" spans="1:3">
@@ -10353,7 +10353,7 @@
         <v>41</v>
       </c>
       <c r="C906">
-        <v>6544.3</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10364,7 +10364,7 @@
         <v>42</v>
       </c>
       <c r="C907">
-        <v>6494.3</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10375,7 +10375,7 @@
         <v>43</v>
       </c>
       <c r="C908">
-        <v>6444.3</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="909" spans="1:3">
@@ -10386,7 +10386,7 @@
         <v>44</v>
       </c>
       <c r="C909">
-        <v>6404.3</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="910" spans="1:3">
@@ -10397,7 +10397,7 @@
         <v>45</v>
       </c>
       <c r="C910">
-        <v>6533.3</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="911" spans="1:3">
@@ -10408,7 +10408,7 @@
         <v>46</v>
       </c>
       <c r="C911">
-        <v>6503.3</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="912" spans="1:3">
@@ -10419,7 +10419,7 @@
         <v>47</v>
       </c>
       <c r="C912">
-        <v>6473.3</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="913" spans="1:3">
@@ -10430,7 +10430,7 @@
         <v>48</v>
       </c>
       <c r="C913">
-        <v>6453.3</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10441,7 +10441,7 @@
         <v>49</v>
       </c>
       <c r="C914">
-        <v>6518.2</v>
+        <v>6867.2</v>
       </c>
     </row>
     <row r="915" spans="1:3">
@@ -10452,7 +10452,7 @@
         <v>50</v>
       </c>
       <c r="C915">
-        <v>6498.2</v>
+        <v>6837.2</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10463,7 +10463,7 @@
         <v>51</v>
       </c>
       <c r="C916">
-        <v>6478.2</v>
+        <v>6817.2</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10474,7 +10474,7 @@
         <v>52</v>
       </c>
       <c r="C917">
-        <v>6458.2</v>
+        <v>6787.2</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10485,7 +10485,7 @@
         <v>53</v>
       </c>
       <c r="C918">
-        <v>6340.1</v>
+        <v>6653.5</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10496,7 +10496,7 @@
         <v>54</v>
       </c>
       <c r="C919">
-        <v>6330.1</v>
+        <v>6633.5</v>
       </c>
     </row>
     <row r="920" spans="1:3">
@@ -10507,7 +10507,7 @@
         <v>55</v>
       </c>
       <c r="C920">
-        <v>6330.1</v>
+        <v>6623.5</v>
       </c>
     </row>
     <row r="921" spans="1:3">
@@ -10518,7 +10518,7 @@
         <v>56</v>
       </c>
       <c r="C921">
-        <v>6320.1</v>
+        <v>6613.5</v>
       </c>
     </row>
     <row r="922" spans="1:3">
@@ -10529,7 +10529,7 @@
         <v>57</v>
       </c>
       <c r="C922">
-        <v>6553.5</v>
+        <v>6504.2</v>
       </c>
     </row>
     <row r="923" spans="1:3">
@@ -10540,7 +10540,7 @@
         <v>58</v>
       </c>
       <c r="C923">
-        <v>6543.5</v>
+        <v>6514.2</v>
       </c>
     </row>
     <row r="924" spans="1:3">
@@ -10551,7 +10551,7 @@
         <v>59</v>
       </c>
       <c r="C924">
-        <v>6543.5</v>
+        <v>6514.2</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -10562,7 +10562,7 @@
         <v>60</v>
       </c>
       <c r="C925">
-        <v>6533.5</v>
+        <v>6524.2</v>
       </c>
     </row>
     <row r="926" spans="1:3">
@@ -10573,7 +10573,7 @@
         <v>61</v>
       </c>
       <c r="C926">
-        <v>6596.2</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10584,7 +10584,7 @@
         <v>62</v>
       </c>
       <c r="C927">
-        <v>6586.2</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -10595,7 +10595,7 @@
         <v>63</v>
       </c>
       <c r="C928">
-        <v>6576.2</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -10606,7 +10606,7 @@
         <v>64</v>
       </c>
       <c r="C929">
-        <v>6576.2</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="930" spans="1:3">
@@ -10617,7 +10617,7 @@
         <v>65</v>
       </c>
       <c r="C930">
-        <v>6686.5</v>
+        <v>6200.1</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -10628,7 +10628,7 @@
         <v>66</v>
       </c>
       <c r="C931">
-        <v>6706.5</v>
+        <v>6240.1</v>
       </c>
     </row>
     <row r="932" spans="1:3">
@@ -10639,7 +10639,7 @@
         <v>67</v>
       </c>
       <c r="C932">
-        <v>6746.5</v>
+        <v>6290.1</v>
       </c>
     </row>
     <row r="933" spans="1:3">
@@ -10650,7 +10650,7 @@
         <v>68</v>
       </c>
       <c r="C933">
-        <v>6796.5</v>
+        <v>6350.1</v>
       </c>
     </row>
     <row r="934" spans="1:3">
@@ -10661,7 +10661,7 @@
         <v>69</v>
       </c>
       <c r="C934">
-        <v>6641.2</v>
+        <v>5517.4</v>
       </c>
     </row>
     <row r="935" spans="1:3">
@@ -10672,7 +10672,7 @@
         <v>70</v>
       </c>
       <c r="C935">
-        <v>6701.2</v>
+        <v>5587.4</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10683,7 +10683,7 @@
         <v>71</v>
       </c>
       <c r="C936">
-        <v>6751.2</v>
+        <v>5647.4</v>
       </c>
     </row>
     <row r="937" spans="1:3">
@@ -10694,7 +10694,7 @@
         <v>72</v>
       </c>
       <c r="C937">
-        <v>6801.2</v>
+        <v>5707.4</v>
       </c>
     </row>
     <row r="938" spans="1:3">
@@ -10705,7 +10705,7 @@
         <v>73</v>
       </c>
       <c r="C938">
-        <v>6633</v>
+        <v>5342.2</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -10716,7 +10716,7 @@
         <v>74</v>
       </c>
       <c r="C939">
-        <v>6683</v>
+        <v>5412.2</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -10727,7 +10727,7 @@
         <v>75</v>
       </c>
       <c r="C940">
-        <v>6753</v>
+        <v>5492.2</v>
       </c>
     </row>
     <row r="941" spans="1:3">
@@ -10738,7 +10738,7 @@
         <v>76</v>
       </c>
       <c r="C941">
-        <v>6843</v>
+        <v>5562.2</v>
       </c>
     </row>
     <row r="942" spans="1:3">
@@ -10749,7 +10749,7 @@
         <v>77</v>
       </c>
       <c r="C942">
-        <v>5922.7</v>
+        <v>5644.3</v>
       </c>
     </row>
     <row r="943" spans="1:3">
@@ -10760,7 +10760,7 @@
         <v>78</v>
       </c>
       <c r="C943">
-        <v>6022.7</v>
+        <v>5724.3</v>
       </c>
     </row>
     <row r="944" spans="1:3">
@@ -10771,7 +10771,7 @@
         <v>79</v>
       </c>
       <c r="C944">
-        <v>6122.7</v>
+        <v>5814.3</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10782,7 +10782,7 @@
         <v>80</v>
       </c>
       <c r="C945">
-        <v>6202.7</v>
+        <v>5904.3</v>
       </c>
     </row>
     <row r="946" spans="1:3">
@@ -10793,7 +10793,7 @@
         <v>81</v>
       </c>
       <c r="C946">
-        <v>5833.7</v>
+        <v>5947.6</v>
       </c>
     </row>
     <row r="947" spans="1:3">
@@ -10804,7 +10804,7 @@
         <v>82</v>
       </c>
       <c r="C947">
-        <v>5933.7</v>
+        <v>6027.6</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -10815,7 +10815,7 @@
         <v>83</v>
       </c>
       <c r="C948">
-        <v>6023.7</v>
+        <v>6107.6</v>
       </c>
     </row>
     <row r="949" spans="1:3">
@@ -10826,7 +10826,7 @@
         <v>84</v>
       </c>
       <c r="C949">
-        <v>6113.7</v>
+        <v>6197.6</v>
       </c>
     </row>
     <row r="950" spans="1:3">
@@ -10837,7 +10837,7 @@
         <v>85</v>
       </c>
       <c r="C950">
-        <v>5246.3</v>
+        <v>6078.7</v>
       </c>
     </row>
     <row r="951" spans="1:3">
@@ -10848,7 +10848,7 @@
         <v>86</v>
       </c>
       <c r="C951">
-        <v>5246.3</v>
+        <v>6068.7</v>
       </c>
     </row>
     <row r="952" spans="1:3">
@@ -10859,7 +10859,7 @@
         <v>87</v>
       </c>
       <c r="C952">
-        <v>5226.3</v>
+        <v>6038.7</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -10870,7 +10870,7 @@
         <v>88</v>
       </c>
       <c r="C953">
-        <v>5156.3</v>
+        <v>5958.7</v>
       </c>
     </row>
     <row r="954" spans="1:3">
@@ -10881,7 +10881,7 @@
         <v>89</v>
       </c>
       <c r="C954">
-        <v>5151.3</v>
+        <v>5891.8</v>
       </c>
     </row>
     <row r="955" spans="1:3">
@@ -10892,7 +10892,7 @@
         <v>90</v>
       </c>
       <c r="C955">
-        <v>5061.3</v>
+        <v>5761.8</v>
       </c>
     </row>
     <row r="956" spans="1:3">
@@ -10903,7 +10903,7 @@
         <v>91</v>
       </c>
       <c r="C956">
-        <v>4911.3</v>
+        <v>5621.8</v>
       </c>
     </row>
     <row r="957" spans="1:3">
@@ -10914,7 +10914,7 @@
         <v>92</v>
       </c>
       <c r="C957">
-        <v>4761.3</v>
+        <v>5451.8</v>
       </c>
     </row>
     <row r="958" spans="1:3">
@@ -10925,7 +10925,7 @@
         <v>93</v>
       </c>
       <c r="C958">
-        <v>4493.2</v>
+        <v>5388.4</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -10936,7 +10936,7 @@
         <v>94</v>
       </c>
       <c r="C959">
-        <v>4333.2</v>
+        <v>5258.4</v>
       </c>
     </row>
     <row r="960" spans="1:3">
@@ -10947,7 +10947,7 @@
         <v>95</v>
       </c>
       <c r="C960">
-        <v>4243.2</v>
+        <v>5108.4</v>
       </c>
     </row>
     <row r="961" spans="1:3">
@@ -10958,7 +10958,7 @@
         <v>96</v>
       </c>
       <c r="C961">
-        <v>4133.2</v>
+        <v>4988.4</v>
       </c>
     </row>
     <row r="962" spans="1:3">
@@ -10969,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="C962">
-        <v>4934.9</v>
+        <v>4931.1</v>
       </c>
     </row>
     <row r="963" spans="1:3">
@@ -10980,7 +10980,7 @@
         <v>2</v>
       </c>
       <c r="C963">
-        <v>4894.9</v>
+        <v>4871.1</v>
       </c>
     </row>
     <row r="964" spans="1:3">
@@ -10991,7 +10991,7 @@
         <v>3</v>
       </c>
       <c r="C964">
-        <v>4834.9</v>
+        <v>4811.1</v>
       </c>
     </row>
     <row r="965" spans="1:3">
@@ -11002,7 +11002,7 @@
         <v>4</v>
       </c>
       <c r="C965">
-        <v>4764.9</v>
+        <v>4751.1</v>
       </c>
     </row>
     <row r="966" spans="1:3">
@@ -11013,7 +11013,7 @@
         <v>5</v>
       </c>
       <c r="C966">
-        <v>5506.5</v>
+        <v>4750.1</v>
       </c>
     </row>
     <row r="967" spans="1:3">
@@ -11024,7 +11024,7 @@
         <v>6</v>
       </c>
       <c r="C967">
-        <v>5456.5</v>
+        <v>4690.1</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -11035,7 +11035,7 @@
         <v>7</v>
       </c>
       <c r="C968">
-        <v>5406.5</v>
+        <v>4640.1</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -11046,7 +11046,7 @@
         <v>8</v>
       </c>
       <c r="C969">
-        <v>5366.5</v>
+        <v>4600.1</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -11057,7 +11057,7 @@
         <v>9</v>
       </c>
       <c r="C970">
-        <v>5466.3</v>
+        <v>4368.6</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -11068,7 +11068,7 @@
         <v>10</v>
       </c>
       <c r="C971">
-        <v>5436.3</v>
+        <v>4338.6</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -11079,7 +11079,7 @@
         <v>11</v>
       </c>
       <c r="C972">
-        <v>5416.3</v>
+        <v>4318.6</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -11090,7 +11090,7 @@
         <v>12</v>
       </c>
       <c r="C973">
-        <v>5416.3</v>
+        <v>4318.6</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11101,7 +11101,7 @@
         <v>13</v>
       </c>
       <c r="C974">
-        <v>5634.5</v>
+        <v>4368.9</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11112,7 +11112,7 @@
         <v>14</v>
       </c>
       <c r="C975">
-        <v>5634.5</v>
+        <v>4368.9</v>
       </c>
     </row>
     <row r="976" spans="1:3">
@@ -11123,7 +11123,7 @@
         <v>15</v>
       </c>
       <c r="C976">
-        <v>5634.5</v>
+        <v>4368.9</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11134,7 +11134,7 @@
         <v>16</v>
       </c>
       <c r="C977">
-        <v>5634.5</v>
+        <v>4368.9</v>
       </c>
     </row>
     <row r="978" spans="1:3">
@@ -11145,7 +11145,7 @@
         <v>17</v>
       </c>
       <c r="C978">
-        <v>5638.7</v>
+        <v>4416.4</v>
       </c>
     </row>
     <row r="979" spans="1:3">
@@ -11156,7 +11156,7 @@
         <v>18</v>
       </c>
       <c r="C979">
-        <v>5638.7</v>
+        <v>4426.4</v>
       </c>
     </row>
     <row r="980" spans="1:3">
@@ -11167,7 +11167,7 @@
         <v>19</v>
       </c>
       <c r="C980">
-        <v>5628.7</v>
+        <v>4436.4</v>
       </c>
     </row>
     <row r="981" spans="1:3">
@@ -11178,7 +11178,7 @@
         <v>20</v>
       </c>
       <c r="C981">
-        <v>5628.7</v>
+        <v>4446.4</v>
       </c>
     </row>
     <row r="982" spans="1:3">
@@ -11189,7 +11189,7 @@
         <v>21</v>
       </c>
       <c r="C982">
-        <v>4410.8</v>
+        <v>4492.1</v>
       </c>
     </row>
     <row r="983" spans="1:3">
@@ -11200,7 +11200,7 @@
         <v>22</v>
       </c>
       <c r="C983">
-        <v>4420.8</v>
+        <v>4502.1</v>
       </c>
     </row>
     <row r="984" spans="1:3">
@@ -11211,7 +11211,7 @@
         <v>23</v>
       </c>
       <c r="C984">
-        <v>4440.8</v>
+        <v>4512.1</v>
       </c>
     </row>
     <row r="985" spans="1:3">
@@ -11222,7 +11222,7 @@
         <v>24</v>
       </c>
       <c r="C985">
-        <v>4460.8</v>
+        <v>4522.1</v>
       </c>
     </row>
     <row r="986" spans="1:3">
@@ -11233,7 +11233,7 @@
         <v>25</v>
       </c>
       <c r="C986">
-        <v>4359.9</v>
+        <v>4631.2</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11244,7 +11244,7 @@
         <v>26</v>
       </c>
       <c r="C987">
-        <v>4389.9</v>
+        <v>4651.2</v>
       </c>
     </row>
     <row r="988" spans="1:3">
@@ -11255,7 +11255,7 @@
         <v>27</v>
       </c>
       <c r="C988">
-        <v>4439.9</v>
+        <v>4671.2</v>
       </c>
     </row>
     <row r="989" spans="1:3">
@@ -11266,7 +11266,7 @@
         <v>28</v>
       </c>
       <c r="C989">
-        <v>4479.9</v>
+        <v>4711.2</v>
       </c>
     </row>
     <row r="990" spans="1:3">
@@ -11277,7 +11277,7 @@
         <v>29</v>
       </c>
       <c r="C990">
-        <v>5227.1</v>
+        <v>4577.1</v>
       </c>
     </row>
     <row r="991" spans="1:3">
@@ -11288,7 +11288,7 @@
         <v>30</v>
       </c>
       <c r="C991">
-        <v>5277.1</v>
+        <v>4627.1</v>
       </c>
     </row>
     <row r="992" spans="1:3">
@@ -11299,7 +11299,7 @@
         <v>31</v>
       </c>
       <c r="C992">
-        <v>5317.1</v>
+        <v>4657.1</v>
       </c>
     </row>
     <row r="993" spans="1:3">
@@ -11310,7 +11310,7 @@
         <v>32</v>
       </c>
       <c r="C993">
-        <v>5357.1</v>
+        <v>4687.1</v>
       </c>
     </row>
     <row r="994" spans="1:3">
@@ -11321,7 +11321,7 @@
         <v>33</v>
       </c>
       <c r="C994">
-        <v>5469.1</v>
+        <v>4792.9</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -11332,7 +11332,7 @@
         <v>34</v>
       </c>
       <c r="C995">
-        <v>5499.1</v>
+        <v>4792.9</v>
       </c>
     </row>
     <row r="996" spans="1:3">
@@ -11343,7 +11343,7 @@
         <v>35</v>
       </c>
       <c r="C996">
-        <v>5479.1</v>
+        <v>4792.9</v>
       </c>
     </row>
     <row r="997" spans="1:3">
@@ -11354,7 +11354,7 @@
         <v>36</v>
       </c>
       <c r="C997">
-        <v>5449.1</v>
+        <v>4772.9</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11365,7 +11365,7 @@
         <v>37</v>
       </c>
       <c r="C998">
-        <v>5502.9</v>
+        <v>4914.6</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -11376,7 +11376,7 @@
         <v>38</v>
       </c>
       <c r="C999">
-        <v>5452.9</v>
+        <v>4874.6</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
@@ -11387,7 +11387,7 @@
         <v>39</v>
       </c>
       <c r="C1000">
-        <v>5392.9</v>
+        <v>4834.6</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
@@ -11398,7 +11398,7 @@
         <v>40</v>
       </c>
       <c r="C1001">
-        <v>5332.9</v>
+        <v>4774.6</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
@@ -11409,7 +11409,7 @@
         <v>41</v>
       </c>
       <c r="C1002">
-        <v>5844.3</v>
+        <v>4787.8</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
@@ -11420,7 +11420,7 @@
         <v>42</v>
       </c>
       <c r="C1003">
-        <v>5784.3</v>
+        <v>4697.8</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
@@ -11431,7 +11431,7 @@
         <v>43</v>
       </c>
       <c r="C1004">
-        <v>5734.3</v>
+        <v>4627.8</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -11442,7 +11442,7 @@
         <v>44</v>
       </c>
       <c r="C1005">
-        <v>5684.3</v>
+        <v>4567.8</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
@@ -11453,7 +11453,7 @@
         <v>45</v>
       </c>
       <c r="C1006">
-        <v>5813.3</v>
+        <v>4771.5</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
@@ -11464,7 +11464,7 @@
         <v>46</v>
       </c>
       <c r="C1007">
-        <v>5783.3</v>
+        <v>4751.5</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
@@ -11475,7 +11475,7 @@
         <v>47</v>
       </c>
       <c r="C1008">
-        <v>5753.3</v>
+        <v>4731.5</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
@@ -11486,7 +11486,7 @@
         <v>48</v>
       </c>
       <c r="C1009">
-        <v>5733.3</v>
+        <v>4731.5</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
@@ -11497,7 +11497,7 @@
         <v>49</v>
       </c>
       <c r="C1010">
-        <v>5788.2</v>
+        <v>4752.9</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
@@ -11508,7 +11508,7 @@
         <v>50</v>
       </c>
       <c r="C1011">
-        <v>5758.2</v>
+        <v>4742.9</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
@@ -11519,7 +11519,7 @@
         <v>51</v>
       </c>
       <c r="C1012">
-        <v>5728.2</v>
+        <v>4732.9</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
@@ -11530,7 +11530,7 @@
         <v>52</v>
       </c>
       <c r="C1013">
-        <v>5688.2</v>
+        <v>4722.9</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
@@ -11541,7 +11541,7 @@
         <v>53</v>
       </c>
       <c r="C1014">
-        <v>5550.1</v>
+        <v>4659.3</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
@@ -11552,7 +11552,7 @@
         <v>54</v>
       </c>
       <c r="C1015">
-        <v>5520.1</v>
+        <v>4649.3</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
@@ -11563,7 +11563,7 @@
         <v>55</v>
       </c>
       <c r="C1016">
-        <v>5510.1</v>
+        <v>4639.3</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -11574,7 +11574,7 @@
         <v>56</v>
       </c>
       <c r="C1017">
-        <v>5500.1</v>
+        <v>4629.3</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -11585,7 +11585,7 @@
         <v>57</v>
       </c>
       <c r="C1018">
-        <v>5743.5</v>
+        <v>4548.3</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
@@ -11596,7 +11596,7 @@
         <v>58</v>
       </c>
       <c r="C1019">
-        <v>5753.5</v>
+        <v>4538.3</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
@@ -11607,7 +11607,7 @@
         <v>59</v>
       </c>
       <c r="C1020">
-        <v>5783.5</v>
+        <v>4538.3</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
@@ -11618,7 +11618,7 @@
         <v>60</v>
       </c>
       <c r="C1021">
-        <v>5803.5</v>
+        <v>4548.3</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
@@ -11629,7 +11629,7 @@
         <v>61</v>
       </c>
       <c r="C1022">
-        <v>5906.2</v>
+        <v>4484.9</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
@@ -11640,7 +11640,7 @@
         <v>62</v>
       </c>
       <c r="C1023">
-        <v>5936.2</v>
+        <v>4494.9</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -11651,7 +11651,7 @@
         <v>63</v>
       </c>
       <c r="C1024">
-        <v>5966.2</v>
+        <v>4504.9</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
@@ -11662,7 +11662,7 @@
         <v>64</v>
       </c>
       <c r="C1025">
-        <v>5996.2</v>
+        <v>4524.9</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
@@ -11673,7 +11673,7 @@
         <v>65</v>
       </c>
       <c r="C1026">
-        <v>6136.5</v>
+        <v>4317.1</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
@@ -11684,7 +11684,7 @@
         <v>66</v>
       </c>
       <c r="C1027">
-        <v>6196.5</v>
+        <v>4367.1</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
@@ -11695,7 +11695,7 @@
         <v>67</v>
       </c>
       <c r="C1028">
-        <v>6256.5</v>
+        <v>4427.1</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
@@ -11706,7 +11706,7 @@
         <v>68</v>
       </c>
       <c r="C1029">
-        <v>6316.5</v>
+        <v>4497.1</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
@@ -11717,7 +11717,7 @@
         <v>69</v>
       </c>
       <c r="C1030">
-        <v>6181.2</v>
+        <v>4271.8</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
@@ -11728,7 +11728,7 @@
         <v>70</v>
       </c>
       <c r="C1031">
-        <v>6241.2</v>
+        <v>4351.8</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
@@ -11739,7 +11739,7 @@
         <v>71</v>
       </c>
       <c r="C1032">
-        <v>6291.2</v>
+        <v>4421.8</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
@@ -11750,7 +11750,7 @@
         <v>72</v>
       </c>
       <c r="C1033">
-        <v>6341.2</v>
+        <v>4501.8</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
@@ -11761,7 +11761,7 @@
         <v>73</v>
       </c>
       <c r="C1034">
-        <v>6173</v>
+        <v>4350.4</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
@@ -11772,7 +11772,7 @@
         <v>74</v>
       </c>
       <c r="C1035">
-        <v>6233</v>
+        <v>4420.4</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
@@ -11783,7 +11783,7 @@
         <v>75</v>
       </c>
       <c r="C1036">
-        <v>6313</v>
+        <v>4500.4</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
@@ -11794,7 +11794,7 @@
         <v>76</v>
       </c>
       <c r="C1037">
-        <v>6423</v>
+        <v>4590.4</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
@@ -11805,7 +11805,7 @@
         <v>77</v>
       </c>
       <c r="C1038">
-        <v>5542.7</v>
+        <v>4509.3</v>
       </c>
     </row>
     <row r="1039" spans="1:3">
@@ -11816,7 +11816,7 @@
         <v>78</v>
       </c>
       <c r="C1039">
-        <v>5672.7</v>
+        <v>4619.3</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
@@ -11827,7 +11827,7 @@
         <v>79</v>
       </c>
       <c r="C1040">
-        <v>5782.7</v>
+        <v>4729.3</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -11838,7 +11838,7 @@
         <v>80</v>
       </c>
       <c r="C1041">
-        <v>5872.7</v>
+        <v>4829.3</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -11849,7 +11849,7 @@
         <v>81</v>
       </c>
       <c r="C1042">
-        <v>5503.7</v>
+        <v>4945.7</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
@@ -11860,7 +11860,7 @@
         <v>82</v>
       </c>
       <c r="C1043">
-        <v>5603.7</v>
+        <v>5055.7</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
@@ -11871,7 +11871,7 @@
         <v>83</v>
       </c>
       <c r="C1044">
-        <v>5703.7</v>
+        <v>5155.7</v>
       </c>
     </row>
     <row r="1045" spans="1:3">
@@ -11882,7 +11882,7 @@
         <v>84</v>
       </c>
       <c r="C1045">
-        <v>5833.7</v>
+        <v>5245.7</v>
       </c>
     </row>
     <row r="1046" spans="1:3">
@@ -11893,7 +11893,7 @@
         <v>85</v>
       </c>
       <c r="C1046">
-        <v>5036.3</v>
+        <v>5048.5</v>
       </c>
     </row>
     <row r="1047" spans="1:3">
@@ -11904,7 +11904,7 @@
         <v>86</v>
       </c>
       <c r="C1047">
-        <v>5046.3</v>
+        <v>5068.5</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
@@ -11915,7 +11915,7 @@
         <v>87</v>
       </c>
       <c r="C1048">
-        <v>5046.3</v>
+        <v>5058.5</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
@@ -11926,7 +11926,7 @@
         <v>88</v>
       </c>
       <c r="C1049">
-        <v>4936.3</v>
+        <v>5008.5</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
@@ -11937,7 +11937,7 @@
         <v>89</v>
       </c>
       <c r="C1050">
-        <v>4901.3</v>
+        <v>5257.5</v>
       </c>
     </row>
     <row r="1051" spans="1:3">
@@ -11948,7 +11948,7 @@
         <v>90</v>
       </c>
       <c r="C1051">
-        <v>4801.3</v>
+        <v>5077.5</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
@@ -11959,7 +11959,7 @@
         <v>91</v>
       </c>
       <c r="C1052">
-        <v>4671.3</v>
+        <v>4827.5</v>
       </c>
     </row>
     <row r="1053" spans="1:3">
@@ -11970,7 +11970,7 @@
         <v>92</v>
       </c>
       <c r="C1053">
-        <v>4481.3</v>
+        <v>4637.5</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
@@ -11981,7 +11981,7 @@
         <v>93</v>
       </c>
       <c r="C1054">
-        <v>4113.2</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
@@ -11992,7 +11992,7 @@
         <v>94</v>
       </c>
       <c r="C1055">
-        <v>3923.2</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
@@ -12003,7 +12003,7 @@
         <v>95</v>
       </c>
       <c r="C1056">
-        <v>3843.2</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1057" spans="1:3">
@@ -12014,7 +12014,7 @@
         <v>96</v>
       </c>
       <c r="C1057">
-        <v>3733.2</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1058" spans="1:3">
@@ -12025,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="C1058">
-        <v>4614.9</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="1059" spans="1:3">
@@ -12036,7 +12036,7 @@
         <v>2</v>
       </c>
       <c r="C1059">
-        <v>4574.9</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1060" spans="1:3">
@@ -12047,7 +12047,7 @@
         <v>3</v>
       </c>
       <c r="C1060">
-        <v>4554.9</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1061" spans="1:3">
@@ -12058,7 +12058,7 @@
         <v>4</v>
       </c>
       <c r="C1061">
-        <v>4534.9</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1062" spans="1:3">
@@ -12069,7 +12069,7 @@
         <v>5</v>
       </c>
       <c r="C1062">
-        <v>5266.5</v>
+        <v>5976.6</v>
       </c>
     </row>
     <row r="1063" spans="1:3">
@@ -12080,7 +12080,7 @@
         <v>6</v>
       </c>
       <c r="C1063">
-        <v>5206.5</v>
+        <v>5926.6</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
@@ -12091,7 +12091,7 @@
         <v>7</v>
       </c>
       <c r="C1064">
-        <v>5146.5</v>
+        <v>5876.6</v>
       </c>
     </row>
     <row r="1065" spans="1:3">
@@ -12102,7 +12102,7 @@
         <v>8</v>
       </c>
       <c r="C1065">
-        <v>5096.5</v>
+        <v>5826.6</v>
       </c>
     </row>
     <row r="1066" spans="1:3">
@@ -12113,7 +12113,7 @@
         <v>9</v>
       </c>
       <c r="C1066">
-        <v>5196.3</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="1067" spans="1:3">
@@ -12124,7 +12124,7 @@
         <v>10</v>
       </c>
       <c r="C1067">
-        <v>5166.3</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="1068" spans="1:3">
@@ -12135,7 +12135,7 @@
         <v>11</v>
       </c>
       <c r="C1068">
-        <v>5136.3</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="1069" spans="1:3">
@@ -12146,7 +12146,7 @@
         <v>12</v>
       </c>
       <c r="C1069">
-        <v>5116.3</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="1070" spans="1:3">
@@ -12157,7 +12157,7 @@
         <v>13</v>
       </c>
       <c r="C1070">
-        <v>5314.5</v>
+        <v>6247.8</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
@@ -12168,7 +12168,7 @@
         <v>14</v>
       </c>
       <c r="C1071">
-        <v>5294.5</v>
+        <v>6237.8</v>
       </c>
     </row>
     <row r="1072" spans="1:3">
@@ -12179,7 +12179,7 @@
         <v>15</v>
       </c>
       <c r="C1072">
-        <v>5284.5</v>
+        <v>6227.8</v>
       </c>
     </row>
     <row r="1073" spans="1:3">
@@ -12190,7 +12190,7 @@
         <v>16</v>
       </c>
       <c r="C1073">
-        <v>5274.5</v>
+        <v>6227.8</v>
       </c>
     </row>
     <row r="1074" spans="1:3">
@@ -12201,7 +12201,7 @@
         <v>17</v>
       </c>
       <c r="C1074">
-        <v>5278.7</v>
+        <v>6149.8</v>
       </c>
     </row>
     <row r="1075" spans="1:3">
@@ -12212,7 +12212,7 @@
         <v>18</v>
       </c>
       <c r="C1075">
-        <v>5288.7</v>
+        <v>6149.8</v>
       </c>
     </row>
     <row r="1076" spans="1:3">
@@ -12223,7 +12223,7 @@
         <v>19</v>
       </c>
       <c r="C1076">
-        <v>5298.7</v>
+        <v>6139.8</v>
       </c>
     </row>
     <row r="1077" spans="1:3">
@@ -12234,7 +12234,7 @@
         <v>20</v>
       </c>
       <c r="C1077">
-        <v>5308.7</v>
+        <v>6139.8</v>
       </c>
     </row>
     <row r="1078" spans="1:3">
@@ -12245,7 +12245,7 @@
         <v>21</v>
       </c>
       <c r="C1078">
-        <v>4100.8</v>
+        <v>5906.6</v>
       </c>
     </row>
     <row r="1079" spans="1:3">
@@ -12256,7 +12256,7 @@
         <v>22</v>
       </c>
       <c r="C1079">
-        <v>4110.8</v>
+        <v>5906.6</v>
       </c>
     </row>
     <row r="1080" spans="1:3">
@@ -12267,7 +12267,7 @@
         <v>23</v>
       </c>
       <c r="C1080">
-        <v>4120.8</v>
+        <v>5906.6</v>
       </c>
     </row>
     <row r="1081" spans="1:3">
@@ -12278,7 +12278,7 @@
         <v>24</v>
       </c>
       <c r="C1081">
-        <v>4130.8</v>
+        <v>5906.6</v>
       </c>
     </row>
     <row r="1082" spans="1:3">
@@ -12289,7 +12289,7 @@
         <v>25</v>
       </c>
       <c r="C1082">
-        <v>4009.9</v>
+        <v>5827.7</v>
       </c>
     </row>
     <row r="1083" spans="1:3">
@@ -12300,7 +12300,7 @@
         <v>26</v>
       </c>
       <c r="C1083">
-        <v>4019.9</v>
+        <v>5837.7</v>
       </c>
     </row>
     <row r="1084" spans="1:3">
@@ -12311,7 +12311,7 @@
         <v>27</v>
       </c>
       <c r="C1084">
-        <v>4029.9</v>
+        <v>5847.7</v>
       </c>
     </row>
     <row r="1085" spans="1:3">
@@ -12322,7 +12322,7 @@
         <v>28</v>
       </c>
       <c r="C1085">
-        <v>4049.9</v>
+        <v>5857.7</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -12333,7 +12333,7 @@
         <v>29</v>
       </c>
       <c r="C1086">
-        <v>4767.1</v>
+        <v>5302.3</v>
       </c>
     </row>
     <row r="1087" spans="1:3">
@@ -12344,7 +12344,7 @@
         <v>30</v>
       </c>
       <c r="C1087">
-        <v>4777.1</v>
+        <v>5332.3</v>
       </c>
     </row>
     <row r="1088" spans="1:3">
@@ -12355,7 +12355,7 @@
         <v>31</v>
       </c>
       <c r="C1088">
-        <v>4797.1</v>
+        <v>5352.3</v>
       </c>
     </row>
     <row r="1089" spans="1:3">
@@ -12366,7 +12366,7 @@
         <v>32</v>
       </c>
       <c r="C1089">
-        <v>4807.1</v>
+        <v>5382.3</v>
       </c>
     </row>
     <row r="1090" spans="1:3">
@@ -12377,7 +12377,7 @@
         <v>33</v>
       </c>
       <c r="C1090">
-        <v>4899.1</v>
+        <v>5376.6</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -12388,7 +12388,7 @@
         <v>34</v>
       </c>
       <c r="C1091">
-        <v>4889.1</v>
+        <v>5396.6</v>
       </c>
     </row>
     <row r="1092" spans="1:3">
@@ -12399,7 +12399,7 @@
         <v>35</v>
       </c>
       <c r="C1092">
-        <v>4869.1</v>
+        <v>5406.6</v>
       </c>
     </row>
     <row r="1093" spans="1:3">
@@ -12410,7 +12410,7 @@
         <v>36</v>
       </c>
       <c r="C1093">
-        <v>4839.1</v>
+        <v>5406.6</v>
       </c>
     </row>
     <row r="1094" spans="1:3">
@@ -12421,7 +12421,7 @@
         <v>37</v>
       </c>
       <c r="C1094">
-        <v>4892.9</v>
+        <v>4859.6</v>
       </c>
     </row>
     <row r="1095" spans="1:3">
@@ -12432,7 +12432,7 @@
         <v>38</v>
       </c>
       <c r="C1095">
-        <v>4832.9</v>
+        <v>4819.6</v>
       </c>
     </row>
     <row r="1096" spans="1:3">
@@ -12443,7 +12443,7 @@
         <v>39</v>
       </c>
       <c r="C1096">
-        <v>4782.9</v>
+        <v>4779.6</v>
       </c>
     </row>
     <row r="1097" spans="1:3">
@@ -12454,7 +12454,7 @@
         <v>40</v>
       </c>
       <c r="C1097">
-        <v>4722.9</v>
+        <v>4729.6</v>
       </c>
     </row>
     <row r="1098" spans="1:3">
@@ -12465,7 +12465,7 @@
         <v>41</v>
       </c>
       <c r="C1098">
-        <v>5244.3</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="1099" spans="1:3">
@@ -12476,7 +12476,7 @@
         <v>42</v>
       </c>
       <c r="C1099">
-        <v>5204.3</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1100" spans="1:3">
@@ -12487,7 +12487,7 @@
         <v>43</v>
       </c>
       <c r="C1100">
-        <v>5164.3</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
@@ -12498,7 +12498,7 @@
         <v>44</v>
       </c>
       <c r="C1101">
-        <v>5134.3</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1102" spans="1:3">
@@ -12509,7 +12509,7 @@
         <v>45</v>
       </c>
       <c r="C1102">
-        <v>5273.3</v>
+        <v>4259.9</v>
       </c>
     </row>
     <row r="1103" spans="1:3">
@@ -12520,7 +12520,7 @@
         <v>46</v>
       </c>
       <c r="C1103">
-        <v>5263.3</v>
+        <v>4239.9</v>
       </c>
     </row>
     <row r="1104" spans="1:3">
@@ -12531,7 +12531,7 @@
         <v>47</v>
       </c>
       <c r="C1104">
-        <v>5263.3</v>
+        <v>4219.9</v>
       </c>
     </row>
     <row r="1105" spans="1:3">
@@ -12542,7 +12542,7 @@
         <v>48</v>
       </c>
       <c r="C1105">
-        <v>5263.3</v>
+        <v>4209.9</v>
       </c>
     </row>
     <row r="1106" spans="1:3">
@@ -12553,7 +12553,7 @@
         <v>49</v>
       </c>
       <c r="C1106">
-        <v>5338.2</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="1107" spans="1:3">
@@ -12564,7 +12564,7 @@
         <v>50</v>
       </c>
       <c r="C1107">
-        <v>5338.2</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1108" spans="1:3">
@@ -12575,7 +12575,7 @@
         <v>51</v>
       </c>
       <c r="C1108">
-        <v>5328.2</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
@@ -12586,7 +12586,7 @@
         <v>52</v>
       </c>
       <c r="C1109">
-        <v>5328.2</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="1110" spans="1:3">
@@ -12597,7 +12597,7 @@
         <v>53</v>
       </c>
       <c r="C1110">
-        <v>5210.1</v>
+        <v>3682.3</v>
       </c>
     </row>
     <row r="1111" spans="1:3">
@@ -12608,7 +12608,7 @@
         <v>54</v>
       </c>
       <c r="C1111">
-        <v>5210.1</v>
+        <v>3672.3</v>
       </c>
     </row>
     <row r="1112" spans="1:3">
@@ -12619,7 +12619,7 @@
         <v>55</v>
       </c>
       <c r="C1112">
-        <v>5210.1</v>
+        <v>3662.3</v>
       </c>
     </row>
     <row r="1113" spans="1:3">
@@ -12630,7 +12630,7 @@
         <v>56</v>
       </c>
       <c r="C1113">
-        <v>5210.1</v>
+        <v>3652.3</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
@@ -12641,7 +12641,7 @@
         <v>57</v>
       </c>
       <c r="C1114">
-        <v>5463.5</v>
+        <v>3714.2</v>
       </c>
     </row>
     <row r="1115" spans="1:3">
@@ -12652,7 +12652,7 @@
         <v>58</v>
       </c>
       <c r="C1115">
-        <v>5473.5</v>
+        <v>3714.2</v>
       </c>
     </row>
     <row r="1116" spans="1:3">
@@ -12663,7 +12663,7 @@
         <v>59</v>
       </c>
       <c r="C1116">
-        <v>5493.5</v>
+        <v>3724.2</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -12674,7 +12674,7 @@
         <v>60</v>
       </c>
       <c r="C1117">
-        <v>5513.5</v>
+        <v>3724.2</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
@@ -12685,7 +12685,7 @@
         <v>61</v>
       </c>
       <c r="C1118">
-        <v>5606.2</v>
+        <v>3861.9</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
@@ -12696,7 +12696,7 @@
         <v>62</v>
       </c>
       <c r="C1119">
-        <v>5616.2</v>
+        <v>3871.9</v>
       </c>
     </row>
     <row r="1120" spans="1:3">
@@ -12707,7 +12707,7 @@
         <v>63</v>
       </c>
       <c r="C1120">
-        <v>5636.2</v>
+        <v>3891.9</v>
       </c>
     </row>
     <row r="1121" spans="1:3">
@@ -12718,7 +12718,7 @@
         <v>64</v>
       </c>
       <c r="C1121">
-        <v>5656.2</v>
+        <v>3911.9</v>
       </c>
     </row>
     <row r="1122" spans="1:3">
@@ -12729,7 +12729,7 @@
         <v>65</v>
       </c>
       <c r="C1122">
-        <v>5796.5</v>
+        <v>4206.7</v>
       </c>
     </row>
     <row r="1123" spans="1:3">
@@ -12740,7 +12740,7 @@
         <v>66</v>
       </c>
       <c r="C1123">
-        <v>5836.5</v>
+        <v>4256.7</v>
       </c>
     </row>
     <row r="1124" spans="1:3">
@@ -12751,7 +12751,7 @@
         <v>67</v>
       </c>
       <c r="C1124">
-        <v>5896.5</v>
+        <v>4316.7</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
@@ -12762,7 +12762,7 @@
         <v>68</v>
       </c>
       <c r="C1125">
-        <v>5976.5</v>
+        <v>4386.7</v>
       </c>
     </row>
     <row r="1126" spans="1:3">
@@ -12773,7 +12773,7 @@
         <v>69</v>
       </c>
       <c r="C1126">
-        <v>5851.2</v>
+        <v>4504.6</v>
       </c>
     </row>
     <row r="1127" spans="1:3">
@@ -12784,7 +12784,7 @@
         <v>70</v>
       </c>
       <c r="C1127">
-        <v>5941.2</v>
+        <v>4584.6</v>
       </c>
     </row>
     <row r="1128" spans="1:3">
@@ -12795,7 +12795,7 @@
         <v>71</v>
       </c>
       <c r="C1128">
-        <v>6021.2</v>
+        <v>4664.6</v>
       </c>
     </row>
     <row r="1129" spans="1:3">
@@ -12806,7 +12806,7 @@
         <v>72</v>
       </c>
       <c r="C1129">
-        <v>6101.2</v>
+        <v>4744.6</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
@@ -12817,7 +12817,7 @@
         <v>73</v>
       </c>
       <c r="C1130">
-        <v>5963</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="1131" spans="1:3">
@@ -12828,7 +12828,7 @@
         <v>74</v>
       </c>
       <c r="C1131">
-        <v>6043</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -12839,7 +12839,7 @@
         <v>75</v>
       </c>
       <c r="C1132">
-        <v>6133</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
@@ -12850,7 +12850,7 @@
         <v>76</v>
       </c>
       <c r="C1133">
-        <v>6233</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="1134" spans="1:3">
@@ -12861,7 +12861,7 @@
         <v>77</v>
       </c>
       <c r="C1134">
-        <v>5332.7</v>
+        <v>6289.9</v>
       </c>
     </row>
     <row r="1135" spans="1:3">
@@ -12872,7 +12872,7 @@
         <v>78</v>
       </c>
       <c r="C1135">
-        <v>5442.7</v>
+        <v>6399.9</v>
       </c>
     </row>
     <row r="1136" spans="1:3">
@@ -12883,7 +12883,7 @@
         <v>79</v>
       </c>
       <c r="C1136">
-        <v>5562.7</v>
+        <v>6519.9</v>
       </c>
     </row>
     <row r="1137" spans="1:3">
@@ -12894,7 +12894,7 @@
         <v>80</v>
       </c>
       <c r="C1137">
-        <v>5662.7</v>
+        <v>6629.9</v>
       </c>
     </row>
     <row r="1138" spans="1:3">
@@ -12905,7 +12905,7 @@
         <v>81</v>
       </c>
       <c r="C1138">
-        <v>5313.7</v>
+        <v>5855.8</v>
       </c>
     </row>
     <row r="1139" spans="1:3">
@@ -12916,7 +12916,7 @@
         <v>82</v>
       </c>
       <c r="C1139">
-        <v>5413.7</v>
+        <v>5965.8</v>
       </c>
     </row>
     <row r="1140" spans="1:3">
@@ -12927,7 +12927,7 @@
         <v>83</v>
       </c>
       <c r="C1140">
-        <v>5423.7</v>
+        <v>6035.8</v>
       </c>
     </row>
     <row r="1141" spans="1:3">
@@ -12938,7 +12938,7 @@
         <v>84</v>
       </c>
       <c r="C1141">
-        <v>5423.7</v>
+        <v>6105.8</v>
       </c>
     </row>
     <row r="1142" spans="1:3">
@@ -12949,7 +12949,7 @@
         <v>85</v>
       </c>
       <c r="C1142">
-        <v>4546.3</v>
+        <v>5187.7</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
@@ -12960,7 +12960,7 @@
         <v>86</v>
       </c>
       <c r="C1143">
-        <v>4516.3</v>
+        <v>5177.7</v>
       </c>
     </row>
     <row r="1144" spans="1:3">
@@ -12971,7 +12971,7 @@
         <v>87</v>
       </c>
       <c r="C1144">
-        <v>4506.3</v>
+        <v>5147.7</v>
       </c>
     </row>
     <row r="1145" spans="1:3">
@@ -12982,7 +12982,7 @@
         <v>88</v>
       </c>
       <c r="C1145">
-        <v>4446.3</v>
+        <v>5067.7</v>
       </c>
     </row>
     <row r="1146" spans="1:3">
@@ -12993,7 +12993,7 @@
         <v>89</v>
       </c>
       <c r="C1146">
-        <v>4521.3</v>
+        <v>5795.4</v>
       </c>
     </row>
     <row r="1147" spans="1:3">
@@ -13004,7 +13004,7 @@
         <v>90</v>
       </c>
       <c r="C1147">
-        <v>4431.3</v>
+        <v>5675.4</v>
       </c>
     </row>
     <row r="1148" spans="1:3">
@@ -13015,7 +13015,7 @@
         <v>91</v>
       </c>
       <c r="C1148">
-        <v>4301.3</v>
+        <v>5545.4</v>
       </c>
     </row>
     <row r="1149" spans="1:3">
@@ -13026,7 +13026,7 @@
         <v>92</v>
       </c>
       <c r="C1149">
-        <v>4181.3</v>
+        <v>5415.4</v>
       </c>
     </row>
     <row r="1150" spans="1:3">
@@ -13037,7 +13037,7 @@
         <v>93</v>
       </c>
       <c r="C1150">
-        <v>4013.2</v>
+        <v>5967.2</v>
       </c>
     </row>
     <row r="1151" spans="1:3">
@@ -13048,7 +13048,7 @@
         <v>94</v>
       </c>
       <c r="C1151">
-        <v>3833.2</v>
+        <v>5847.2</v>
       </c>
     </row>
     <row r="1152" spans="1:3">
@@ -13059,7 +13059,7 @@
         <v>95</v>
       </c>
       <c r="C1152">
-        <v>3713.2</v>
+        <v>5737.2</v>
       </c>
     </row>
     <row r="1153" spans="1:3">
@@ -13070,7 +13070,7 @@
         <v>96</v>
       </c>
       <c r="C1153">
-        <v>3573.2</v>
+        <v>5627.2</v>
       </c>
     </row>
     <row r="1154" spans="1:3">
@@ -13081,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="C1154">
-        <v>4414.9</v>
+        <v>5478.7</v>
       </c>
     </row>
     <row r="1155" spans="1:3">
@@ -13092,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="C1155">
-        <v>4374.9</v>
+        <v>5418.7</v>
       </c>
     </row>
     <row r="1156" spans="1:3">
@@ -13103,7 +13103,7 @@
         <v>3</v>
       </c>
       <c r="C1156">
-        <v>4354.9</v>
+        <v>5358.7</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -13114,7 +13114,7 @@
         <v>4</v>
       </c>
       <c r="C1157">
-        <v>4314.9</v>
+        <v>5308.7</v>
       </c>
     </row>
     <row r="1158" spans="1:3">
@@ -13125,7 +13125,7 @@
         <v>5</v>
       </c>
       <c r="C1158">
-        <v>5086.5</v>
+        <v>5512.7</v>
       </c>
     </row>
     <row r="1159" spans="1:3">
@@ -13136,7 +13136,7 @@
         <v>6</v>
       </c>
       <c r="C1159">
-        <v>5046.5</v>
+        <v>5472.7</v>
       </c>
     </row>
     <row r="1160" spans="1:3">
@@ -13147,7 +13147,7 @@
         <v>7</v>
       </c>
       <c r="C1160">
-        <v>5016.5</v>
+        <v>5442.7</v>
       </c>
     </row>
     <row r="1161" spans="1:3">
@@ -13158,7 +13158,7 @@
         <v>8</v>
       </c>
       <c r="C1161">
-        <v>4986.5</v>
+        <v>5412.7</v>
       </c>
     </row>
     <row r="1162" spans="1:3">
@@ -13169,7 +13169,7 @@
         <v>9</v>
       </c>
       <c r="C1162">
-        <v>5086.3</v>
+        <v>5955.4</v>
       </c>
     </row>
     <row r="1163" spans="1:3">
@@ -13180,7 +13180,7 @@
         <v>10</v>
       </c>
       <c r="C1163">
-        <v>5066.3</v>
+        <v>5935.4</v>
       </c>
     </row>
     <row r="1164" spans="1:3">
@@ -13191,7 +13191,7 @@
         <v>11</v>
       </c>
       <c r="C1164">
-        <v>5056.3</v>
+        <v>5925.4</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
@@ -13202,7 +13202,7 @@
         <v>12</v>
       </c>
       <c r="C1165">
-        <v>5056.3</v>
+        <v>5905.4</v>
       </c>
     </row>
     <row r="1166" spans="1:3">
@@ -13213,7 +13213,7 @@
         <v>13</v>
       </c>
       <c r="C1166">
-        <v>5274.5</v>
+        <v>5920.3</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
@@ -13224,7 +13224,7 @@
         <v>14</v>
       </c>
       <c r="C1167">
-        <v>5284.5</v>
+        <v>5920.3</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
@@ -13235,7 +13235,7 @@
         <v>15</v>
       </c>
       <c r="C1168">
-        <v>5294.5</v>
+        <v>5920.3</v>
       </c>
     </row>
     <row r="1169" spans="1:3">
@@ -13246,7 +13246,7 @@
         <v>16</v>
       </c>
       <c r="C1169">
-        <v>5304.5</v>
+        <v>5930.3</v>
       </c>
     </row>
     <row r="1170" spans="1:3">
@@ -13257,7 +13257,7 @@
         <v>17</v>
       </c>
       <c r="C1170">
-        <v>5318.7</v>
+        <v>6118.8</v>
       </c>
     </row>
     <row r="1171" spans="1:3">
@@ -13268,7 +13268,7 @@
         <v>18</v>
       </c>
       <c r="C1171">
-        <v>5328.7</v>
+        <v>6128.8</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
@@ -13279,7 +13279,7 @@
         <v>19</v>
       </c>
       <c r="C1172">
-        <v>5358.7</v>
+        <v>6148.8</v>
       </c>
     </row>
     <row r="1173" spans="1:3">
@@ -13290,7 +13290,7 @@
         <v>20</v>
       </c>
       <c r="C1173">
-        <v>5388.7</v>
+        <v>6178.8</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
@@ -13301,7 +13301,7 @@
         <v>21</v>
       </c>
       <c r="C1174">
-        <v>4210.8</v>
+        <v>6202.4</v>
       </c>
     </row>
     <row r="1175" spans="1:3">
@@ -13312,7 +13312,7 @@
         <v>22</v>
       </c>
       <c r="C1175">
-        <v>4280.8</v>
+        <v>6272.4</v>
       </c>
     </row>
     <row r="1176" spans="1:3">
@@ -13323,7 +13323,7 @@
         <v>23</v>
       </c>
       <c r="C1176">
-        <v>4370.8</v>
+        <v>6372.4</v>
       </c>
     </row>
     <row r="1177" spans="1:3">
@@ -13334,7 +13334,7 @@
         <v>24</v>
       </c>
       <c r="C1177">
-        <v>4470.8</v>
+        <v>6482.4</v>
       </c>
     </row>
     <row r="1178" spans="1:3">
@@ -13345,7 +13345,7 @@
         <v>25</v>
       </c>
       <c r="C1178">
-        <v>4449.9</v>
+        <v>5880.6</v>
       </c>
     </row>
     <row r="1179" spans="1:3">
@@ -13356,7 +13356,7 @@
         <v>26</v>
       </c>
       <c r="C1179">
-        <v>4589.9</v>
+        <v>6030.6</v>
       </c>
     </row>
     <row r="1180" spans="1:3">
@@ -13367,7 +13367,7 @@
         <v>27</v>
       </c>
       <c r="C1180">
-        <v>4729.9</v>
+        <v>6180.6</v>
       </c>
     </row>
     <row r="1181" spans="1:3">
@@ -13378,7 +13378,7 @@
         <v>28</v>
       </c>
       <c r="C1181">
-        <v>4879.9</v>
+        <v>6340.6</v>
       </c>
     </row>
     <row r="1182" spans="1:3">
@@ -13389,7 +13389,7 @@
         <v>29</v>
       </c>
       <c r="C1182">
-        <v>5717.1</v>
+        <v>5107.9</v>
       </c>
     </row>
     <row r="1183" spans="1:3">
@@ -13400,7 +13400,7 @@
         <v>30</v>
       </c>
       <c r="C1183">
-        <v>5857.1</v>
+        <v>5247.9</v>
       </c>
     </row>
     <row r="1184" spans="1:3">
@@ -13411,7 +13411,7 @@
         <v>31</v>
       </c>
       <c r="C1184">
-        <v>5977.1</v>
+        <v>5367.9</v>
       </c>
     </row>
     <row r="1185" spans="1:3">
@@ -13422,7 +13422,7 @@
         <v>32</v>
       </c>
       <c r="C1185">
-        <v>6087.1</v>
+        <v>5467.9</v>
       </c>
     </row>
     <row r="1186" spans="1:3">
@@ -13433,7 +13433,7 @@
         <v>33</v>
       </c>
       <c r="C1186">
-        <v>6259.1</v>
+        <v>5571.7</v>
       </c>
     </row>
     <row r="1187" spans="1:3">
@@ -13444,7 +13444,7 @@
         <v>34</v>
       </c>
       <c r="C1187">
-        <v>6299.1</v>
+        <v>5611.7</v>
       </c>
     </row>
     <row r="1188" spans="1:3">
@@ -13455,7 +13455,7 @@
         <v>35</v>
       </c>
       <c r="C1188">
-        <v>6299.1</v>
+        <v>5631.7</v>
       </c>
     </row>
     <row r="1189" spans="1:3">
@@ -13466,7 +13466,7 @@
         <v>36</v>
       </c>
       <c r="C1189">
-        <v>6299.1</v>
+        <v>5621.7</v>
       </c>
     </row>
     <row r="1190" spans="1:3">
@@ -13477,7 +13477,7 @@
         <v>37</v>
       </c>
       <c r="C1190">
-        <v>6382.9</v>
+        <v>5988.3</v>
       </c>
     </row>
     <row r="1191" spans="1:3">
@@ -13488,7 +13488,7 @@
         <v>38</v>
       </c>
       <c r="C1191">
-        <v>6372.9</v>
+        <v>5938.3</v>
       </c>
     </row>
     <row r="1192" spans="1:3">
@@ -13499,7 +13499,7 @@
         <v>39</v>
       </c>
       <c r="C1192">
-        <v>6352.9</v>
+        <v>5868.3</v>
       </c>
     </row>
     <row r="1193" spans="1:3">
@@ -13510,7 +13510,7 @@
         <v>40</v>
       </c>
       <c r="C1193">
-        <v>6332.9</v>
+        <v>5798.3</v>
       </c>
     </row>
     <row r="1194" spans="1:3">
@@ -13521,7 +13521,7 @@
         <v>41</v>
       </c>
       <c r="C1194">
-        <v>6844.3</v>
+        <v>5805.6</v>
       </c>
     </row>
     <row r="1195" spans="1:3">
@@ -13532,7 +13532,7 @@
         <v>42</v>
       </c>
       <c r="C1195">
-        <v>6784.3</v>
+        <v>5735.6</v>
       </c>
     </row>
     <row r="1196" spans="1:3">
@@ -13543,7 +13543,7 @@
         <v>43</v>
       </c>
       <c r="C1196">
-        <v>6734.3</v>
+        <v>5675.6</v>
       </c>
     </row>
     <row r="1197" spans="1:3">
@@ -13554,7 +13554,7 @@
         <v>44</v>
       </c>
       <c r="C1197">
-        <v>6684.3</v>
+        <v>5615.6</v>
       </c>
     </row>
     <row r="1198" spans="1:3">
@@ -13565,7 +13565,7 @@
         <v>45</v>
       </c>
       <c r="C1198">
-        <v>6793.3</v>
+        <v>5207.2</v>
       </c>
     </row>
     <row r="1199" spans="1:3">
@@ -13576,7 +13576,7 @@
         <v>46</v>
       </c>
       <c r="C1199">
-        <v>6763.3</v>
+        <v>5167.2</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
@@ -13587,7 +13587,7 @@
         <v>47</v>
       </c>
       <c r="C1200">
-        <v>6733.3</v>
+        <v>5137.2</v>
       </c>
     </row>
     <row r="1201" spans="1:3">
@@ -13598,7 +13598,7 @@
         <v>48</v>
       </c>
       <c r="C1201">
-        <v>6713.3</v>
+        <v>5107.2</v>
       </c>
     </row>
     <row r="1202" spans="1:3">
@@ -13609,7 +13609,7 @@
         <v>49</v>
       </c>
       <c r="C1202">
-        <v>6778.2</v>
+        <v>5119.6</v>
       </c>
     </row>
     <row r="1203" spans="1:3">
@@ -13620,7 +13620,7 @@
         <v>50</v>
       </c>
       <c r="C1203">
-        <v>6758.2</v>
+        <v>5099.6</v>
       </c>
     </row>
     <row r="1204" spans="1:3">
@@ -13631,7 +13631,7 @@
         <v>51</v>
       </c>
       <c r="C1204">
-        <v>6738.2</v>
+        <v>5079.6</v>
       </c>
     </row>
     <row r="1205" spans="1:3">
@@ -13642,7 +13642,7 @@
         <v>52</v>
       </c>
       <c r="C1205">
-        <v>6718.2</v>
+        <v>5069.6</v>
       </c>
     </row>
     <row r="1206" spans="1:3">
@@ -13653,7 +13653,7 @@
         <v>53</v>
       </c>
       <c r="C1206">
-        <v>6600.1</v>
+        <v>4746.2</v>
       </c>
     </row>
     <row r="1207" spans="1:3">
@@ -13664,7 +13664,7 @@
         <v>54</v>
       </c>
       <c r="C1207">
-        <v>6590.1</v>
+        <v>4736.2</v>
       </c>
     </row>
     <row r="1208" spans="1:3">
@@ -13675,7 +13675,7 @@
         <v>55</v>
       </c>
       <c r="C1208">
-        <v>6570.1</v>
+        <v>4726.2</v>
       </c>
     </row>
     <row r="1209" spans="1:3">
@@ -13686,7 +13686,7 @@
         <v>56</v>
       </c>
       <c r="C1209">
-        <v>6560.1</v>
+        <v>4716.2</v>
       </c>
     </row>
     <row r="1210" spans="1:3">
@@ -13697,7 +13697,7 @@
         <v>57</v>
       </c>
       <c r="C1210">
-        <v>6783.5</v>
+        <v>4763.4</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13708,7 +13708,7 @@
         <v>58</v>
       </c>
       <c r="C1211">
-        <v>6783.5</v>
+        <v>4763.4</v>
       </c>
     </row>
     <row r="1212" spans="1:3">
@@ -13719,7 +13719,7 @@
         <v>59</v>
       </c>
       <c r="C1212">
-        <v>6773.5</v>
+        <v>4763.4</v>
       </c>
     </row>
     <row r="1213" spans="1:3">
@@ -13730,7 +13730,7 @@
         <v>60</v>
       </c>
       <c r="C1213">
-        <v>6763.5</v>
+        <v>4763.4</v>
       </c>
     </row>
     <row r="1214" spans="1:3">
@@ -13741,7 +13741,7 @@
         <v>61</v>
       </c>
       <c r="C1214">
-        <v>6826.2</v>
+        <v>4860.7</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13752,7 +13752,7 @@
         <v>62</v>
       </c>
       <c r="C1215">
-        <v>6826.2</v>
+        <v>4870.7</v>
       </c>
     </row>
     <row r="1216" spans="1:3">
@@ -13763,7 +13763,7 @@
         <v>63</v>
       </c>
       <c r="C1216">
-        <v>6826.2</v>
+        <v>4880.7</v>
       </c>
     </row>
     <row r="1217" spans="1:3">
@@ -13774,7 +13774,7 @@
         <v>64</v>
       </c>
       <c r="C1217">
-        <v>6836.2</v>
+        <v>4890.7</v>
       </c>
     </row>
     <row r="1218" spans="1:3">
@@ -13785,7 +13785,7 @@
         <v>65</v>
       </c>
       <c r="C1218">
-        <v>6956.5</v>
+        <v>5032.5</v>
       </c>
     </row>
     <row r="1219" spans="1:3">
@@ -13796,7 +13796,7 @@
         <v>66</v>
       </c>
       <c r="C1219">
-        <v>6986.5</v>
+        <v>5082.5</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13807,7 +13807,7 @@
         <v>67</v>
       </c>
       <c r="C1220">
-        <v>7036.5</v>
+        <v>5132.5</v>
       </c>
     </row>
     <row r="1221" spans="1:3">
@@ -13818,7 +13818,7 @@
         <v>68</v>
       </c>
       <c r="C1221">
-        <v>7096.5</v>
+        <v>5202.5</v>
       </c>
     </row>
     <row r="1222" spans="1:3">
@@ -13829,7 +13829,7 @@
         <v>69</v>
       </c>
       <c r="C1222">
-        <v>6951.2</v>
+        <v>5257.4</v>
       </c>
     </row>
     <row r="1223" spans="1:3">
@@ -13840,7 +13840,7 @@
         <v>70</v>
       </c>
       <c r="C1223">
-        <v>7011.2</v>
+        <v>5337.4</v>
       </c>
     </row>
     <row r="1224" spans="1:3">
@@ -13851,7 +13851,7 @@
         <v>71</v>
       </c>
       <c r="C1224">
-        <v>7071.2</v>
+        <v>5407.4</v>
       </c>
     </row>
     <row r="1225" spans="1:3">
@@ -13862,7 +13862,7 @@
         <v>72</v>
       </c>
       <c r="C1225">
-        <v>7131.2</v>
+        <v>5477.4</v>
       </c>
     </row>
     <row r="1226" spans="1:3">
@@ -13873,7 +13873,7 @@
         <v>73</v>
       </c>
       <c r="C1226">
-        <v>6963</v>
+        <v>6610.9</v>
       </c>
     </row>
     <row r="1227" spans="1:3">
@@ -13884,7 +13884,7 @@
         <v>74</v>
       </c>
       <c r="C1227">
-        <v>7033</v>
+        <v>6690.9</v>
       </c>
     </row>
     <row r="1228" spans="1:3">
@@ -13895,7 +13895,7 @@
         <v>75</v>
       </c>
       <c r="C1228">
-        <v>7113</v>
+        <v>6770.9</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
@@ -13906,7 +13906,7 @@
         <v>76</v>
       </c>
       <c r="C1229">
-        <v>7213</v>
+        <v>6860.9</v>
       </c>
     </row>
     <row r="1230" spans="1:3">
@@ -13917,7 +13917,7 @@
         <v>77</v>
       </c>
       <c r="C1230">
-        <v>6312.7</v>
+        <v>6011.1</v>
       </c>
     </row>
     <row r="1231" spans="1:3">
@@ -13928,7 +13928,7 @@
         <v>78</v>
       </c>
       <c r="C1231">
-        <v>6422.7</v>
+        <v>6111.1</v>
       </c>
     </row>
     <row r="1232" spans="1:3">
@@ -13939,7 +13939,7 @@
         <v>79</v>
       </c>
       <c r="C1232">
-        <v>6512.7</v>
+        <v>6211.1</v>
       </c>
     </row>
     <row r="1233" spans="1:3">
@@ -13950,7 +13950,7 @@
         <v>80</v>
       </c>
       <c r="C1233">
-        <v>6592.7</v>
+        <v>6291.1</v>
       </c>
     </row>
     <row r="1234" spans="1:3">
@@ -13961,7 +13961,7 @@
         <v>81</v>
       </c>
       <c r="C1234">
-        <v>6203.7</v>
+        <v>6300.5</v>
       </c>
     </row>
     <row r="1235" spans="1:3">
@@ -13972,7 +13972,7 @@
         <v>82</v>
       </c>
       <c r="C1235">
-        <v>6293.7</v>
+        <v>6390.5</v>
       </c>
     </row>
     <row r="1236" spans="1:3">
@@ -13983,7 +13983,7 @@
         <v>83</v>
       </c>
       <c r="C1236">
-        <v>6363.7</v>
+        <v>6470.5</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -13994,7 +13994,7 @@
         <v>84</v>
       </c>
       <c r="C1237">
-        <v>6423.7</v>
+        <v>6550.5</v>
       </c>
     </row>
     <row r="1238" spans="1:3">
@@ -14005,7 +14005,7 @@
         <v>85</v>
       </c>
       <c r="C1238">
-        <v>5546.3</v>
+        <v>6325.8</v>
       </c>
     </row>
     <row r="1239" spans="1:3">
@@ -14016,7 +14016,7 @@
         <v>86</v>
       </c>
       <c r="C1239">
-        <v>5546.3</v>
+        <v>6305.8</v>
       </c>
     </row>
     <row r="1240" spans="1:3">
@@ -14027,7 +14027,7 @@
         <v>87</v>
       </c>
       <c r="C1240">
-        <v>5526.3</v>
+        <v>6245.8</v>
       </c>
     </row>
     <row r="1241" spans="1:3">
@@ -14038,7 +14038,7 @@
         <v>88</v>
       </c>
       <c r="C1241">
-        <v>5426.3</v>
+        <v>6155.8</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
@@ -14049,7 +14049,7 @@
         <v>89</v>
       </c>
       <c r="C1242">
-        <v>5411.3</v>
+        <v>6106.3</v>
       </c>
     </row>
     <row r="1243" spans="1:3">
@@ -14060,7 +14060,7 @@
         <v>90</v>
       </c>
       <c r="C1243">
-        <v>5311.3</v>
+        <v>5966.3</v>
       </c>
     </row>
     <row r="1244" spans="1:3">
@@ -14071,7 +14071,7 @@
         <v>91</v>
       </c>
       <c r="C1244">
-        <v>5161.3</v>
+        <v>5806.3</v>
       </c>
     </row>
     <row r="1245" spans="1:3">
@@ -14082,7 +14082,7 @@
         <v>92</v>
       </c>
       <c r="C1245">
-        <v>4981.3</v>
+        <v>5616.3</v>
       </c>
     </row>
     <row r="1246" spans="1:3">
@@ -14093,7 +14093,7 @@
         <v>93</v>
       </c>
       <c r="C1246">
-        <v>4663.2</v>
+        <v>5753.6</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
@@ -14104,7 +14104,7 @@
         <v>94</v>
       </c>
       <c r="C1247">
-        <v>4473.2</v>
+        <v>5603.6</v>
       </c>
     </row>
     <row r="1248" spans="1:3">
@@ -14115,7 +14115,7 @@
         <v>95</v>
       </c>
       <c r="C1248">
-        <v>4393.2</v>
+        <v>5453.6</v>
       </c>
     </row>
     <row r="1249" spans="1:3">
@@ -14126,7 +14126,7 @@
         <v>96</v>
       </c>
       <c r="C1249">
-        <v>4263.2</v>
+        <v>5343.6</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
@@ -14137,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="C1250">
-        <v>5024.9</v>
+        <v>5725.5</v>
       </c>
     </row>
     <row r="1251" spans="1:3">
@@ -14148,7 +14148,7 @@
         <v>2</v>
       </c>
       <c r="C1251">
-        <v>4984.9</v>
+        <v>5665.5</v>
       </c>
     </row>
     <row r="1252" spans="1:3">
@@ -14159,7 +14159,7 @@
         <v>3</v>
       </c>
       <c r="C1252">
-        <v>4924.9</v>
+        <v>5605.5</v>
       </c>
     </row>
     <row r="1253" spans="1:3">
@@ -14170,7 +14170,7 @@
         <v>4</v>
       </c>
       <c r="C1253">
-        <v>4854.9</v>
+        <v>5565.5</v>
       </c>
     </row>
     <row r="1254" spans="1:3">
@@ -14181,7 +14181,7 @@
         <v>5</v>
       </c>
       <c r="C1254">
-        <v>5596.5</v>
+        <v>4499.8</v>
       </c>
     </row>
     <row r="1255" spans="1:3">
@@ -14192,7 +14192,7 @@
         <v>6</v>
       </c>
       <c r="C1255">
-        <v>5556.5</v>
+        <v>4449.8</v>
       </c>
     </row>
     <row r="1256" spans="1:3">
@@ -14203,7 +14203,7 @@
         <v>7</v>
       </c>
       <c r="C1256">
-        <v>5506.5</v>
+        <v>4409.8</v>
       </c>
     </row>
     <row r="1257" spans="1:3">
@@ -14214,7 +14214,7 @@
         <v>8</v>
       </c>
       <c r="C1257">
-        <v>5466.5</v>
+        <v>4369.8</v>
       </c>
     </row>
     <row r="1258" spans="1:3">
@@ -14225,7 +14225,7 @@
         <v>9</v>
       </c>
       <c r="C1258">
-        <v>5566.3</v>
+        <v>4449.7</v>
       </c>
     </row>
     <row r="1259" spans="1:3">
@@ -14236,7 +14236,7 @@
         <v>10</v>
       </c>
       <c r="C1259">
-        <v>5536.3</v>
+        <v>4419.7</v>
       </c>
     </row>
     <row r="1260" spans="1:3">
@@ -14247,7 +14247,7 @@
         <v>11</v>
       </c>
       <c r="C1260">
-        <v>5516.3</v>
+        <v>4409.7</v>
       </c>
     </row>
     <row r="1261" spans="1:3">
@@ -14258,7 +14258,7 @@
         <v>12</v>
       </c>
       <c r="C1261">
-        <v>5516.3</v>
+        <v>4399.7</v>
       </c>
     </row>
     <row r="1262" spans="1:3">
@@ -14269,7 +14269,7 @@
         <v>13</v>
       </c>
       <c r="C1262">
-        <v>5724.5</v>
+        <v>4465.8</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
@@ -14280,7 +14280,7 @@
         <v>14</v>
       </c>
       <c r="C1263">
-        <v>5744.5</v>
+        <v>4455.8</v>
       </c>
     </row>
     <row r="1264" spans="1:3">
@@ -14291,7 +14291,7 @@
         <v>15</v>
       </c>
       <c r="C1264">
-        <v>5744.5</v>
+        <v>4455.8</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
@@ -14302,7 +14302,7 @@
         <v>16</v>
       </c>
       <c r="C1265">
-        <v>5734.5</v>
+        <v>4465.8</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
@@ -14313,7 +14313,7 @@
         <v>17</v>
       </c>
       <c r="C1266">
-        <v>5738.7</v>
+        <v>4434.8</v>
       </c>
     </row>
     <row r="1267" spans="1:3">
@@ -14324,7 +14324,7 @@
         <v>18</v>
       </c>
       <c r="C1267">
-        <v>5738.7</v>
+        <v>4444.8</v>
       </c>
     </row>
     <row r="1268" spans="1:3">
@@ -14335,7 +14335,7 @@
         <v>19</v>
       </c>
       <c r="C1268">
-        <v>5748.7</v>
+        <v>4454.8</v>
       </c>
     </row>
     <row r="1269" spans="1:3">
@@ -14346,7 +14346,7 @@
         <v>20</v>
       </c>
       <c r="C1269">
-        <v>5768.7</v>
+        <v>4464.8</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
@@ -14357,7 +14357,7 @@
         <v>21</v>
       </c>
       <c r="C1270">
-        <v>4570.8</v>
+        <v>4380.6</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
@@ -14368,7 +14368,7 @@
         <v>22</v>
       </c>
       <c r="C1271">
-        <v>4620.8</v>
+        <v>4410.6</v>
       </c>
     </row>
     <row r="1272" spans="1:3">
@@ -14379,7 +14379,7 @@
         <v>23</v>
       </c>
       <c r="C1272">
-        <v>4690.8</v>
+        <v>4460.6</v>
       </c>
     </row>
     <row r="1273" spans="1:3">
@@ -14390,7 +14390,7 @@
         <v>24</v>
       </c>
       <c r="C1273">
-        <v>4770.8</v>
+        <v>4550.6</v>
       </c>
     </row>
     <row r="1274" spans="1:3">
@@ -14401,7 +14401,7 @@
         <v>25</v>
       </c>
       <c r="C1274">
-        <v>4729.9</v>
+        <v>4338.9</v>
       </c>
     </row>
     <row r="1275" spans="1:3">
@@ -14412,7 +14412,7 @@
         <v>26</v>
       </c>
       <c r="C1275">
-        <v>4829.9</v>
+        <v>4438.9</v>
       </c>
     </row>
     <row r="1276" spans="1:3">
@@ -14423,7 +14423,7 @@
         <v>27</v>
       </c>
       <c r="C1276">
-        <v>4939.9</v>
+        <v>4548.9</v>
       </c>
     </row>
     <row r="1277" spans="1:3">
@@ -14434,7 +14434,7 @@
         <v>28</v>
       </c>
       <c r="C1277">
-        <v>5049.9</v>
+        <v>4678.9</v>
       </c>
     </row>
     <row r="1278" spans="1:3">
@@ -14445,7 +14445,7 @@
         <v>29</v>
       </c>
       <c r="C1278">
-        <v>5847.1</v>
+        <v>4804.6</v>
       </c>
     </row>
     <row r="1279" spans="1:3">
@@ -14456,7 +14456,7 @@
         <v>30</v>
       </c>
       <c r="C1279">
-        <v>5947.1</v>
+        <v>4924.6</v>
       </c>
     </row>
     <row r="1280" spans="1:3">
@@ -14467,7 +14467,7 @@
         <v>31</v>
       </c>
       <c r="C1280">
-        <v>6027.1</v>
+        <v>5014.6</v>
       </c>
     </row>
     <row r="1281" spans="1:3">
@@ -14478,7 +14478,7 @@
         <v>32</v>
       </c>
       <c r="C1281">
-        <v>6097.1</v>
+        <v>5064.6</v>
       </c>
     </row>
     <row r="1282" spans="1:3">
@@ -14489,7 +14489,7 @@
         <v>33</v>
       </c>
       <c r="C1282">
-        <v>6239.1</v>
+        <v>5002.2</v>
       </c>
     </row>
     <row r="1283" spans="1:3">
@@ -14500,7 +14500,7 @@
         <v>34</v>
       </c>
       <c r="C1283">
-        <v>6279.1</v>
+        <v>5012.2</v>
       </c>
     </row>
     <row r="1284" spans="1:3">
@@ -14511,7 +14511,7 @@
         <v>35</v>
       </c>
       <c r="C1284">
-        <v>6299.1</v>
+        <v>5012.2</v>
       </c>
     </row>
     <row r="1285" spans="1:3">
@@ -14522,7 +14522,7 @@
         <v>36</v>
       </c>
       <c r="C1285">
-        <v>6289.1</v>
+        <v>4992.2</v>
       </c>
     </row>
     <row r="1286" spans="1:3">
@@ -14533,7 +14533,7 @@
         <v>37</v>
       </c>
       <c r="C1286">
-        <v>6362.9</v>
+        <v>5178.4</v>
       </c>
     </row>
     <row r="1287" spans="1:3">
@@ -14544,7 +14544,7 @@
         <v>38</v>
       </c>
       <c r="C1287">
-        <v>6332.9</v>
+        <v>5118.4</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
@@ -14555,7 +14555,7 @@
         <v>39</v>
       </c>
       <c r="C1288">
-        <v>6292.9</v>
+        <v>5048.4</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
@@ -14566,7 +14566,7 @@
         <v>40</v>
       </c>
       <c r="C1289">
-        <v>6252.9</v>
+        <v>4968.4</v>
       </c>
     </row>
     <row r="1290" spans="1:3">
@@ -14577,7 +14577,7 @@
         <v>41</v>
       </c>
       <c r="C1290">
-        <v>6784.3</v>
+        <v>5332.1</v>
       </c>
     </row>
     <row r="1291" spans="1:3">
@@ -14588,7 +14588,7 @@
         <v>42</v>
       </c>
       <c r="C1291">
-        <v>6734.3</v>
+        <v>5252.1</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
@@ -14599,7 +14599,7 @@
         <v>43</v>
       </c>
       <c r="C1292">
-        <v>6684.3</v>
+        <v>5182.1</v>
       </c>
     </row>
     <row r="1293" spans="1:3">
@@ -14610,7 +14610,7 @@
         <v>44</v>
       </c>
       <c r="C1293">
-        <v>6654.3</v>
+        <v>5112.1</v>
       </c>
     </row>
     <row r="1294" spans="1:3">
@@ -14621,7 +14621,7 @@
         <v>45</v>
       </c>
       <c r="C1294">
-        <v>6773.3</v>
+        <v>5241.5</v>
       </c>
     </row>
     <row r="1295" spans="1:3">
@@ -14632,7 +14632,7 @@
         <v>46</v>
       </c>
       <c r="C1295">
-        <v>6753.3</v>
+        <v>5191.5</v>
       </c>
     </row>
     <row r="1296" spans="1:3">
@@ -14643,7 +14643,7 @@
         <v>47</v>
       </c>
       <c r="C1296">
-        <v>6733.3</v>
+        <v>5161.5</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
@@ -14654,7 +14654,7 @@
         <v>48</v>
       </c>
       <c r="C1297">
-        <v>6713.3</v>
+        <v>5131.5</v>
       </c>
     </row>
     <row r="1298" spans="1:3">
@@ -14665,7 +14665,7 @@
         <v>49</v>
       </c>
       <c r="C1298">
-        <v>6778.2</v>
+        <v>4872.9</v>
       </c>
     </row>
     <row r="1299" spans="1:3">
@@ -14676,7 +14676,7 @@
         <v>50</v>
       </c>
       <c r="C1299">
-        <v>6758.2</v>
+        <v>4852.9</v>
       </c>
     </row>
     <row r="1300" spans="1:3">
@@ -14687,7 +14687,7 @@
         <v>51</v>
       </c>
       <c r="C1300">
-        <v>6738.2</v>
+        <v>4842.9</v>
       </c>
     </row>
     <row r="1301" spans="1:3">
@@ -14698,7 +14698,7 @@
         <v>52</v>
       </c>
       <c r="C1301">
-        <v>6728.2</v>
+        <v>4832.9</v>
       </c>
     </row>
     <row r="1302" spans="1:3">
@@ -14709,7 +14709,7 @@
         <v>53</v>
       </c>
       <c r="C1302">
-        <v>6600.1</v>
+        <v>4825.5</v>
       </c>
     </row>
     <row r="1303" spans="1:3">
@@ -14720,7 +14720,7 @@
         <v>54</v>
       </c>
       <c r="C1303">
-        <v>6590.1</v>
+        <v>4835.5</v>
       </c>
     </row>
     <row r="1304" spans="1:3">
@@ -14731,7 +14731,7 @@
         <v>55</v>
       </c>
       <c r="C1304">
-        <v>6570.1</v>
+        <v>4845.5</v>
       </c>
     </row>
     <row r="1305" spans="1:3">
@@ -14742,7 +14742,7 @@
         <v>56</v>
       </c>
       <c r="C1305">
-        <v>6560.1</v>
+        <v>4845.5</v>
       </c>
     </row>
     <row r="1306" spans="1:3">
@@ -14753,7 +14753,7 @@
         <v>57</v>
       </c>
       <c r="C1306">
-        <v>6783.5</v>
+        <v>4901.4</v>
       </c>
     </row>
     <row r="1307" spans="1:3">
@@ -14764,7 +14764,7 @@
         <v>58</v>
       </c>
       <c r="C1307">
-        <v>6773.5</v>
+        <v>4881.4</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14775,7 +14775,7 @@
         <v>59</v>
       </c>
       <c r="C1308">
-        <v>6763.5</v>
+        <v>4881.4</v>
       </c>
     </row>
     <row r="1309" spans="1:3">
@@ -14786,7 +14786,7 @@
         <v>60</v>
       </c>
       <c r="C1309">
-        <v>6753.5</v>
+        <v>4881.4</v>
       </c>
     </row>
     <row r="1310" spans="1:3">
@@ -14797,7 +14797,7 @@
         <v>61</v>
       </c>
       <c r="C1310">
-        <v>6806.2</v>
+        <v>4835.9</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14808,7 +14808,7 @@
         <v>62</v>
       </c>
       <c r="C1311">
-        <v>6786.2</v>
+        <v>4845.9</v>
       </c>
     </row>
     <row r="1312" spans="1:3">
@@ -14819,7 +14819,7 @@
         <v>63</v>
       </c>
       <c r="C1312">
-        <v>6766.2</v>
+        <v>4855.9</v>
       </c>
     </row>
     <row r="1313" spans="1:3">
@@ -14830,7 +14830,7 @@
         <v>64</v>
       </c>
       <c r="C1313">
-        <v>6756.2</v>
+        <v>4875.9</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
@@ -14841,7 +14841,7 @@
         <v>65</v>
       </c>
       <c r="C1314">
-        <v>6866.5</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="1315" spans="1:3">
@@ -14852,7 +14852,7 @@
         <v>66</v>
       </c>
       <c r="C1315">
-        <v>6896.5</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -14863,7 +14863,7 @@
         <v>67</v>
       </c>
       <c r="C1316">
-        <v>6936.5</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
@@ -14874,7 +14874,7 @@
         <v>68</v>
       </c>
       <c r="C1317">
-        <v>6996.5</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="1318" spans="1:3">
@@ -14885,7 +14885,7 @@
         <v>69</v>
       </c>
       <c r="C1318">
-        <v>6851.2</v>
+        <v>4953.6</v>
       </c>
     </row>
     <row r="1319" spans="1:3">
@@ -14896,7 +14896,7 @@
         <v>70</v>
       </c>
       <c r="C1319">
-        <v>6911.2</v>
+        <v>5023.6</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14907,7 +14907,7 @@
         <v>71</v>
       </c>
       <c r="C1320">
-        <v>6971.2</v>
+        <v>5083.6</v>
       </c>
     </row>
     <row r="1321" spans="1:3">
@@ -14918,7 +14918,7 @@
         <v>72</v>
       </c>
       <c r="C1321">
-        <v>7011.2</v>
+        <v>5163.6</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
@@ -14929,7 +14929,7 @@
         <v>73</v>
       </c>
       <c r="C1322">
-        <v>6833</v>
+        <v>5171.7</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
@@ -14940,7 +14940,7 @@
         <v>74</v>
       </c>
       <c r="C1323">
-        <v>6883</v>
+        <v>5261.7</v>
       </c>
     </row>
     <row r="1324" spans="1:3">
@@ -14951,7 +14951,7 @@
         <v>75</v>
       </c>
       <c r="C1324">
-        <v>6943</v>
+        <v>5351.7</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -14962,7 +14962,7 @@
         <v>76</v>
       </c>
       <c r="C1325">
-        <v>7023</v>
+        <v>5441.7</v>
       </c>
     </row>
     <row r="1326" spans="1:3">
@@ -14973,7 +14973,7 @@
         <v>77</v>
       </c>
       <c r="C1326">
-        <v>6112.7</v>
+        <v>5232.4</v>
       </c>
     </row>
     <row r="1327" spans="1:3">
@@ -14984,7 +14984,7 @@
         <v>78</v>
       </c>
       <c r="C1327">
-        <v>6212.7</v>
+        <v>5332.4</v>
       </c>
     </row>
     <row r="1328" spans="1:3">
@@ -14995,7 +14995,7 @@
         <v>79</v>
       </c>
       <c r="C1328">
-        <v>6312.7</v>
+        <v>5432.4</v>
       </c>
     </row>
     <row r="1329" spans="1:3">
@@ -15006,7 +15006,7 @@
         <v>80</v>
       </c>
       <c r="C1329">
-        <v>6392.7</v>
+        <v>5542.4</v>
       </c>
     </row>
     <row r="1330" spans="1:3">
@@ -15017,7 +15017,7 @@
         <v>81</v>
       </c>
       <c r="C1330">
-        <v>6023.7</v>
+        <v>5352.5</v>
       </c>
     </row>
     <row r="1331" spans="1:3">
@@ -15028,7 +15028,7 @@
         <v>82</v>
       </c>
       <c r="C1331">
-        <v>6123.7</v>
+        <v>5462.5</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
@@ -15039,7 +15039,7 @@
         <v>83</v>
       </c>
       <c r="C1332">
-        <v>6223.7</v>
+        <v>5552.5</v>
       </c>
     </row>
     <row r="1333" spans="1:3">
@@ -15050,7 +15050,7 @@
         <v>84</v>
       </c>
       <c r="C1333">
-        <v>6353.7</v>
+        <v>5642.5</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15061,7 +15061,7 @@
         <v>85</v>
       </c>
       <c r="C1334">
-        <v>5546.3</v>
+        <v>5507.1</v>
       </c>
     </row>
     <row r="1335" spans="1:3">
@@ -15072,7 +15072,7 @@
         <v>86</v>
       </c>
       <c r="C1335">
-        <v>5546.3</v>
+        <v>5507.1</v>
       </c>
     </row>
     <row r="1336" spans="1:3">
@@ -15083,7 +15083,7 @@
         <v>87</v>
       </c>
       <c r="C1336">
-        <v>5536.3</v>
+        <v>5477.1</v>
       </c>
     </row>
     <row r="1337" spans="1:3">
@@ -15094,7 +15094,7 @@
         <v>88</v>
       </c>
       <c r="C1337">
-        <v>5456.3</v>
+        <v>5377.1</v>
       </c>
     </row>
     <row r="1338" spans="1:3">
@@ -15105,7 +15105,7 @@
         <v>89</v>
       </c>
       <c r="C1338">
-        <v>5441.3</v>
+        <v>5635.3</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
@@ -15116,7 +15116,7 @@
         <v>90</v>
       </c>
       <c r="C1339">
-        <v>5361.3</v>
+        <v>5475.3</v>
       </c>
     </row>
     <row r="1340" spans="1:3">
@@ -15127,7 +15127,7 @@
         <v>91</v>
       </c>
       <c r="C1340">
-        <v>5231.3</v>
+        <v>5315.3</v>
       </c>
     </row>
     <row r="1341" spans="1:3">
@@ -15138,7 +15138,7 @@
         <v>92</v>
       </c>
       <c r="C1341">
-        <v>5031.3</v>
+        <v>5165.3</v>
       </c>
     </row>
     <row r="1342" spans="1:3">
@@ -15149,7 +15149,7 @@
         <v>93</v>
       </c>
       <c r="C1342">
-        <v>4663.2</v>
+        <v>5416.4</v>
       </c>
     </row>
     <row r="1343" spans="1:3">
@@ -15160,7 +15160,7 @@
         <v>94</v>
       </c>
       <c r="C1343">
-        <v>4473.2</v>
+        <v>5296.4</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
@@ -15171,7 +15171,7 @@
         <v>95</v>
       </c>
       <c r="C1344">
-        <v>4393.2</v>
+        <v>5176.4</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
@@ -15182,7 +15182,7 @@
         <v>96</v>
       </c>
       <c r="C1345">
-        <v>4283.2</v>
+        <v>5056.4</v>
       </c>
     </row>
     <row r="1346" spans="1:3">
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="C1346">
-        <v>5054.9</v>
+        <v>5735.5</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15204,7 +15204,7 @@
         <v>2</v>
       </c>
       <c r="C1347">
-        <v>5024.9</v>
+        <v>5695.5</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15215,7 +15215,7 @@
         <v>3</v>
       </c>
       <c r="C1348">
-        <v>4944.9</v>
+        <v>5635.5</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15226,7 +15226,7 @@
         <v>4</v>
       </c>
       <c r="C1349">
-        <v>4854.9</v>
+        <v>5555.5</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
@@ -15237,7 +15237,7 @@
         <v>5</v>
       </c>
       <c r="C1350">
-        <v>5576.5</v>
+        <v>4469.8</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15248,7 +15248,7 @@
         <v>6</v>
       </c>
       <c r="C1351">
-        <v>5506.5</v>
+        <v>4419.8</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15259,7 +15259,7 @@
         <v>7</v>
       </c>
       <c r="C1352">
-        <v>5446.5</v>
+        <v>4369.8</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15270,7 +15270,7 @@
         <v>8</v>
       </c>
       <c r="C1353">
-        <v>5396.5</v>
+        <v>4329.8</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15281,7 +15281,7 @@
         <v>9</v>
       </c>
       <c r="C1354">
-        <v>5486.3</v>
+        <v>4419.7</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
@@ -15292,7 +15292,7 @@
         <v>10</v>
       </c>
       <c r="C1355">
-        <v>5456.3</v>
+        <v>4399.7</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15303,7 +15303,7 @@
         <v>11</v>
       </c>
       <c r="C1356">
-        <v>5446.3</v>
+        <v>4379.7</v>
       </c>
     </row>
     <row r="1357" spans="1:3">
@@ -15314,7 +15314,7 @@
         <v>12</v>
       </c>
       <c r="C1357">
-        <v>5436.3</v>
+        <v>4379.7</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15325,7 +15325,7 @@
         <v>13</v>
       </c>
       <c r="C1358">
-        <v>5664.5</v>
+        <v>4455.8</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15336,7 +15336,7 @@
         <v>14</v>
       </c>
       <c r="C1359">
-        <v>5664.5</v>
+        <v>4455.8</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15347,7 +15347,7 @@
         <v>15</v>
       </c>
       <c r="C1360">
-        <v>5664.5</v>
+        <v>4455.8</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
@@ -15358,7 +15358,7 @@
         <v>16</v>
       </c>
       <c r="C1361">
-        <v>5674.5</v>
+        <v>4445.8</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
@@ -15369,7 +15369,7 @@
         <v>17</v>
       </c>
       <c r="C1362">
-        <v>5678.7</v>
+        <v>4404.8</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15380,7 +15380,7 @@
         <v>18</v>
       </c>
       <c r="C1363">
-        <v>5678.7</v>
+        <v>4394.8</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15391,7 +15391,7 @@
         <v>19</v>
       </c>
       <c r="C1364">
-        <v>5688.7</v>
+        <v>4414.8</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15402,7 +15402,7 @@
         <v>20</v>
       </c>
       <c r="C1365">
-        <v>5718.7</v>
+        <v>4434.8</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15413,7 +15413,7 @@
         <v>21</v>
       </c>
       <c r="C1366">
-        <v>4520.8</v>
+        <v>4350.6</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
@@ -15424,7 +15424,7 @@
         <v>22</v>
       </c>
       <c r="C1367">
-        <v>4570.8</v>
+        <v>4400.6</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15435,7 +15435,7 @@
         <v>23</v>
       </c>
       <c r="C1368">
-        <v>4640.8</v>
+        <v>4460.6</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15446,7 +15446,7 @@
         <v>24</v>
       </c>
       <c r="C1369">
-        <v>4720.8</v>
+        <v>4540.6</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15457,7 +15457,7 @@
         <v>25</v>
       </c>
       <c r="C1370">
-        <v>4679.9</v>
+        <v>4318.9</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
@@ -15468,7 +15468,7 @@
         <v>26</v>
       </c>
       <c r="C1371">
-        <v>4789.9</v>
+        <v>4418.9</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15479,7 +15479,7 @@
         <v>27</v>
       </c>
       <c r="C1372">
-        <v>4899.9</v>
+        <v>4528.9</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15490,7 +15490,7 @@
         <v>28</v>
       </c>
       <c r="C1373">
-        <v>5009.9</v>
+        <v>4628.9</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15501,7 +15501,7 @@
         <v>29</v>
       </c>
       <c r="C1374">
-        <v>5827.1</v>
+        <v>4704.6</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15512,7 +15512,7 @@
         <v>30</v>
       </c>
       <c r="C1375">
-        <v>5927.1</v>
+        <v>4794.6</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15523,7 +15523,7 @@
         <v>31</v>
       </c>
       <c r="C1376">
-        <v>6027.1</v>
+        <v>4884.6</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15534,7 +15534,7 @@
         <v>32</v>
       </c>
       <c r="C1377">
-        <v>6097.1</v>
+        <v>4954.6</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -15545,7 +15545,7 @@
         <v>33</v>
       </c>
       <c r="C1378">
-        <v>6249.1</v>
+        <v>4922.2</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -15556,7 +15556,7 @@
         <v>34</v>
       </c>
       <c r="C1379">
-        <v>6289.1</v>
+        <v>4942.2</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
@@ -15567,7 +15567,7 @@
         <v>35</v>
       </c>
       <c r="C1380">
-        <v>6309.1</v>
+        <v>4952.2</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -15578,7 +15578,7 @@
         <v>36</v>
       </c>
       <c r="C1381">
-        <v>6299.1</v>
+        <v>4942.2</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15589,7 +15589,7 @@
         <v>37</v>
       </c>
       <c r="C1382">
-        <v>6362.9</v>
+        <v>5188.4</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
@@ -15600,7 +15600,7 @@
         <v>38</v>
       </c>
       <c r="C1383">
-        <v>6322.9</v>
+        <v>5128.4</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
@@ -15611,7 +15611,7 @@
         <v>39</v>
       </c>
       <c r="C1384">
-        <v>6262.9</v>
+        <v>5058.4</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
@@ -15622,7 +15622,7 @@
         <v>40</v>
       </c>
       <c r="C1385">
-        <v>6202.9</v>
+        <v>4978.4</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15633,7 +15633,7 @@
         <v>41</v>
       </c>
       <c r="C1386">
-        <v>6714.3</v>
+        <v>5332.1</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
@@ -15644,7 +15644,7 @@
         <v>42</v>
       </c>
       <c r="C1387">
-        <v>6654.3</v>
+        <v>5252.1</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15655,7 +15655,7 @@
         <v>43</v>
       </c>
       <c r="C1388">
-        <v>6594.3</v>
+        <v>5162.1</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15666,7 +15666,7 @@
         <v>44</v>
       </c>
       <c r="C1389">
-        <v>6554.3</v>
+        <v>5082.1</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -15677,7 +15677,7 @@
         <v>45</v>
       </c>
       <c r="C1390">
-        <v>6673.3</v>
+        <v>5211.5</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -15688,7 +15688,7 @@
         <v>46</v>
       </c>
       <c r="C1391">
-        <v>6653.3</v>
+        <v>5151.5</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15699,7 +15699,7 @@
         <v>47</v>
       </c>
       <c r="C1392">
-        <v>6633.3</v>
+        <v>5111.5</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -15710,7 +15710,7 @@
         <v>48</v>
       </c>
       <c r="C1393">
-        <v>6623.3</v>
+        <v>5081.5</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15721,7 +15721,7 @@
         <v>49</v>
       </c>
       <c r="C1394">
-        <v>6698.2</v>
+        <v>4862.9</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15732,7 +15732,7 @@
         <v>50</v>
       </c>
       <c r="C1395">
-        <v>6698.2</v>
+        <v>4852.9</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
@@ -15743,7 +15743,7 @@
         <v>51</v>
       </c>
       <c r="C1396">
-        <v>6688.2</v>
+        <v>4852.9</v>
       </c>
     </row>
     <row r="1397" spans="1:3">
@@ -15754,7 +15754,7 @@
         <v>52</v>
       </c>
       <c r="C1397">
-        <v>6678.2</v>
+        <v>4842.9</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15765,7 +15765,7 @@
         <v>53</v>
       </c>
       <c r="C1398">
-        <v>6560.1</v>
+        <v>4835.5</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15776,7 +15776,7 @@
         <v>54</v>
       </c>
       <c r="C1399">
-        <v>6550.1</v>
+        <v>4835.5</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
@@ -15787,7 +15787,7 @@
         <v>55</v>
       </c>
       <c r="C1400">
-        <v>6530.1</v>
+        <v>4835.5</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
@@ -15798,7 +15798,7 @@
         <v>56</v>
       </c>
       <c r="C1401">
-        <v>6520.1</v>
+        <v>4845.5</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15809,7 +15809,7 @@
         <v>57</v>
       </c>
       <c r="C1402">
-        <v>6733.5</v>
+        <v>4911.4</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
@@ -15820,7 +15820,7 @@
         <v>58</v>
       </c>
       <c r="C1403">
-        <v>6723.5</v>
+        <v>4911.4</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
@@ -15831,7 +15831,7 @@
         <v>59</v>
       </c>
       <c r="C1404">
-        <v>6703.5</v>
+        <v>4911.4</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
@@ -15842,7 +15842,7 @@
         <v>60</v>
       </c>
       <c r="C1405">
-        <v>6693.5</v>
+        <v>4901.4</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -15853,7 +15853,7 @@
         <v>61</v>
       </c>
       <c r="C1406">
-        <v>6746.2</v>
+        <v>4845.9</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
@@ -15864,7 +15864,7 @@
         <v>62</v>
       </c>
       <c r="C1407">
-        <v>6736.2</v>
+        <v>4845.9</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
@@ -15875,7 +15875,7 @@
         <v>63</v>
       </c>
       <c r="C1408">
-        <v>6726.2</v>
+        <v>4855.9</v>
       </c>
     </row>
     <row r="1409" spans="1:3">
@@ -15886,7 +15886,7 @@
         <v>64</v>
       </c>
       <c r="C1409">
-        <v>6716.2</v>
+        <v>4875.9</v>
       </c>
     </row>
     <row r="1410" spans="1:3">
@@ -15897,7 +15897,7 @@
         <v>65</v>
       </c>
       <c r="C1410">
-        <v>6826.5</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -15908,7 +15908,7 @@
         <v>66</v>
       </c>
       <c r="C1411">
-        <v>6846.5</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="1412" spans="1:3">
@@ -15919,7 +15919,7 @@
         <v>67</v>
       </c>
       <c r="C1412">
-        <v>6876.5</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
@@ -15930,7 +15930,7 @@
         <v>68</v>
       </c>
       <c r="C1413">
-        <v>6926.5</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
@@ -15941,7 +15941,7 @@
         <v>69</v>
       </c>
       <c r="C1414">
-        <v>6771.2</v>
+        <v>4953.6</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
@@ -15952,7 +15952,7 @@
         <v>70</v>
       </c>
       <c r="C1415">
-        <v>6811.2</v>
+        <v>5023.6</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
@@ -15963,7 +15963,7 @@
         <v>71</v>
       </c>
       <c r="C1416">
-        <v>6861.2</v>
+        <v>5073.6</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -15974,7 +15974,7 @@
         <v>72</v>
       </c>
       <c r="C1417">
-        <v>6891.2</v>
+        <v>5133.6</v>
       </c>
     </row>
     <row r="1418" spans="1:3">
@@ -15985,7 +15985,7 @@
         <v>73</v>
       </c>
       <c r="C1418">
-        <v>6713</v>
+        <v>5101.7</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
@@ -15996,7 +15996,7 @@
         <v>74</v>
       </c>
       <c r="C1419">
-        <v>6753</v>
+        <v>5171.7</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
@@ -16007,7 +16007,7 @@
         <v>75</v>
       </c>
       <c r="C1420">
-        <v>6813</v>
+        <v>5251.7</v>
       </c>
     </row>
     <row r="1421" spans="1:3">
@@ -16018,7 +16018,7 @@
         <v>76</v>
       </c>
       <c r="C1421">
-        <v>6893</v>
+        <v>5351.7</v>
       </c>
     </row>
     <row r="1422" spans="1:3">
@@ -16029,7 +16029,7 @@
         <v>77</v>
       </c>
       <c r="C1422">
-        <v>5982.7</v>
+        <v>5172.4</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
@@ -16040,7 +16040,7 @@
         <v>78</v>
       </c>
       <c r="C1423">
-        <v>6092.7</v>
+        <v>5282.4</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
@@ -16051,7 +16051,7 @@
         <v>79</v>
       </c>
       <c r="C1424">
-        <v>6202.7</v>
+        <v>5382.4</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
@@ -16062,7 +16062,7 @@
         <v>80</v>
       </c>
       <c r="C1425">
-        <v>6312.7</v>
+        <v>5472.4</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
@@ -16073,7 +16073,7 @@
         <v>81</v>
       </c>
       <c r="C1426">
-        <v>5953.7</v>
+        <v>5252.5</v>
       </c>
     </row>
     <row r="1427" spans="1:3">
@@ -16084,7 +16084,7 @@
         <v>82</v>
       </c>
       <c r="C1427">
-        <v>6063.7</v>
+        <v>5362.5</v>
       </c>
     </row>
     <row r="1428" spans="1:3">
@@ -16095,7 +16095,7 @@
         <v>83</v>
       </c>
       <c r="C1428">
-        <v>6133.7</v>
+        <v>5462.5</v>
       </c>
     </row>
     <row r="1429" spans="1:3">
@@ -16106,7 +16106,7 @@
         <v>84</v>
       </c>
       <c r="C1429">
-        <v>6193.7</v>
+        <v>5582.5</v>
       </c>
     </row>
     <row r="1430" spans="1:3">
@@ -16117,7 +16117,7 @@
         <v>85</v>
       </c>
       <c r="C1430">
-        <v>5316.3</v>
+        <v>5467.1</v>
       </c>
     </row>
     <row r="1431" spans="1:3">
@@ -16128,7 +16128,7 @@
         <v>86</v>
       </c>
       <c r="C1431">
-        <v>5256.3</v>
+        <v>5477.1</v>
       </c>
     </row>
     <row r="1432" spans="1:3">
@@ -16139,7 +16139,7 @@
         <v>87</v>
       </c>
       <c r="C1432">
-        <v>5216.3</v>
+        <v>5467.1</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
@@ -16150,7 +16150,7 @@
         <v>88</v>
       </c>
       <c r="C1433">
-        <v>5146.3</v>
+        <v>5387.1</v>
       </c>
     </row>
     <row r="1434" spans="1:3">
@@ -16161,7 +16161,7 @@
         <v>89</v>
       </c>
       <c r="C1434">
-        <v>5151.3</v>
+        <v>5705.3</v>
       </c>
     </row>
     <row r="1435" spans="1:3">
@@ -16172,7 +16172,7 @@
         <v>90</v>
       </c>
       <c r="C1435">
-        <v>5061.3</v>
+        <v>5605.3</v>
       </c>
     </row>
     <row r="1436" spans="1:3">
@@ -16183,7 +16183,7 @@
         <v>91</v>
       </c>
       <c r="C1436">
-        <v>4911.3</v>
+        <v>5465.3</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16194,7 +16194,7 @@
         <v>92</v>
       </c>
       <c r="C1437">
-        <v>4741.3</v>
+        <v>5315.3</v>
       </c>
     </row>
     <row r="1438" spans="1:3">
@@ -16205,7 +16205,7 @@
         <v>93</v>
       </c>
       <c r="C1438">
-        <v>4453.2</v>
+        <v>5526.4</v>
       </c>
     </row>
     <row r="1439" spans="1:3">
@@ -16216,7 +16216,7 @@
         <v>94</v>
       </c>
       <c r="C1439">
-        <v>4273.2</v>
+        <v>5366.4</v>
       </c>
     </row>
     <row r="1440" spans="1:3">
@@ -16227,7 +16227,7 @@
         <v>95</v>
       </c>
       <c r="C1440">
-        <v>4193.2</v>
+        <v>5276.4</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
@@ -16238,7 +16238,7 @@
         <v>96</v>
       </c>
       <c r="C1441">
-        <v>4083.2</v>
+        <v>5166.4</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
@@ -18351,6 +18351,4230 @@
       </c>
       <c r="C1633">
         <v>4083.2</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:3">
+      <c r="A1634" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1634">
+        <v>1</v>
+      </c>
+      <c r="C1634">
+        <v>4804.9</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3">
+      <c r="A1635" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1635">
+        <v>2</v>
+      </c>
+      <c r="C1635">
+        <v>4764.9</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3">
+      <c r="A1636" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1636">
+        <v>3</v>
+      </c>
+      <c r="C1636">
+        <v>4704.9</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3">
+      <c r="A1637" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1637">
+        <v>4</v>
+      </c>
+      <c r="C1637">
+        <v>4604.9</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3">
+      <c r="A1638" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1638">
+        <v>5</v>
+      </c>
+      <c r="C1638">
+        <v>5326.5</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:3">
+      <c r="A1639" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1639">
+        <v>6</v>
+      </c>
+      <c r="C1639">
+        <v>5256.5</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3">
+      <c r="A1640" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1640">
+        <v>7</v>
+      </c>
+      <c r="C1640">
+        <v>5206.5</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3">
+      <c r="A1641" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1641">
+        <v>8</v>
+      </c>
+      <c r="C1641">
+        <v>5166.5</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3">
+      <c r="A1642" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1642">
+        <v>9</v>
+      </c>
+      <c r="C1642">
+        <v>5276.3</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3">
+      <c r="A1643" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1643">
+        <v>10</v>
+      </c>
+      <c r="C1643">
+        <v>5256.3</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:3">
+      <c r="A1644" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1644">
+        <v>11</v>
+      </c>
+      <c r="C1644">
+        <v>5236.3</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:3">
+      <c r="A1645" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1645">
+        <v>12</v>
+      </c>
+      <c r="C1645">
+        <v>5226.3</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:3">
+      <c r="A1646" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1646">
+        <v>13</v>
+      </c>
+      <c r="C1646">
+        <v>5444.5</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:3">
+      <c r="A1647" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1647">
+        <v>14</v>
+      </c>
+      <c r="C1647">
+        <v>5444.5</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:3">
+      <c r="A1648" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1648">
+        <v>15</v>
+      </c>
+      <c r="C1648">
+        <v>5444.5</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:3">
+      <c r="A1649" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1649">
+        <v>16</v>
+      </c>
+      <c r="C1649">
+        <v>5434.5</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:3">
+      <c r="A1650" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1650">
+        <v>17</v>
+      </c>
+      <c r="C1650">
+        <v>5438.7</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:3">
+      <c r="A1651" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1651">
+        <v>18</v>
+      </c>
+      <c r="C1651">
+        <v>5448.7</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:3">
+      <c r="A1652" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1652">
+        <v>19</v>
+      </c>
+      <c r="C1652">
+        <v>5448.7</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:3">
+      <c r="A1653" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1653">
+        <v>20</v>
+      </c>
+      <c r="C1653">
+        <v>5458.7</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:3">
+      <c r="A1654" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1654">
+        <v>21</v>
+      </c>
+      <c r="C1654">
+        <v>4240.8</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:3">
+      <c r="A1655" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1655">
+        <v>22</v>
+      </c>
+      <c r="C1655">
+        <v>4250.8</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:3">
+      <c r="A1656" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1656">
+        <v>23</v>
+      </c>
+      <c r="C1656">
+        <v>4260.8</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:3">
+      <c r="A1657" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1657">
+        <v>24</v>
+      </c>
+      <c r="C1657">
+        <v>4290.8</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:3">
+      <c r="A1658" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1658">
+        <v>25</v>
+      </c>
+      <c r="C1658">
+        <v>4169.9</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:3">
+      <c r="A1659" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1659">
+        <v>26</v>
+      </c>
+      <c r="C1659">
+        <v>4209.9</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:3">
+      <c r="A1660" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1660">
+        <v>27</v>
+      </c>
+      <c r="C1660">
+        <v>4259.9</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:3">
+      <c r="A1661" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1661">
+        <v>28</v>
+      </c>
+      <c r="C1661">
+        <v>4309.9</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:3">
+      <c r="A1662" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1662">
+        <v>29</v>
+      </c>
+      <c r="C1662">
+        <v>5057.1</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:3">
+      <c r="A1663" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1663">
+        <v>30</v>
+      </c>
+      <c r="C1663">
+        <v>5127.1</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:3">
+      <c r="A1664" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1664">
+        <v>31</v>
+      </c>
+      <c r="C1664">
+        <v>5187.1</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:3">
+      <c r="A1665" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1665">
+        <v>32</v>
+      </c>
+      <c r="C1665">
+        <v>5237.1</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:3">
+      <c r="A1666" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1666">
+        <v>33</v>
+      </c>
+      <c r="C1666">
+        <v>5379.1</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:3">
+      <c r="A1667" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1667">
+        <v>34</v>
+      </c>
+      <c r="C1667">
+        <v>5419.1</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:3">
+      <c r="A1668" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1668">
+        <v>35</v>
+      </c>
+      <c r="C1668">
+        <v>5439.1</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:3">
+      <c r="A1669" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1669">
+        <v>36</v>
+      </c>
+      <c r="C1669">
+        <v>5449.1</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:3">
+      <c r="A1670" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1670">
+        <v>37</v>
+      </c>
+      <c r="C1670">
+        <v>5542.9</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:3">
+      <c r="A1671" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1671">
+        <v>38</v>
+      </c>
+      <c r="C1671">
+        <v>5512.9</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:3">
+      <c r="A1672" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1672">
+        <v>39</v>
+      </c>
+      <c r="C1672">
+        <v>5482.9</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:3">
+      <c r="A1673" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1673">
+        <v>40</v>
+      </c>
+      <c r="C1673">
+        <v>5442.9</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:3">
+      <c r="A1674" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1674">
+        <v>41</v>
+      </c>
+      <c r="C1674">
+        <v>5974.3</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:3">
+      <c r="A1675" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1675">
+        <v>42</v>
+      </c>
+      <c r="C1675">
+        <v>5924.3</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:3">
+      <c r="A1676" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1676">
+        <v>43</v>
+      </c>
+      <c r="C1676">
+        <v>5874.3</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:3">
+      <c r="A1677" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1677">
+        <v>44</v>
+      </c>
+      <c r="C1677">
+        <v>5834.3</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:3">
+      <c r="A1678" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1678">
+        <v>45</v>
+      </c>
+      <c r="C1678">
+        <v>5953.3</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:3">
+      <c r="A1679" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1679">
+        <v>46</v>
+      </c>
+      <c r="C1679">
+        <v>5923.3</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:3">
+      <c r="A1680" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1680">
+        <v>47</v>
+      </c>
+      <c r="C1680">
+        <v>5893.3</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:3">
+      <c r="A1681" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1681">
+        <v>48</v>
+      </c>
+      <c r="C1681">
+        <v>5863.3</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:3">
+      <c r="A1682" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1682">
+        <v>49</v>
+      </c>
+      <c r="C1682">
+        <v>5918.2</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:3">
+      <c r="A1683" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1683">
+        <v>50</v>
+      </c>
+      <c r="C1683">
+        <v>5898.2</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:3">
+      <c r="A1684" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1684">
+        <v>51</v>
+      </c>
+      <c r="C1684">
+        <v>5868.2</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:3">
+      <c r="A1685" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1685">
+        <v>52</v>
+      </c>
+      <c r="C1685">
+        <v>5848.2</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:3">
+      <c r="A1686" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1686">
+        <v>53</v>
+      </c>
+      <c r="C1686">
+        <v>5720.1</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:3">
+      <c r="A1687" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1687">
+        <v>54</v>
+      </c>
+      <c r="C1687">
+        <v>5700.1</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:3">
+      <c r="A1688" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1688">
+        <v>55</v>
+      </c>
+      <c r="C1688">
+        <v>5690.1</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:3">
+      <c r="A1689" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1689">
+        <v>56</v>
+      </c>
+      <c r="C1689">
+        <v>5680.1</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:3">
+      <c r="A1690" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1690">
+        <v>57</v>
+      </c>
+      <c r="C1690">
+        <v>5913.5</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:3">
+      <c r="A1691" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1691">
+        <v>58</v>
+      </c>
+      <c r="C1691">
+        <v>5913.5</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:3">
+      <c r="A1692" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1692">
+        <v>59</v>
+      </c>
+      <c r="C1692">
+        <v>5933.5</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:3">
+      <c r="A1693" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1693">
+        <v>60</v>
+      </c>
+      <c r="C1693">
+        <v>5943.5</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:3">
+      <c r="A1694" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1694">
+        <v>61</v>
+      </c>
+      <c r="C1694">
+        <v>6036.2</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:3">
+      <c r="A1695" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1695">
+        <v>62</v>
+      </c>
+      <c r="C1695">
+        <v>6056.2</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:3">
+      <c r="A1696" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1696">
+        <v>63</v>
+      </c>
+      <c r="C1696">
+        <v>6076.2</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:3">
+      <c r="A1697" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1697">
+        <v>64</v>
+      </c>
+      <c r="C1697">
+        <v>6106.2</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:3">
+      <c r="A1698" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1698">
+        <v>65</v>
+      </c>
+      <c r="C1698">
+        <v>6246.5</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:3">
+      <c r="A1699" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1699">
+        <v>66</v>
+      </c>
+      <c r="C1699">
+        <v>6286.5</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:3">
+      <c r="A1700" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1700">
+        <v>67</v>
+      </c>
+      <c r="C1700">
+        <v>6346.5</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:3">
+      <c r="A1701" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1701">
+        <v>68</v>
+      </c>
+      <c r="C1701">
+        <v>6396.5</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:3">
+      <c r="A1702" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1702">
+        <v>69</v>
+      </c>
+      <c r="C1702">
+        <v>6251.2</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:3">
+      <c r="A1703" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1703">
+        <v>70</v>
+      </c>
+      <c r="C1703">
+        <v>6301.2</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:3">
+      <c r="A1704" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1704">
+        <v>71</v>
+      </c>
+      <c r="C1704">
+        <v>6351.2</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:3">
+      <c r="A1705" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1705">
+        <v>72</v>
+      </c>
+      <c r="C1705">
+        <v>6401.2</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:3">
+      <c r="A1706" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1706">
+        <v>73</v>
+      </c>
+      <c r="C1706">
+        <v>6223</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:3">
+      <c r="A1707" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1707">
+        <v>74</v>
+      </c>
+      <c r="C1707">
+        <v>6253</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:3">
+      <c r="A1708" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1708">
+        <v>75</v>
+      </c>
+      <c r="C1708">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:3">
+      <c r="A1709" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1709">
+        <v>76</v>
+      </c>
+      <c r="C1709">
+        <v>6353</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:3">
+      <c r="A1710" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1710">
+        <v>77</v>
+      </c>
+      <c r="C1710">
+        <v>5402.7</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:3">
+      <c r="A1711" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1711">
+        <v>78</v>
+      </c>
+      <c r="C1711">
+        <v>5482.7</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:3">
+      <c r="A1712" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1712">
+        <v>79</v>
+      </c>
+      <c r="C1712">
+        <v>5562.7</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:3">
+      <c r="A1713" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1713">
+        <v>80</v>
+      </c>
+      <c r="C1713">
+        <v>5642.7</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:3">
+      <c r="A1714" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1714">
+        <v>81</v>
+      </c>
+      <c r="C1714">
+        <v>5283.7</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:3">
+      <c r="A1715" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1715">
+        <v>82</v>
+      </c>
+      <c r="C1715">
+        <v>5403.7</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:3">
+      <c r="A1716" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1716">
+        <v>83</v>
+      </c>
+      <c r="C1716">
+        <v>5483.7</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:3">
+      <c r="A1717" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1717">
+        <v>84</v>
+      </c>
+      <c r="C1717">
+        <v>5553.7</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:3">
+      <c r="A1718" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1718">
+        <v>85</v>
+      </c>
+      <c r="C1718">
+        <v>4676.3</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:3">
+      <c r="A1719" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1719">
+        <v>86</v>
+      </c>
+      <c r="C1719">
+        <v>4626.3</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:3">
+      <c r="A1720" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1720">
+        <v>87</v>
+      </c>
+      <c r="C1720">
+        <v>4626.3</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:3">
+      <c r="A1721" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1721">
+        <v>88</v>
+      </c>
+      <c r="C1721">
+        <v>4596.3</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:3">
+      <c r="A1722" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1722">
+        <v>89</v>
+      </c>
+      <c r="C1722">
+        <v>4661.3</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:3">
+      <c r="A1723" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1723">
+        <v>90</v>
+      </c>
+      <c r="C1723">
+        <v>4611.3</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:3">
+      <c r="A1724" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1724">
+        <v>91</v>
+      </c>
+      <c r="C1724">
+        <v>4461.3</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:3">
+      <c r="A1725" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1725">
+        <v>92</v>
+      </c>
+      <c r="C1725">
+        <v>4311.3</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:3">
+      <c r="A1726" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1726">
+        <v>93</v>
+      </c>
+      <c r="C1726">
+        <v>4083.2</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:3">
+      <c r="A1727" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1727">
+        <v>94</v>
+      </c>
+      <c r="C1727">
+        <v>3933.2</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:3">
+      <c r="A1728" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1728">
+        <v>95</v>
+      </c>
+      <c r="C1728">
+        <v>3843.2</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:3">
+      <c r="A1729" s="2">
+        <v>45430</v>
+      </c>
+      <c r="B1729">
+        <v>96</v>
+      </c>
+      <c r="C1729">
+        <v>3733.2</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:3">
+      <c r="A1730" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1730">
+        <v>1</v>
+      </c>
+      <c r="C1730">
+        <v>4574.9</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:3">
+      <c r="A1731" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1731">
+        <v>2</v>
+      </c>
+      <c r="C1731">
+        <v>4534.9</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:3">
+      <c r="A1732" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1732">
+        <v>3</v>
+      </c>
+      <c r="C1732">
+        <v>4504.9</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:3">
+      <c r="A1733" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1733">
+        <v>4</v>
+      </c>
+      <c r="C1733">
+        <v>4414.9</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:3">
+      <c r="A1734" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1734">
+        <v>5</v>
+      </c>
+      <c r="C1734">
+        <v>5136.5</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:3">
+      <c r="A1735" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1735">
+        <v>6</v>
+      </c>
+      <c r="C1735">
+        <v>5056.5</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:3">
+      <c r="A1736" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1736">
+        <v>7</v>
+      </c>
+      <c r="C1736">
+        <v>4986.5</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:3">
+      <c r="A1737" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1737">
+        <v>8</v>
+      </c>
+      <c r="C1737">
+        <v>4936.5</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:3">
+      <c r="A1738" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1738">
+        <v>9</v>
+      </c>
+      <c r="C1738">
+        <v>5016.3</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:3">
+      <c r="A1739" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1739">
+        <v>10</v>
+      </c>
+      <c r="C1739">
+        <v>4976.3</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:3">
+      <c r="A1740" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1740">
+        <v>11</v>
+      </c>
+      <c r="C1740">
+        <v>4936.3</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:3">
+      <c r="A1741" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1741">
+        <v>12</v>
+      </c>
+      <c r="C1741">
+        <v>4916.3</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:3">
+      <c r="A1742" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1742">
+        <v>13</v>
+      </c>
+      <c r="C1742">
+        <v>5134.5</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:3">
+      <c r="A1743" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1743">
+        <v>14</v>
+      </c>
+      <c r="C1743">
+        <v>5124.5</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:3">
+      <c r="A1744" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1744">
+        <v>15</v>
+      </c>
+      <c r="C1744">
+        <v>5124.5</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:3">
+      <c r="A1745" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1745">
+        <v>16</v>
+      </c>
+      <c r="C1745">
+        <v>5124.5</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:3">
+      <c r="A1746" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1746">
+        <v>17</v>
+      </c>
+      <c r="C1746">
+        <v>5138.7</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:3">
+      <c r="A1747" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1747">
+        <v>18</v>
+      </c>
+      <c r="C1747">
+        <v>5138.7</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:3">
+      <c r="A1748" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1748">
+        <v>19</v>
+      </c>
+      <c r="C1748">
+        <v>5148.7</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:3">
+      <c r="A1749" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1749">
+        <v>20</v>
+      </c>
+      <c r="C1749">
+        <v>5148.7</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:3">
+      <c r="A1750" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1750">
+        <v>21</v>
+      </c>
+      <c r="C1750">
+        <v>3930.8</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:3">
+      <c r="A1751" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1751">
+        <v>22</v>
+      </c>
+      <c r="C1751">
+        <v>3940.8</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:3">
+      <c r="A1752" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1752">
+        <v>23</v>
+      </c>
+      <c r="C1752">
+        <v>3950.8</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:3">
+      <c r="A1753" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1753">
+        <v>24</v>
+      </c>
+      <c r="C1753">
+        <v>3970.8</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:3">
+      <c r="A1754" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1754">
+        <v>25</v>
+      </c>
+      <c r="C1754">
+        <v>3849.9</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:3">
+      <c r="A1755" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1755">
+        <v>26</v>
+      </c>
+      <c r="C1755">
+        <v>3869.9</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:3">
+      <c r="A1756" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1756">
+        <v>27</v>
+      </c>
+      <c r="C1756">
+        <v>3899.9</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:3">
+      <c r="A1757" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1757">
+        <v>28</v>
+      </c>
+      <c r="C1757">
+        <v>3929.9</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:3">
+      <c r="A1758" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1758">
+        <v>29</v>
+      </c>
+      <c r="C1758">
+        <v>4657.1</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:3">
+      <c r="A1759" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1759">
+        <v>30</v>
+      </c>
+      <c r="C1759">
+        <v>4677.1</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:3">
+      <c r="A1760" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1760">
+        <v>31</v>
+      </c>
+      <c r="C1760">
+        <v>4707.1</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:3">
+      <c r="A1761" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1761">
+        <v>32</v>
+      </c>
+      <c r="C1761">
+        <v>4717.1</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:3">
+      <c r="A1762" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1762">
+        <v>33</v>
+      </c>
+      <c r="C1762">
+        <v>4809.1</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:3">
+      <c r="A1763" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1763">
+        <v>34</v>
+      </c>
+      <c r="C1763">
+        <v>4799.1</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:3">
+      <c r="A1764" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1764">
+        <v>35</v>
+      </c>
+      <c r="C1764">
+        <v>4779.1</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:3">
+      <c r="A1765" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1765">
+        <v>36</v>
+      </c>
+      <c r="C1765">
+        <v>4749.1</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:3">
+      <c r="A1766" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1766">
+        <v>37</v>
+      </c>
+      <c r="C1766">
+        <v>4792.9</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:3">
+      <c r="A1767" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1767">
+        <v>38</v>
+      </c>
+      <c r="C1767">
+        <v>4742.9</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:3">
+      <c r="A1768" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1768">
+        <v>39</v>
+      </c>
+      <c r="C1768">
+        <v>4682.9</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:3">
+      <c r="A1769" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1769">
+        <v>40</v>
+      </c>
+      <c r="C1769">
+        <v>4622.9</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:3">
+      <c r="A1770" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1770">
+        <v>41</v>
+      </c>
+      <c r="C1770">
+        <v>5144.3</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:3">
+      <c r="A1771" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1771">
+        <v>42</v>
+      </c>
+      <c r="C1771">
+        <v>5084.3</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:3">
+      <c r="A1772" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1772">
+        <v>43</v>
+      </c>
+      <c r="C1772">
+        <v>5034.3</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:3">
+      <c r="A1773" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1773">
+        <v>44</v>
+      </c>
+      <c r="C1773">
+        <v>4984.3</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:3">
+      <c r="A1774" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1774">
+        <v>45</v>
+      </c>
+      <c r="C1774">
+        <v>5103.3</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:3">
+      <c r="A1775" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1775">
+        <v>46</v>
+      </c>
+      <c r="C1775">
+        <v>5063.3</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:3">
+      <c r="A1776" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1776">
+        <v>47</v>
+      </c>
+      <c r="C1776">
+        <v>5033.3</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:3">
+      <c r="A1777" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1777">
+        <v>48</v>
+      </c>
+      <c r="C1777">
+        <v>5003.3</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:3">
+      <c r="A1778" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1778">
+        <v>49</v>
+      </c>
+      <c r="C1778">
+        <v>5068.2</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:3">
+      <c r="A1779" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1779">
+        <v>50</v>
+      </c>
+      <c r="C1779">
+        <v>5048.2</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:3">
+      <c r="A1780" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1780">
+        <v>51</v>
+      </c>
+      <c r="C1780">
+        <v>5028.2</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:3">
+      <c r="A1781" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1781">
+        <v>52</v>
+      </c>
+      <c r="C1781">
+        <v>5018.2</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:3">
+      <c r="A1782" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1782">
+        <v>53</v>
+      </c>
+      <c r="C1782">
+        <v>4900.1</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:3">
+      <c r="A1783" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1783">
+        <v>54</v>
+      </c>
+      <c r="C1783">
+        <v>4890.1</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:3">
+      <c r="A1784" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1784">
+        <v>55</v>
+      </c>
+      <c r="C1784">
+        <v>4890.1</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:3">
+      <c r="A1785" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1785">
+        <v>56</v>
+      </c>
+      <c r="C1785">
+        <v>4900.1</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:3">
+      <c r="A1786" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1786">
+        <v>57</v>
+      </c>
+      <c r="C1786">
+        <v>5143.5</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:3">
+      <c r="A1787" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1787">
+        <v>58</v>
+      </c>
+      <c r="C1787">
+        <v>5163.5</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:3">
+      <c r="A1788" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1788">
+        <v>59</v>
+      </c>
+      <c r="C1788">
+        <v>5183.5</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:3">
+      <c r="A1789" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1789">
+        <v>60</v>
+      </c>
+      <c r="C1789">
+        <v>5213.5</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:3">
+      <c r="A1790" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1790">
+        <v>61</v>
+      </c>
+      <c r="C1790">
+        <v>5316.2</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:3">
+      <c r="A1791" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1791">
+        <v>62</v>
+      </c>
+      <c r="C1791">
+        <v>5346.2</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:3">
+      <c r="A1792" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1792">
+        <v>63</v>
+      </c>
+      <c r="C1792">
+        <v>5386.2</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:3">
+      <c r="A1793" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1793">
+        <v>64</v>
+      </c>
+      <c r="C1793">
+        <v>5426.2</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:3">
+      <c r="A1794" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1794">
+        <v>65</v>
+      </c>
+      <c r="C1794">
+        <v>5566.5</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:3">
+      <c r="A1795" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1795">
+        <v>66</v>
+      </c>
+      <c r="C1795">
+        <v>5616.5</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:3">
+      <c r="A1796" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1796">
+        <v>67</v>
+      </c>
+      <c r="C1796">
+        <v>5676.5</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:3">
+      <c r="A1797" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1797">
+        <v>68</v>
+      </c>
+      <c r="C1797">
+        <v>5726.5</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:3">
+      <c r="A1798" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1798">
+        <v>69</v>
+      </c>
+      <c r="C1798">
+        <v>5561.2</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:3">
+      <c r="A1799" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1799">
+        <v>70</v>
+      </c>
+      <c r="C1799">
+        <v>5611.2</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:3">
+      <c r="A1800" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1800">
+        <v>71</v>
+      </c>
+      <c r="C1800">
+        <v>5651.2</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:3">
+      <c r="A1801" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1801">
+        <v>72</v>
+      </c>
+      <c r="C1801">
+        <v>5691.2</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:3">
+      <c r="A1802" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1802">
+        <v>73</v>
+      </c>
+      <c r="C1802">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:3">
+      <c r="A1803" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1803">
+        <v>74</v>
+      </c>
+      <c r="C1803">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:3">
+      <c r="A1804" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1804">
+        <v>75</v>
+      </c>
+      <c r="C1804">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:3">
+      <c r="A1805" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1805">
+        <v>76</v>
+      </c>
+      <c r="C1805">
+        <v>5693</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:3">
+      <c r="A1806" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1806">
+        <v>77</v>
+      </c>
+      <c r="C1806">
+        <v>4772.7</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:3">
+      <c r="A1807" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1807">
+        <v>78</v>
+      </c>
+      <c r="C1807">
+        <v>4862.7</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:3">
+      <c r="A1808" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1808">
+        <v>79</v>
+      </c>
+      <c r="C1808">
+        <v>4962.7</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:3">
+      <c r="A1809" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1809">
+        <v>80</v>
+      </c>
+      <c r="C1809">
+        <v>5042.7</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:3">
+      <c r="A1810" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1810">
+        <v>81</v>
+      </c>
+      <c r="C1810">
+        <v>4693.7</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:3">
+      <c r="A1811" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1811">
+        <v>82</v>
+      </c>
+      <c r="C1811">
+        <v>4803.7</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:3">
+      <c r="A1812" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1812">
+        <v>83</v>
+      </c>
+      <c r="C1812">
+        <v>4893.7</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:3">
+      <c r="A1813" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1813">
+        <v>84</v>
+      </c>
+      <c r="C1813">
+        <v>4983.7</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:3">
+      <c r="A1814" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1814">
+        <v>85</v>
+      </c>
+      <c r="C1814">
+        <v>4126.3</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:3">
+      <c r="A1815" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1815">
+        <v>86</v>
+      </c>
+      <c r="C1815">
+        <v>4116.3</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:3">
+      <c r="A1816" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1816">
+        <v>87</v>
+      </c>
+      <c r="C1816">
+        <v>4136.3</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:3">
+      <c r="A1817" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1817">
+        <v>88</v>
+      </c>
+      <c r="C1817">
+        <v>4146.3</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:3">
+      <c r="A1818" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1818">
+        <v>89</v>
+      </c>
+      <c r="C1818">
+        <v>4231.3</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:3">
+      <c r="A1819" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1819">
+        <v>90</v>
+      </c>
+      <c r="C1819">
+        <v>4191.3</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:3">
+      <c r="A1820" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1820">
+        <v>91</v>
+      </c>
+      <c r="C1820">
+        <v>4071.3</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:3">
+      <c r="A1821" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1821">
+        <v>92</v>
+      </c>
+      <c r="C1821">
+        <v>3941.3</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:3">
+      <c r="A1822" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1822">
+        <v>93</v>
+      </c>
+      <c r="C1822">
+        <v>3753.2</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:3">
+      <c r="A1823" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1823">
+        <v>94</v>
+      </c>
+      <c r="C1823">
+        <v>3653.2</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:3">
+      <c r="A1824" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1824">
+        <v>95</v>
+      </c>
+      <c r="C1824">
+        <v>3533.2</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:3">
+      <c r="A1825" s="2">
+        <v>45431</v>
+      </c>
+      <c r="B1825">
+        <v>96</v>
+      </c>
+      <c r="C1825">
+        <v>3433.2</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:3">
+      <c r="A1826" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1826">
+        <v>1</v>
+      </c>
+      <c r="C1826">
+        <v>4264.9</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:3">
+      <c r="A1827" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1827">
+        <v>2</v>
+      </c>
+      <c r="C1827">
+        <v>4194.9</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:3">
+      <c r="A1828" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1828">
+        <v>3</v>
+      </c>
+      <c r="C1828">
+        <v>4154.9</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:3">
+      <c r="A1829" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1829">
+        <v>4</v>
+      </c>
+      <c r="C1829">
+        <v>4114.9</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:3">
+      <c r="A1830" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1830">
+        <v>5</v>
+      </c>
+      <c r="C1830">
+        <v>4876.5</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:3">
+      <c r="A1831" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1831">
+        <v>6</v>
+      </c>
+      <c r="C1831">
+        <v>4846.5</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:3">
+      <c r="A1832" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1832">
+        <v>7</v>
+      </c>
+      <c r="C1832">
+        <v>4806.5</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:3">
+      <c r="A1833" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1833">
+        <v>8</v>
+      </c>
+      <c r="C1833">
+        <v>4776.5</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:3">
+      <c r="A1834" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1834">
+        <v>9</v>
+      </c>
+      <c r="C1834">
+        <v>4876.3</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:3">
+      <c r="A1835" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1835">
+        <v>10</v>
+      </c>
+      <c r="C1835">
+        <v>4856.3</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:3">
+      <c r="A1836" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1836">
+        <v>11</v>
+      </c>
+      <c r="C1836">
+        <v>4846.3</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:3">
+      <c r="A1837" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1837">
+        <v>12</v>
+      </c>
+      <c r="C1837">
+        <v>4836.3</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:3">
+      <c r="A1838" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1838">
+        <v>13</v>
+      </c>
+      <c r="C1838">
+        <v>5074.5</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:3">
+      <c r="A1839" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1839">
+        <v>14</v>
+      </c>
+      <c r="C1839">
+        <v>5084.5</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:3">
+      <c r="A1840" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1840">
+        <v>15</v>
+      </c>
+      <c r="C1840">
+        <v>5104.5</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:3">
+      <c r="A1841" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1841">
+        <v>16</v>
+      </c>
+      <c r="C1841">
+        <v>5114.5</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:3">
+      <c r="A1842" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1842">
+        <v>17</v>
+      </c>
+      <c r="C1842">
+        <v>5138.7</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:3">
+      <c r="A1843" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1843">
+        <v>18</v>
+      </c>
+      <c r="C1843">
+        <v>5158.7</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:3">
+      <c r="A1844" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1844">
+        <v>19</v>
+      </c>
+      <c r="C1844">
+        <v>5188.7</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:3">
+      <c r="A1845" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1845">
+        <v>20</v>
+      </c>
+      <c r="C1845">
+        <v>5228.7</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:3">
+      <c r="A1846" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1846">
+        <v>21</v>
+      </c>
+      <c r="C1846">
+        <v>4040.8</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:3">
+      <c r="A1847" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1847">
+        <v>22</v>
+      </c>
+      <c r="C1847">
+        <v>4090.8</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:3">
+      <c r="A1848" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1848">
+        <v>23</v>
+      </c>
+      <c r="C1848">
+        <v>4150.8</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:3">
+      <c r="A1849" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1849">
+        <v>24</v>
+      </c>
+      <c r="C1849">
+        <v>4220.8</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:3">
+      <c r="A1850" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1850">
+        <v>25</v>
+      </c>
+      <c r="C1850">
+        <v>4169.9</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:3">
+      <c r="A1851" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1851">
+        <v>26</v>
+      </c>
+      <c r="C1851">
+        <v>4269.9</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:3">
+      <c r="A1852" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1852">
+        <v>27</v>
+      </c>
+      <c r="C1852">
+        <v>4379.9</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:3">
+      <c r="A1853" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1853">
+        <v>28</v>
+      </c>
+      <c r="C1853">
+        <v>4489.9</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:3">
+      <c r="A1854" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1854">
+        <v>29</v>
+      </c>
+      <c r="C1854">
+        <v>5317.1</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:3">
+      <c r="A1855" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1855">
+        <v>30</v>
+      </c>
+      <c r="C1855">
+        <v>5447.1</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:3">
+      <c r="A1856" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1856">
+        <v>31</v>
+      </c>
+      <c r="C1856">
+        <v>5577.1</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:3">
+      <c r="A1857" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1857">
+        <v>32</v>
+      </c>
+      <c r="C1857">
+        <v>5697.1</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:3">
+      <c r="A1858" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1858">
+        <v>33</v>
+      </c>
+      <c r="C1858">
+        <v>5899.1</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:3">
+      <c r="A1859" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1859">
+        <v>34</v>
+      </c>
+      <c r="C1859">
+        <v>5999.1</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:3">
+      <c r="A1860" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1860">
+        <v>35</v>
+      </c>
+      <c r="C1860">
+        <v>6069.1</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:3">
+      <c r="A1861" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1861">
+        <v>36</v>
+      </c>
+      <c r="C1861">
+        <v>6129.1</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:3">
+      <c r="A1862" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1862">
+        <v>37</v>
+      </c>
+      <c r="C1862">
+        <v>6242.9</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:3">
+      <c r="A1863" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1863">
+        <v>38</v>
+      </c>
+      <c r="C1863">
+        <v>6242.9</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:3">
+      <c r="A1864" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1864">
+        <v>39</v>
+      </c>
+      <c r="C1864">
+        <v>6222.9</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:3">
+      <c r="A1865" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1865">
+        <v>40</v>
+      </c>
+      <c r="C1865">
+        <v>6182.9</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:3">
+      <c r="A1866" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1866">
+        <v>41</v>
+      </c>
+      <c r="C1866">
+        <v>6714.3</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:3">
+      <c r="A1867" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1867">
+        <v>42</v>
+      </c>
+      <c r="C1867">
+        <v>6664.3</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:3">
+      <c r="A1868" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1868">
+        <v>43</v>
+      </c>
+      <c r="C1868">
+        <v>6604.3</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:3">
+      <c r="A1869" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1869">
+        <v>44</v>
+      </c>
+      <c r="C1869">
+        <v>6554.3</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:3">
+      <c r="A1870" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1870">
+        <v>45</v>
+      </c>
+      <c r="C1870">
+        <v>6673.3</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:3">
+      <c r="A1871" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1871">
+        <v>46</v>
+      </c>
+      <c r="C1871">
+        <v>6643.3</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:3">
+      <c r="A1872" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1872">
+        <v>47</v>
+      </c>
+      <c r="C1872">
+        <v>6613.3</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:3">
+      <c r="A1873" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1873">
+        <v>48</v>
+      </c>
+      <c r="C1873">
+        <v>6593.3</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:3">
+      <c r="A1874" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1874">
+        <v>49</v>
+      </c>
+      <c r="C1874">
+        <v>6668.2</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:3">
+      <c r="A1875" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1875">
+        <v>50</v>
+      </c>
+      <c r="C1875">
+        <v>6648.2</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:3">
+      <c r="A1876" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1876">
+        <v>51</v>
+      </c>
+      <c r="C1876">
+        <v>6628.2</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:3">
+      <c r="A1877" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1877">
+        <v>52</v>
+      </c>
+      <c r="C1877">
+        <v>6608.2</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:3">
+      <c r="A1878" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1878">
+        <v>53</v>
+      </c>
+      <c r="C1878">
+        <v>6480.1</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:3">
+      <c r="A1879" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1879">
+        <v>54</v>
+      </c>
+      <c r="C1879">
+        <v>6460.1</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:3">
+      <c r="A1880" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1880">
+        <v>55</v>
+      </c>
+      <c r="C1880">
+        <v>6450.1</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:3">
+      <c r="A1881" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1881">
+        <v>56</v>
+      </c>
+      <c r="C1881">
+        <v>6430.1</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:3">
+      <c r="A1882" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1882">
+        <v>57</v>
+      </c>
+      <c r="C1882">
+        <v>6653.5</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:3">
+      <c r="A1883" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1883">
+        <v>58</v>
+      </c>
+      <c r="C1883">
+        <v>6653.5</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:3">
+      <c r="A1884" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1884">
+        <v>59</v>
+      </c>
+      <c r="C1884">
+        <v>6643.5</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:3">
+      <c r="A1885" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1885">
+        <v>60</v>
+      </c>
+      <c r="C1885">
+        <v>6643.5</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:3">
+      <c r="A1886" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1886">
+        <v>61</v>
+      </c>
+      <c r="C1886">
+        <v>6706.2</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:3">
+      <c r="A1887" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1887">
+        <v>62</v>
+      </c>
+      <c r="C1887">
+        <v>6696.2</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:3">
+      <c r="A1888" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1888">
+        <v>63</v>
+      </c>
+      <c r="C1888">
+        <v>6676.2</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:3">
+      <c r="A1889" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1889">
+        <v>64</v>
+      </c>
+      <c r="C1889">
+        <v>6666.2</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:3">
+      <c r="A1890" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1890">
+        <v>65</v>
+      </c>
+      <c r="C1890">
+        <v>6766.5</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:3">
+      <c r="A1891" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1891">
+        <v>66</v>
+      </c>
+      <c r="C1891">
+        <v>6776.5</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:3">
+      <c r="A1892" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1892">
+        <v>67</v>
+      </c>
+      <c r="C1892">
+        <v>6796.5</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:3">
+      <c r="A1893" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1893">
+        <v>68</v>
+      </c>
+      <c r="C1893">
+        <v>6836.5</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:3">
+      <c r="A1894" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1894">
+        <v>69</v>
+      </c>
+      <c r="C1894">
+        <v>6671.2</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:3">
+      <c r="A1895" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1895">
+        <v>70</v>
+      </c>
+      <c r="C1895">
+        <v>6721.2</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:3">
+      <c r="A1896" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1896">
+        <v>71</v>
+      </c>
+      <c r="C1896">
+        <v>6761.2</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:3">
+      <c r="A1897" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1897">
+        <v>72</v>
+      </c>
+      <c r="C1897">
+        <v>6801.2</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:3">
+      <c r="A1898" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1898">
+        <v>73</v>
+      </c>
+      <c r="C1898">
+        <v>6613</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:3">
+      <c r="A1899" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1899">
+        <v>74</v>
+      </c>
+      <c r="C1899">
+        <v>6653</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:3">
+      <c r="A1900" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1900">
+        <v>75</v>
+      </c>
+      <c r="C1900">
+        <v>6713</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:3">
+      <c r="A1901" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1901">
+        <v>76</v>
+      </c>
+      <c r="C1901">
+        <v>6783</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:3">
+      <c r="A1902" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1902">
+        <v>77</v>
+      </c>
+      <c r="C1902">
+        <v>5862.7</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:3">
+      <c r="A1903" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1903">
+        <v>78</v>
+      </c>
+      <c r="C1903">
+        <v>5962.7</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:3">
+      <c r="A1904" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1904">
+        <v>79</v>
+      </c>
+      <c r="C1904">
+        <v>6072.7</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:3">
+      <c r="A1905" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1905">
+        <v>80</v>
+      </c>
+      <c r="C1905">
+        <v>6162.7</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:3">
+      <c r="A1906" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1906">
+        <v>81</v>
+      </c>
+      <c r="C1906">
+        <v>5803.7</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:3">
+      <c r="A1907" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1907">
+        <v>82</v>
+      </c>
+      <c r="C1907">
+        <v>5893.7</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:3">
+      <c r="A1908" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1908">
+        <v>83</v>
+      </c>
+      <c r="C1908">
+        <v>5963.7</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:3">
+      <c r="A1909" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1909">
+        <v>84</v>
+      </c>
+      <c r="C1909">
+        <v>6043.7</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:3">
+      <c r="A1910" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1910">
+        <v>85</v>
+      </c>
+      <c r="C1910">
+        <v>5176.3</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:3">
+      <c r="A1911" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1911">
+        <v>86</v>
+      </c>
+      <c r="C1911">
+        <v>5146.3</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:3">
+      <c r="A1912" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1912">
+        <v>87</v>
+      </c>
+      <c r="C1912">
+        <v>5136.3</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:3">
+      <c r="A1913" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1913">
+        <v>88</v>
+      </c>
+      <c r="C1913">
+        <v>5066.3</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:3">
+      <c r="A1914" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1914">
+        <v>89</v>
+      </c>
+      <c r="C1914">
+        <v>5081.3</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:3">
+      <c r="A1915" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1915">
+        <v>90</v>
+      </c>
+      <c r="C1915">
+        <v>5001.3</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:3">
+      <c r="A1916" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1916">
+        <v>91</v>
+      </c>
+      <c r="C1916">
+        <v>4861.3</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:3">
+      <c r="A1917" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1917">
+        <v>92</v>
+      </c>
+      <c r="C1917">
+        <v>4721.3</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:3">
+      <c r="A1918" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1918">
+        <v>93</v>
+      </c>
+      <c r="C1918">
+        <v>4473.2</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:3">
+      <c r="A1919" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1919">
+        <v>94</v>
+      </c>
+      <c r="C1919">
+        <v>4343.2</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:3">
+      <c r="A1920" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1920">
+        <v>95</v>
+      </c>
+      <c r="C1920">
+        <v>4243.2</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:3">
+      <c r="A1921" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B1921">
+        <v>96</v>
+      </c>
+      <c r="C1921">
+        <v>4133.2</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:3">
+      <c r="A1922" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1922">
+        <v>1</v>
+      </c>
+      <c r="C1922">
+        <v>4598.8</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:3">
+      <c r="A1923" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1923">
+        <v>2</v>
+      </c>
+      <c r="C1923">
+        <v>4538.8</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:3">
+      <c r="A1924" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1924">
+        <v>3</v>
+      </c>
+      <c r="C1924">
+        <v>4478.8</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:3">
+      <c r="A1925" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1925">
+        <v>4</v>
+      </c>
+      <c r="C1925">
+        <v>4418.8</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:3">
+      <c r="A1926" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1926">
+        <v>5</v>
+      </c>
+      <c r="C1926">
+        <v>4816.2</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:3">
+      <c r="A1927" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1927">
+        <v>6</v>
+      </c>
+      <c r="C1927">
+        <v>4776.2</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:3">
+      <c r="A1928" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1928">
+        <v>7</v>
+      </c>
+      <c r="C1928">
+        <v>4746.2</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:3">
+      <c r="A1929" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1929">
+        <v>8</v>
+      </c>
+      <c r="C1929">
+        <v>4706.2</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:3">
+      <c r="A1930" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1930">
+        <v>9</v>
+      </c>
+      <c r="C1930">
+        <v>4940.1</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:3">
+      <c r="A1931" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1931">
+        <v>10</v>
+      </c>
+      <c r="C1931">
+        <v>4910.1</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:3">
+      <c r="A1932" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1932">
+        <v>11</v>
+      </c>
+      <c r="C1932">
+        <v>4890.1</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:3">
+      <c r="A1933" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1933">
+        <v>12</v>
+      </c>
+      <c r="C1933">
+        <v>4870.1</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:3">
+      <c r="A1934" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1934">
+        <v>13</v>
+      </c>
+      <c r="C1934">
+        <v>5099.6</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:3">
+      <c r="A1935" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1935">
+        <v>14</v>
+      </c>
+      <c r="C1935">
+        <v>5099.6</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:3">
+      <c r="A1936" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1936">
+        <v>15</v>
+      </c>
+      <c r="C1936">
+        <v>5099.6</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:3">
+      <c r="A1937" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1937">
+        <v>16</v>
+      </c>
+      <c r="C1937">
+        <v>5099.6</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:3">
+      <c r="A1938" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1938">
+        <v>17</v>
+      </c>
+      <c r="C1938">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:3">
+      <c r="A1939" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1939">
+        <v>18</v>
+      </c>
+      <c r="C1939">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:3">
+      <c r="A1940" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1940">
+        <v>19</v>
+      </c>
+      <c r="C1940">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:3">
+      <c r="A1941" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1941">
+        <v>20</v>
+      </c>
+      <c r="C1941">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:3">
+      <c r="A1942" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1942">
+        <v>21</v>
+      </c>
+      <c r="C1942">
+        <v>5448.5</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:3">
+      <c r="A1943" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1943">
+        <v>22</v>
+      </c>
+      <c r="C1943">
+        <v>5498.5</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:3">
+      <c r="A1944" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1944">
+        <v>23</v>
+      </c>
+      <c r="C1944">
+        <v>5558.5</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:3">
+      <c r="A1945" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1945">
+        <v>24</v>
+      </c>
+      <c r="C1945">
+        <v>5638.5</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:3">
+      <c r="A1946" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1946">
+        <v>25</v>
+      </c>
+      <c r="C1946">
+        <v>5934.4</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:3">
+      <c r="A1947" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1947">
+        <v>26</v>
+      </c>
+      <c r="C1947">
+        <v>6034.4</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:3">
+      <c r="A1948" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1948">
+        <v>27</v>
+      </c>
+      <c r="C1948">
+        <v>6134.4</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:3">
+      <c r="A1949" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1949">
+        <v>28</v>
+      </c>
+      <c r="C1949">
+        <v>6224.4</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:3">
+      <c r="A1950" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1950">
+        <v>29</v>
+      </c>
+      <c r="C1950">
+        <v>6478</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:3">
+      <c r="A1951" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1951">
+        <v>30</v>
+      </c>
+      <c r="C1951">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:3">
+      <c r="A1952" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1952">
+        <v>31</v>
+      </c>
+      <c r="C1952">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:3">
+      <c r="A1953" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1953">
+        <v>32</v>
+      </c>
+      <c r="C1953">
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:3">
+      <c r="A1954" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1954">
+        <v>33</v>
+      </c>
+      <c r="C1954">
+        <v>6070.1</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:3">
+      <c r="A1955" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1955">
+        <v>34</v>
+      </c>
+      <c r="C1955">
+        <v>6090.1</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:3">
+      <c r="A1956" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1956">
+        <v>35</v>
+      </c>
+      <c r="C1956">
+        <v>6090.1</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:3">
+      <c r="A1957" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1957">
+        <v>36</v>
+      </c>
+      <c r="C1957">
+        <v>6080.1</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:3">
+      <c r="A1958" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1958">
+        <v>37</v>
+      </c>
+      <c r="C1958">
+        <v>5172.8</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:3">
+      <c r="A1959" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1959">
+        <v>38</v>
+      </c>
+      <c r="C1959">
+        <v>5142.8</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:3">
+      <c r="A1960" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1960">
+        <v>39</v>
+      </c>
+      <c r="C1960">
+        <v>5112.8</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:3">
+      <c r="A1961" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1961">
+        <v>40</v>
+      </c>
+      <c r="C1961">
+        <v>5082.8</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:3">
+      <c r="A1962" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1962">
+        <v>41</v>
+      </c>
+      <c r="C1962">
+        <v>5529.4</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:3">
+      <c r="A1963" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1963">
+        <v>42</v>
+      </c>
+      <c r="C1963">
+        <v>5499.4</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:3">
+      <c r="A1964" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1964">
+        <v>43</v>
+      </c>
+      <c r="C1964">
+        <v>5479.4</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:3">
+      <c r="A1965" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1965">
+        <v>44</v>
+      </c>
+      <c r="C1965">
+        <v>5449.4</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:3">
+      <c r="A1966" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1966">
+        <v>45</v>
+      </c>
+      <c r="C1966">
+        <v>5655</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:3">
+      <c r="A1967" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1967">
+        <v>46</v>
+      </c>
+      <c r="C1967">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:3">
+      <c r="A1968" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1968">
+        <v>47</v>
+      </c>
+      <c r="C1968">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:3">
+      <c r="A1969" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1969">
+        <v>48</v>
+      </c>
+      <c r="C1969">
+        <v>5615</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:3">
+      <c r="A1970" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1970">
+        <v>49</v>
+      </c>
+      <c r="C1970">
+        <v>5254.9</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:3">
+      <c r="A1971" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1971">
+        <v>50</v>
+      </c>
+      <c r="C1971">
+        <v>5244.9</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:3">
+      <c r="A1972" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1972">
+        <v>51</v>
+      </c>
+      <c r="C1972">
+        <v>5244.9</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:3">
+      <c r="A1973" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1973">
+        <v>52</v>
+      </c>
+      <c r="C1973">
+        <v>5234.9</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:3">
+      <c r="A1974" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1974">
+        <v>53</v>
+      </c>
+      <c r="C1974">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:3">
+      <c r="A1975" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1975">
+        <v>54</v>
+      </c>
+      <c r="C1975">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:3">
+      <c r="A1976" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1976">
+        <v>55</v>
+      </c>
+      <c r="C1976">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:3">
+      <c r="A1977" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1977">
+        <v>56</v>
+      </c>
+      <c r="C1977">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:3">
+      <c r="A1978" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1978">
+        <v>57</v>
+      </c>
+      <c r="C1978">
+        <v>5075.8</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:3">
+      <c r="A1979" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1979">
+        <v>58</v>
+      </c>
+      <c r="C1979">
+        <v>5075.8</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:3">
+      <c r="A1980" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1980">
+        <v>59</v>
+      </c>
+      <c r="C1980">
+        <v>5065.8</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:3">
+      <c r="A1981" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1981">
+        <v>60</v>
+      </c>
+      <c r="C1981">
+        <v>5055.8</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:3">
+      <c r="A1982" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1982">
+        <v>61</v>
+      </c>
+      <c r="C1982">
+        <v>4856.5</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:3">
+      <c r="A1983" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1983">
+        <v>62</v>
+      </c>
+      <c r="C1983">
+        <v>4846.5</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:3">
+      <c r="A1984" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1984">
+        <v>63</v>
+      </c>
+      <c r="C1984">
+        <v>4836.5</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:3">
+      <c r="A1985" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1985">
+        <v>64</v>
+      </c>
+      <c r="C1985">
+        <v>4836.5</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:3">
+      <c r="A1986" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1986">
+        <v>65</v>
+      </c>
+      <c r="C1986">
+        <v>4670.3</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:3">
+      <c r="A1987" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1987">
+        <v>66</v>
+      </c>
+      <c r="C1987">
+        <v>4690.3</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:3">
+      <c r="A1988" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1988">
+        <v>67</v>
+      </c>
+      <c r="C1988">
+        <v>4730.3</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:3">
+      <c r="A1989" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1989">
+        <v>68</v>
+      </c>
+      <c r="C1989">
+        <v>4770.3</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:3">
+      <c r="A1990" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1990">
+        <v>69</v>
+      </c>
+      <c r="C1990">
+        <v>5134.2</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:3">
+      <c r="A1991" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1991">
+        <v>70</v>
+      </c>
+      <c r="C1991">
+        <v>5164.2</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:3">
+      <c r="A1992" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1992">
+        <v>71</v>
+      </c>
+      <c r="C1992">
+        <v>5194.2</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:3">
+      <c r="A1993" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1993">
+        <v>72</v>
+      </c>
+      <c r="C1993">
+        <v>5214.2</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:3">
+      <c r="A1994" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1994">
+        <v>73</v>
+      </c>
+      <c r="C1994">
+        <v>5170.2</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:3">
+      <c r="A1995" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1995">
+        <v>74</v>
+      </c>
+      <c r="C1995">
+        <v>5200.2</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:3">
+      <c r="A1996" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1996">
+        <v>75</v>
+      </c>
+      <c r="C1996">
+        <v>5260.2</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:3">
+      <c r="A1997" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1997">
+        <v>76</v>
+      </c>
+      <c r="C1997">
+        <v>5340.2</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:3">
+      <c r="A1998" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1998">
+        <v>77</v>
+      </c>
+      <c r="C1998">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:3">
+      <c r="A1999" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B1999">
+        <v>78</v>
+      </c>
+      <c r="C1999">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:3">
+      <c r="A2000" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2000">
+        <v>79</v>
+      </c>
+      <c r="C2000">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:3">
+      <c r="A2001" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2001">
+        <v>80</v>
+      </c>
+      <c r="C2001">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:3">
+      <c r="A2002" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2002">
+        <v>81</v>
+      </c>
+      <c r="C2002">
+        <v>5889.8</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:3">
+      <c r="A2003" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2003">
+        <v>82</v>
+      </c>
+      <c r="C2003">
+        <v>5959.8</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:3">
+      <c r="A2004" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2004">
+        <v>83</v>
+      </c>
+      <c r="C2004">
+        <v>6009.8</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:3">
+      <c r="A2005" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2005">
+        <v>84</v>
+      </c>
+      <c r="C2005">
+        <v>6049.8</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:3">
+      <c r="A2006" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2006">
+        <v>85</v>
+      </c>
+      <c r="C2006">
+        <v>6061.5</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:3">
+      <c r="A2007" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2007">
+        <v>86</v>
+      </c>
+      <c r="C2007">
+        <v>6071.5</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:3">
+      <c r="A2008" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2008">
+        <v>87</v>
+      </c>
+      <c r="C2008">
+        <v>6041.5</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:3">
+      <c r="A2009" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2009">
+        <v>88</v>
+      </c>
+      <c r="C2009">
+        <v>5981.5</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:3">
+      <c r="A2010" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2010">
+        <v>89</v>
+      </c>
+      <c r="C2010">
+        <v>5996.8</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:3">
+      <c r="A2011" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2011">
+        <v>90</v>
+      </c>
+      <c r="C2011">
+        <v>5896.8</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:3">
+      <c r="A2012" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2012">
+        <v>91</v>
+      </c>
+      <c r="C2012">
+        <v>5756.8</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:3">
+      <c r="A2013" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2013">
+        <v>92</v>
+      </c>
+      <c r="C2013">
+        <v>5576.8</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:3">
+      <c r="A2014" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2014">
+        <v>93</v>
+      </c>
+      <c r="C2014">
+        <v>5657.3</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:3">
+      <c r="A2015" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2015">
+        <v>94</v>
+      </c>
+      <c r="C2015">
+        <v>5497.3</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:3">
+      <c r="A2016" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2016">
+        <v>95</v>
+      </c>
+      <c r="C2016">
+        <v>5367.3</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:3">
+      <c r="A2017" s="2">
+        <v>45433</v>
+      </c>
+      <c r="B2017">
+        <v>96</v>
+      </c>
+      <c r="C2017">
+        <v>5237.3</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2024.xlsx
+++ b/Market Fundamentals/Transelectrica_data/Cons_Prod_final/Weekly_Production_2024.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2017"/>
+  <dimension ref="A1:C2113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="C1346">
-        <v>5735.5</v>
+        <v>4729.4</v>
       </c>
     </row>
     <row r="1347" spans="1:3">
@@ -15204,7 +15204,7 @@
         <v>2</v>
       </c>
       <c r="C1347">
-        <v>5695.5</v>
+        <v>4679.4</v>
       </c>
     </row>
     <row r="1348" spans="1:3">
@@ -15215,7 +15215,7 @@
         <v>3</v>
       </c>
       <c r="C1348">
-        <v>5635.5</v>
+        <v>4629.4</v>
       </c>
     </row>
     <row r="1349" spans="1:3">
@@ -15226,7 +15226,7 @@
         <v>4</v>
       </c>
       <c r="C1349">
-        <v>5555.5</v>
+        <v>4569.4</v>
       </c>
     </row>
     <row r="1350" spans="1:3">
@@ -15237,7 +15237,7 @@
         <v>5</v>
       </c>
       <c r="C1350">
-        <v>4469.8</v>
+        <v>4586.5</v>
       </c>
     </row>
     <row r="1351" spans="1:3">
@@ -15248,7 +15248,7 @@
         <v>6</v>
       </c>
       <c r="C1351">
-        <v>4419.8</v>
+        <v>4546.5</v>
       </c>
     </row>
     <row r="1352" spans="1:3">
@@ -15259,7 +15259,7 @@
         <v>7</v>
       </c>
       <c r="C1352">
-        <v>4369.8</v>
+        <v>4506.5</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15270,7 +15270,7 @@
         <v>8</v>
       </c>
       <c r="C1353">
-        <v>4329.8</v>
+        <v>4466.5</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15281,7 +15281,7 @@
         <v>9</v>
       </c>
       <c r="C1354">
-        <v>4419.7</v>
+        <v>4523.2</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
@@ -15292,7 +15292,7 @@
         <v>10</v>
       </c>
       <c r="C1355">
-        <v>4399.7</v>
+        <v>4503.2</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15303,7 +15303,7 @@
         <v>11</v>
       </c>
       <c r="C1356">
-        <v>4379.7</v>
+        <v>4483.2</v>
       </c>
     </row>
     <row r="1357" spans="1:3">
@@ -15314,7 +15314,7 @@
         <v>12</v>
       </c>
       <c r="C1357">
-        <v>4379.7</v>
+        <v>4453.2</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15325,7 +15325,7 @@
         <v>13</v>
       </c>
       <c r="C1358">
-        <v>4455.8</v>
+        <v>4415.4</v>
       </c>
     </row>
     <row r="1359" spans="1:3">
@@ -15336,7 +15336,7 @@
         <v>14</v>
       </c>
       <c r="C1359">
-        <v>4455.8</v>
+        <v>4395.4</v>
       </c>
     </row>
     <row r="1360" spans="1:3">
@@ -15347,7 +15347,7 @@
         <v>15</v>
       </c>
       <c r="C1360">
-        <v>4455.8</v>
+        <v>4395.4</v>
       </c>
     </row>
     <row r="1361" spans="1:3">
@@ -15358,7 +15358,7 @@
         <v>16</v>
       </c>
       <c r="C1361">
-        <v>4445.8</v>
+        <v>4405.4</v>
       </c>
     </row>
     <row r="1362" spans="1:3">
@@ -15369,7 +15369,7 @@
         <v>17</v>
       </c>
       <c r="C1362">
-        <v>4404.8</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="1363" spans="1:3">
@@ -15380,7 +15380,7 @@
         <v>18</v>
       </c>
       <c r="C1363">
-        <v>4394.8</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1364" spans="1:3">
@@ -15391,7 +15391,7 @@
         <v>19</v>
       </c>
       <c r="C1364">
-        <v>4414.8</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="1365" spans="1:3">
@@ -15402,7 +15402,7 @@
         <v>20</v>
       </c>
       <c r="C1365">
-        <v>4434.8</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1366" spans="1:3">
@@ -15413,7 +15413,7 @@
         <v>21</v>
       </c>
       <c r="C1366">
-        <v>4350.6</v>
+        <v>4396.4</v>
       </c>
     </row>
     <row r="1367" spans="1:3">
@@ -15424,7 +15424,7 @@
         <v>22</v>
       </c>
       <c r="C1367">
-        <v>4400.6</v>
+        <v>4426.4</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15435,7 +15435,7 @@
         <v>23</v>
       </c>
       <c r="C1368">
-        <v>4460.6</v>
+        <v>4466.4</v>
       </c>
     </row>
     <row r="1369" spans="1:3">
@@ -15446,7 +15446,7 @@
         <v>24</v>
       </c>
       <c r="C1369">
-        <v>4540.6</v>
+        <v>4536.4</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15457,7 +15457,7 @@
         <v>25</v>
       </c>
       <c r="C1370">
-        <v>4318.9</v>
+        <v>4735.5</v>
       </c>
     </row>
     <row r="1371" spans="1:3">
@@ -15468,7 +15468,7 @@
         <v>26</v>
       </c>
       <c r="C1371">
-        <v>4418.9</v>
+        <v>4835.5</v>
       </c>
     </row>
     <row r="1372" spans="1:3">
@@ -15479,7 +15479,7 @@
         <v>27</v>
       </c>
       <c r="C1372">
-        <v>4528.9</v>
+        <v>4935.5</v>
       </c>
     </row>
     <row r="1373" spans="1:3">
@@ -15490,7 +15490,7 @@
         <v>28</v>
       </c>
       <c r="C1373">
-        <v>4628.9</v>
+        <v>5065.5</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15501,7 +15501,7 @@
         <v>29</v>
       </c>
       <c r="C1374">
-        <v>4704.6</v>
+        <v>4897.9</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15512,7 +15512,7 @@
         <v>30</v>
       </c>
       <c r="C1375">
-        <v>4794.6</v>
+        <v>5027.9</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15523,7 +15523,7 @@
         <v>31</v>
       </c>
       <c r="C1376">
-        <v>4884.6</v>
+        <v>5107.9</v>
       </c>
     </row>
     <row r="1377" spans="1:3">
@@ -15534,7 +15534,7 @@
         <v>32</v>
       </c>
       <c r="C1377">
-        <v>4954.6</v>
+        <v>5157.9</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -15545,7 +15545,7 @@
         <v>33</v>
       </c>
       <c r="C1378">
-        <v>4922.2</v>
+        <v>5126.8</v>
       </c>
     </row>
     <row r="1379" spans="1:3">
@@ -15556,7 +15556,7 @@
         <v>34</v>
       </c>
       <c r="C1379">
-        <v>4942.2</v>
+        <v>5126.8</v>
       </c>
     </row>
     <row r="1380" spans="1:3">
@@ -15567,7 +15567,7 @@
         <v>35</v>
       </c>
       <c r="C1380">
-        <v>4952.2</v>
+        <v>5116.8</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -15578,7 +15578,7 @@
         <v>36</v>
       </c>
       <c r="C1381">
-        <v>4942.2</v>
+        <v>5086.8</v>
       </c>
     </row>
     <row r="1382" spans="1:3">
@@ -15589,7 +15589,7 @@
         <v>37</v>
       </c>
       <c r="C1382">
-        <v>5188.4</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="1383" spans="1:3">
@@ -15600,7 +15600,7 @@
         <v>38</v>
       </c>
       <c r="C1383">
-        <v>5128.4</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="1384" spans="1:3">
@@ -15611,7 +15611,7 @@
         <v>39</v>
       </c>
       <c r="C1384">
-        <v>5058.4</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="1385" spans="1:3">
@@ -15622,7 +15622,7 @@
         <v>40</v>
       </c>
       <c r="C1385">
-        <v>4978.4</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15633,7 +15633,7 @@
         <v>41</v>
       </c>
       <c r="C1386">
-        <v>5332.1</v>
+        <v>5447.2</v>
       </c>
     </row>
     <row r="1387" spans="1:3">
@@ -15644,7 +15644,7 @@
         <v>42</v>
       </c>
       <c r="C1387">
-        <v>5252.1</v>
+        <v>5367.2</v>
       </c>
     </row>
     <row r="1388" spans="1:3">
@@ -15655,7 +15655,7 @@
         <v>43</v>
       </c>
       <c r="C1388">
-        <v>5162.1</v>
+        <v>5297.2</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15666,7 +15666,7 @@
         <v>44</v>
       </c>
       <c r="C1389">
-        <v>5082.1</v>
+        <v>5237.2</v>
       </c>
     </row>
     <row r="1390" spans="1:3">
@@ -15677,7 +15677,7 @@
         <v>45</v>
       </c>
       <c r="C1390">
-        <v>5211.5</v>
+        <v>5194.3</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -15688,7 +15688,7 @@
         <v>46</v>
       </c>
       <c r="C1391">
-        <v>5151.5</v>
+        <v>5174.3</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15699,7 +15699,7 @@
         <v>47</v>
       </c>
       <c r="C1392">
-        <v>5111.5</v>
+        <v>5154.3</v>
       </c>
     </row>
     <row r="1393" spans="1:3">
@@ -15710,7 +15710,7 @@
         <v>48</v>
       </c>
       <c r="C1393">
-        <v>5081.5</v>
+        <v>5144.3</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15721,7 +15721,7 @@
         <v>49</v>
       </c>
       <c r="C1394">
-        <v>4862.9</v>
+        <v>5049.4</v>
       </c>
     </row>
     <row r="1395" spans="1:3">
@@ -15732,7 +15732,7 @@
         <v>50</v>
       </c>
       <c r="C1395">
-        <v>4852.9</v>
+        <v>5049.4</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
@@ -15743,7 +15743,7 @@
         <v>51</v>
       </c>
       <c r="C1396">
-        <v>4852.9</v>
+        <v>5049.4</v>
       </c>
     </row>
     <row r="1397" spans="1:3">
@@ -15754,7 +15754,7 @@
         <v>52</v>
       </c>
       <c r="C1397">
-        <v>4842.9</v>
+        <v>5049.4</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15765,7 +15765,7 @@
         <v>53</v>
       </c>
       <c r="C1398">
-        <v>4835.5</v>
+        <v>5111.8</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15776,7 +15776,7 @@
         <v>54</v>
       </c>
       <c r="C1399">
-        <v>4835.5</v>
+        <v>5121.8</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
@@ -15787,7 +15787,7 @@
         <v>55</v>
       </c>
       <c r="C1400">
-        <v>4835.5</v>
+        <v>5121.8</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
@@ -15798,7 +15798,7 @@
         <v>56</v>
       </c>
       <c r="C1401">
-        <v>4845.5</v>
+        <v>5101.8</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
@@ -15809,7 +15809,7 @@
         <v>57</v>
       </c>
       <c r="C1402">
-        <v>4911.4</v>
+        <v>4830.9</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
@@ -15820,7 +15820,7 @@
         <v>58</v>
       </c>
       <c r="C1403">
-        <v>4911.4</v>
+        <v>4810.9</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
@@ -15831,7 +15831,7 @@
         <v>59</v>
       </c>
       <c r="C1404">
-        <v>4911.4</v>
+        <v>4800.9</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
@@ -15842,7 +15842,7 @@
         <v>60</v>
       </c>
       <c r="C1405">
-        <v>4901.4</v>
+        <v>4800.9</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -15853,7 +15853,7 @@
         <v>61</v>
       </c>
       <c r="C1406">
-        <v>4845.9</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
@@ -15864,7 +15864,7 @@
         <v>62</v>
       </c>
       <c r="C1407">
-        <v>4845.9</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
@@ -15875,7 +15875,7 @@
         <v>63</v>
       </c>
       <c r="C1408">
-        <v>4855.9</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="1409" spans="1:3">
@@ -15886,7 +15886,7 @@
         <v>64</v>
       </c>
       <c r="C1409">
-        <v>4875.9</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="1410" spans="1:3">
@@ -15897,7 +15897,7 @@
         <v>65</v>
       </c>
       <c r="C1410">
-        <v>5084</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
@@ -15908,7 +15908,7 @@
         <v>66</v>
       </c>
       <c r="C1411">
-        <v>5124</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="1412" spans="1:3">
@@ -15919,7 +15919,7 @@
         <v>67</v>
       </c>
       <c r="C1412">
-        <v>5184</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
@@ -15930,7 +15930,7 @@
         <v>68</v>
       </c>
       <c r="C1413">
-        <v>5244</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
@@ -15941,7 +15941,7 @@
         <v>69</v>
       </c>
       <c r="C1414">
-        <v>4953.6</v>
+        <v>4960.2</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
@@ -15952,7 +15952,7 @@
         <v>70</v>
       </c>
       <c r="C1415">
-        <v>5023.6</v>
+        <v>5010.2</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
@@ -15963,7 +15963,7 @@
         <v>71</v>
       </c>
       <c r="C1416">
-        <v>5073.6</v>
+        <v>5050.2</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -15974,7 +15974,7 @@
         <v>72</v>
       </c>
       <c r="C1417">
-        <v>5133.6</v>
+        <v>5120.2</v>
       </c>
     </row>
     <row r="1418" spans="1:3">
@@ -15985,7 +15985,7 @@
         <v>73</v>
       </c>
       <c r="C1418">
-        <v>5101.7</v>
+        <v>5262.8</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
@@ -15996,7 +15996,7 @@
         <v>74</v>
       </c>
       <c r="C1419">
-        <v>5171.7</v>
+        <v>5372.8</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
@@ -16007,7 +16007,7 @@
         <v>75</v>
       </c>
       <c r="C1420">
-        <v>5251.7</v>
+        <v>5482.8</v>
       </c>
     </row>
     <row r="1421" spans="1:3">
@@ -16018,7 +16018,7 @@
         <v>76</v>
       </c>
       <c r="C1421">
-        <v>5351.7</v>
+        <v>5592.8</v>
       </c>
     </row>
     <row r="1422" spans="1:3">
@@ -16029,7 +16029,7 @@
         <v>77</v>
       </c>
       <c r="C1422">
-        <v>5172.4</v>
+        <v>5288.6</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
@@ -16040,7 +16040,7 @@
         <v>78</v>
       </c>
       <c r="C1423">
-        <v>5282.4</v>
+        <v>5378.6</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
@@ -16051,7 +16051,7 @@
         <v>79</v>
       </c>
       <c r="C1424">
-        <v>5382.4</v>
+        <v>5468.6</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
@@ -16062,7 +16062,7 @@
         <v>80</v>
       </c>
       <c r="C1425">
-        <v>5472.4</v>
+        <v>5568.6</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
@@ -16073,7 +16073,7 @@
         <v>81</v>
       </c>
       <c r="C1426">
-        <v>5252.5</v>
+        <v>5341.7</v>
       </c>
     </row>
     <row r="1427" spans="1:3">
@@ -16084,7 +16084,7 @@
         <v>82</v>
       </c>
       <c r="C1427">
-        <v>5362.5</v>
+        <v>5451.7</v>
       </c>
     </row>
     <row r="1428" spans="1:3">
@@ -16095,7 +16095,7 @@
         <v>83</v>
       </c>
       <c r="C1428">
-        <v>5462.5</v>
+        <v>5551.7</v>
       </c>
     </row>
     <row r="1429" spans="1:3">
@@ -16106,7 +16106,7 @@
         <v>84</v>
       </c>
       <c r="C1429">
-        <v>5582.5</v>
+        <v>5681.7</v>
       </c>
     </row>
     <row r="1430" spans="1:3">
@@ -16117,7 +16117,7 @@
         <v>85</v>
       </c>
       <c r="C1430">
-        <v>5467.1</v>
+        <v>5665.5</v>
       </c>
     </row>
     <row r="1431" spans="1:3">
@@ -16128,7 +16128,7 @@
         <v>86</v>
       </c>
       <c r="C1431">
-        <v>5477.1</v>
+        <v>5665.5</v>
       </c>
     </row>
     <row r="1432" spans="1:3">
@@ -16139,7 +16139,7 @@
         <v>87</v>
       </c>
       <c r="C1432">
-        <v>5467.1</v>
+        <v>5655.5</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
@@ -16150,7 +16150,7 @@
         <v>88</v>
       </c>
       <c r="C1433">
-        <v>5387.1</v>
+        <v>5615.5</v>
       </c>
     </row>
     <row r="1434" spans="1:3">
@@ -16161,7 +16161,7 @@
         <v>89</v>
       </c>
       <c r="C1434">
-        <v>5705.3</v>
+        <v>5663.4</v>
       </c>
     </row>
     <row r="1435" spans="1:3">
@@ -16172,7 +16172,7 @@
         <v>90</v>
       </c>
       <c r="C1435">
-        <v>5605.3</v>
+        <v>5453.4</v>
       </c>
     </row>
     <row r="1436" spans="1:3">
@@ -16183,7 +16183,7 @@
         <v>91</v>
       </c>
       <c r="C1436">
-        <v>5465.3</v>
+        <v>5213.4</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
@@ -16194,7 +16194,7 @@
         <v>92</v>
       </c>
       <c r="C1437">
-        <v>5315.3</v>
+        <v>5033.4</v>
       </c>
     </row>
     <row r="1438" spans="1:3">
@@ -16205,7 +16205,7 @@
         <v>93</v>
       </c>
       <c r="C1438">
-        <v>5526.4</v>
+        <v>5095.2</v>
       </c>
     </row>
     <row r="1439" spans="1:3">
@@ -16216,7 +16216,7 @@
         <v>94</v>
       </c>
       <c r="C1439">
-        <v>5366.4</v>
+        <v>4975.2</v>
       </c>
     </row>
     <row r="1440" spans="1:3">
@@ -16227,7 +16227,7 @@
         <v>95</v>
       </c>
       <c r="C1440">
-        <v>5276.4</v>
+        <v>4865.2</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
@@ -16238,7 +16238,7 @@
         <v>96</v>
       </c>
       <c r="C1441">
-        <v>5166.4</v>
+        <v>4755.2</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
@@ -16249,7 +16249,7 @@
         <v>1</v>
       </c>
       <c r="C1442">
-        <v>5004.9</v>
+        <v>4729.4</v>
       </c>
     </row>
     <row r="1443" spans="1:3">
@@ -16260,7 +16260,7 @@
         <v>2</v>
       </c>
       <c r="C1443">
-        <v>4964.9</v>
+        <v>4669.4</v>
       </c>
     </row>
     <row r="1444" spans="1:3">
@@ -16271,7 +16271,7 @@
         <v>3</v>
       </c>
       <c r="C1444">
-        <v>4904.9</v>
+        <v>4599.4</v>
       </c>
     </row>
     <row r="1445" spans="1:3">
@@ -16282,7 +16282,7 @@
         <v>4</v>
       </c>
       <c r="C1445">
-        <v>4824.9</v>
+        <v>4549.4</v>
       </c>
     </row>
     <row r="1446" spans="1:3">
@@ -16293,7 +16293,7 @@
         <v>5</v>
       </c>
       <c r="C1446">
-        <v>5566.5</v>
+        <v>4576.5</v>
       </c>
     </row>
     <row r="1447" spans="1:3">
@@ -16304,7 +16304,7 @@
         <v>6</v>
       </c>
       <c r="C1447">
-        <v>5506.5</v>
+        <v>4526.5</v>
       </c>
     </row>
     <row r="1448" spans="1:3">
@@ -16315,7 +16315,7 @@
         <v>7</v>
       </c>
       <c r="C1448">
-        <v>5456.5</v>
+        <v>4476.5</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
@@ -16326,7 +16326,7 @@
         <v>8</v>
       </c>
       <c r="C1449">
-        <v>5406.5</v>
+        <v>4426.5</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
@@ -16337,7 +16337,7 @@
         <v>9</v>
       </c>
       <c r="C1450">
-        <v>5496.3</v>
+        <v>4473.2</v>
       </c>
     </row>
     <row r="1451" spans="1:3">
@@ -16348,7 +16348,7 @@
         <v>10</v>
       </c>
       <c r="C1451">
-        <v>5466.3</v>
+        <v>4443.2</v>
       </c>
     </row>
     <row r="1452" spans="1:3">
@@ -16359,7 +16359,7 @@
         <v>11</v>
       </c>
       <c r="C1452">
-        <v>5436.3</v>
+        <v>4423.2</v>
       </c>
     </row>
     <row r="1453" spans="1:3">
@@ -16370,7 +16370,7 @@
         <v>12</v>
       </c>
       <c r="C1453">
-        <v>5426.3</v>
+        <v>4413.2</v>
       </c>
     </row>
     <row r="1454" spans="1:3">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="C1454">
-        <v>5644.5</v>
+        <v>4405.4</v>
       </c>
     </row>
     <row r="1455" spans="1:3">
@@ -16392,7 +16392,7 @@
         <v>14</v>
       </c>
       <c r="C1455">
-        <v>5644.5</v>
+        <v>4395.4</v>
       </c>
     </row>
     <row r="1456" spans="1:3">
@@ -16403,7 +16403,7 @@
         <v>15</v>
       </c>
       <c r="C1456">
-        <v>5634.5</v>
+        <v>4395.4</v>
       </c>
     </row>
     <row r="1457" spans="1:3">
@@ -16414,7 +16414,7 @@
         <v>16</v>
       </c>
       <c r="C1457">
-        <v>5634.5</v>
+        <v>4395.4</v>
       </c>
     </row>
     <row r="1458" spans="1:3">
@@ -16425,7 +16425,7 @@
         <v>17</v>
       </c>
       <c r="C1458">
-        <v>5638.7</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
@@ -16436,7 +16436,7 @@
         <v>18</v>
       </c>
       <c r="C1459">
-        <v>5648.7</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="1460" spans="1:3">
@@ -16447,7 +16447,7 @@
         <v>19</v>
       </c>
       <c r="C1460">
-        <v>5668.7</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1461" spans="1:3">
@@ -16458,7 +16458,7 @@
         <v>20</v>
       </c>
       <c r="C1461">
-        <v>5698.7</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1462" spans="1:3">
@@ -16469,7 +16469,7 @@
         <v>21</v>
       </c>
       <c r="C1462">
-        <v>4510.8</v>
+        <v>4406.4</v>
       </c>
     </row>
     <row r="1463" spans="1:3">
@@ -16480,7 +16480,7 @@
         <v>22</v>
       </c>
       <c r="C1463">
-        <v>4570.8</v>
+        <v>4466.4</v>
       </c>
     </row>
     <row r="1464" spans="1:3">
@@ -16491,7 +16491,7 @@
         <v>23</v>
       </c>
       <c r="C1464">
-        <v>4650.8</v>
+        <v>4556.4</v>
       </c>
     </row>
     <row r="1465" spans="1:3">
@@ -16502,7 +16502,7 @@
         <v>24</v>
       </c>
       <c r="C1465">
-        <v>4740.8</v>
+        <v>4646.4</v>
       </c>
     </row>
     <row r="1466" spans="1:3">
@@ -16513,7 +16513,7 @@
         <v>25</v>
       </c>
       <c r="C1466">
-        <v>4709.9</v>
+        <v>4865.5</v>
       </c>
     </row>
     <row r="1467" spans="1:3">
@@ -16524,7 +16524,7 @@
         <v>26</v>
       </c>
       <c r="C1467">
-        <v>4819.9</v>
+        <v>4975.5</v>
       </c>
     </row>
     <row r="1468" spans="1:3">
@@ -16535,7 +16535,7 @@
         <v>27</v>
       </c>
       <c r="C1468">
-        <v>4939.9</v>
+        <v>5085.5</v>
       </c>
     </row>
     <row r="1469" spans="1:3">
@@ -16546,7 +16546,7 @@
         <v>28</v>
       </c>
       <c r="C1469">
-        <v>5049.9</v>
+        <v>5185.5</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
@@ -16557,7 +16557,7 @@
         <v>29</v>
       </c>
       <c r="C1470">
-        <v>5857.1</v>
+        <v>4967.9</v>
       </c>
     </row>
     <row r="1471" spans="1:3">
@@ -16568,7 +16568,7 @@
         <v>30</v>
       </c>
       <c r="C1471">
-        <v>5947.1</v>
+        <v>5057.9</v>
       </c>
     </row>
     <row r="1472" spans="1:3">
@@ -16579,7 +16579,7 @@
         <v>31</v>
       </c>
       <c r="C1472">
-        <v>6027.1</v>
+        <v>5147.9</v>
       </c>
     </row>
     <row r="1473" spans="1:3">
@@ -16590,7 +16590,7 @@
         <v>32</v>
       </c>
       <c r="C1473">
-        <v>6087.1</v>
+        <v>5227.9</v>
       </c>
     </row>
     <row r="1474" spans="1:3">
@@ -16601,7 +16601,7 @@
         <v>33</v>
       </c>
       <c r="C1474">
-        <v>6219.1</v>
+        <v>5246.8</v>
       </c>
     </row>
     <row r="1475" spans="1:3">
@@ -16612,7 +16612,7 @@
         <v>34</v>
       </c>
       <c r="C1475">
-        <v>6239.1</v>
+        <v>5306.8</v>
       </c>
     </row>
     <row r="1476" spans="1:3">
@@ -16623,7 +16623,7 @@
         <v>35</v>
       </c>
       <c r="C1476">
-        <v>6229.1</v>
+        <v>5356.8</v>
       </c>
     </row>
     <row r="1477" spans="1:3">
@@ -16634,7 +16634,7 @@
         <v>36</v>
       </c>
       <c r="C1477">
-        <v>6219.1</v>
+        <v>5406.8</v>
       </c>
     </row>
     <row r="1478" spans="1:3">
@@ -16645,7 +16645,7 @@
         <v>37</v>
       </c>
       <c r="C1478">
-        <v>6272.9</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
@@ -16656,7 +16656,7 @@
         <v>38</v>
       </c>
       <c r="C1479">
-        <v>6232.9</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -16667,7 +16667,7 @@
         <v>39</v>
       </c>
       <c r="C1480">
-        <v>6192.9</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
@@ -16678,7 +16678,7 @@
         <v>40</v>
       </c>
       <c r="C1481">
-        <v>6142.9</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
@@ -16689,7 +16689,7 @@
         <v>41</v>
       </c>
       <c r="C1482">
-        <v>6684.3</v>
+        <v>6187.2</v>
       </c>
     </row>
     <row r="1483" spans="1:3">
@@ -16700,7 +16700,7 @@
         <v>42</v>
       </c>
       <c r="C1483">
-        <v>6644.3</v>
+        <v>6157.2</v>
       </c>
     </row>
     <row r="1484" spans="1:3">
@@ -16711,7 +16711,7 @@
         <v>43</v>
       </c>
       <c r="C1484">
-        <v>6604.3</v>
+        <v>6117.2</v>
       </c>
     </row>
     <row r="1485" spans="1:3">
@@ -16722,7 +16722,7 @@
         <v>44</v>
       </c>
       <c r="C1485">
-        <v>6574.3</v>
+        <v>6077.2</v>
       </c>
     </row>
     <row r="1486" spans="1:3">
@@ -16733,7 +16733,7 @@
         <v>45</v>
       </c>
       <c r="C1486">
-        <v>6713.3</v>
+        <v>6054.3</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
@@ -16744,7 +16744,7 @@
         <v>46</v>
       </c>
       <c r="C1487">
-        <v>6693.3</v>
+        <v>6024.3</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
@@ -16755,7 +16755,7 @@
         <v>47</v>
       </c>
       <c r="C1488">
-        <v>6673.3</v>
+        <v>6004.3</v>
       </c>
     </row>
     <row r="1489" spans="1:3">
@@ -16766,7 +16766,7 @@
         <v>48</v>
       </c>
       <c r="C1489">
-        <v>6653.3</v>
+        <v>5984.3</v>
       </c>
     </row>
     <row r="1490" spans="1:3">
@@ -16777,7 +16777,7 @@
         <v>49</v>
       </c>
       <c r="C1490">
-        <v>6728.2</v>
+        <v>5889.4</v>
       </c>
     </row>
     <row r="1491" spans="1:3">
@@ -16788,7 +16788,7 @@
         <v>50</v>
       </c>
       <c r="C1491">
-        <v>6708.2</v>
+        <v>5869.4</v>
       </c>
     </row>
     <row r="1492" spans="1:3">
@@ -16799,7 +16799,7 @@
         <v>51</v>
       </c>
       <c r="C1492">
-        <v>6698.2</v>
+        <v>5849.4</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
@@ -16810,7 +16810,7 @@
         <v>52</v>
       </c>
       <c r="C1493">
-        <v>6688.2</v>
+        <v>5829.4</v>
       </c>
     </row>
     <row r="1494" spans="1:3">
@@ -16821,7 +16821,7 @@
         <v>53</v>
       </c>
       <c r="C1494">
-        <v>6560.1</v>
+        <v>5861.8</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
@@ -16832,7 +16832,7 @@
         <v>54</v>
       </c>
       <c r="C1495">
-        <v>6560.1</v>
+        <v>5831.8</v>
       </c>
     </row>
     <row r="1496" spans="1:3">
@@ -16843,7 +16843,7 @@
         <v>55</v>
       </c>
       <c r="C1496">
-        <v>6550.1</v>
+        <v>5791.8</v>
       </c>
     </row>
     <row r="1497" spans="1:3">
@@ -16854,7 +16854,7 @@
         <v>56</v>
       </c>
       <c r="C1497">
-        <v>6550.1</v>
+        <v>5761.8</v>
       </c>
     </row>
     <row r="1498" spans="1:3">
@@ -16865,7 +16865,7 @@
         <v>57</v>
       </c>
       <c r="C1498">
-        <v>6773.5</v>
+        <v>5500.9</v>
       </c>
     </row>
     <row r="1499" spans="1:3">
@@ -16876,7 +16876,7 @@
         <v>58</v>
       </c>
       <c r="C1499">
-        <v>6773.5</v>
+        <v>5470.9</v>
       </c>
     </row>
     <row r="1500" spans="1:3">
@@ -16887,7 +16887,7 @@
         <v>59</v>
       </c>
       <c r="C1500">
-        <v>6763.5</v>
+        <v>5440.9</v>
       </c>
     </row>
     <row r="1501" spans="1:3">
@@ -16898,7 +16898,7 @@
         <v>60</v>
       </c>
       <c r="C1501">
-        <v>6743.5</v>
+        <v>5430.9</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
@@ -16909,7 +16909,7 @@
         <v>61</v>
       </c>
       <c r="C1502">
-        <v>6806.2</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="1503" spans="1:3">
@@ -16920,7 +16920,7 @@
         <v>62</v>
       </c>
       <c r="C1503">
-        <v>6786.2</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="1504" spans="1:3">
@@ -16931,7 +16931,7 @@
         <v>63</v>
       </c>
       <c r="C1504">
-        <v>6776.2</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
@@ -16942,7 +16942,7 @@
         <v>64</v>
       </c>
       <c r="C1505">
-        <v>6766.2</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="1506" spans="1:3">
@@ -16953,7 +16953,7 @@
         <v>65</v>
       </c>
       <c r="C1506">
-        <v>6876.5</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
@@ -16964,7 +16964,7 @@
         <v>66</v>
       </c>
       <c r="C1507">
-        <v>6896.5</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
@@ -16975,7 +16975,7 @@
         <v>67</v>
       </c>
       <c r="C1508">
-        <v>6926.5</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
@@ -16986,7 +16986,7 @@
         <v>68</v>
       </c>
       <c r="C1509">
-        <v>6976.5</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="1510" spans="1:3">
@@ -16997,7 +16997,7 @@
         <v>69</v>
       </c>
       <c r="C1510">
-        <v>6821.2</v>
+        <v>5460.2</v>
       </c>
     </row>
     <row r="1511" spans="1:3">
@@ -17008,7 +17008,7 @@
         <v>70</v>
       </c>
       <c r="C1511">
-        <v>6871.2</v>
+        <v>5510.2</v>
       </c>
     </row>
     <row r="1512" spans="1:3">
@@ -17019,7 +17019,7 @@
         <v>71</v>
       </c>
       <c r="C1512">
-        <v>6911.2</v>
+        <v>5560.2</v>
       </c>
     </row>
     <row r="1513" spans="1:3">
@@ -17030,7 +17030,7 @@
         <v>72</v>
       </c>
       <c r="C1513">
-        <v>6951.2</v>
+        <v>5600.2</v>
       </c>
     </row>
     <row r="1514" spans="1:3">
@@ -17041,7 +17041,7 @@
         <v>73</v>
       </c>
       <c r="C1514">
-        <v>6763</v>
+        <v>5672.8</v>
       </c>
     </row>
     <row r="1515" spans="1:3">
@@ -17052,7 +17052,7 @@
         <v>74</v>
       </c>
       <c r="C1515">
-        <v>6803</v>
+        <v>5732.8</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
@@ -17063,7 +17063,7 @@
         <v>75</v>
       </c>
       <c r="C1516">
-        <v>6853</v>
+        <v>5802.8</v>
       </c>
     </row>
     <row r="1517" spans="1:3">
@@ -17074,7 +17074,7 @@
         <v>76</v>
       </c>
       <c r="C1517">
-        <v>6923</v>
+        <v>5882.8</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
@@ -17085,7 +17085,7 @@
         <v>77</v>
       </c>
       <c r="C1518">
-        <v>6012.7</v>
+        <v>5588.6</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
@@ -17096,7 +17096,7 @@
         <v>78</v>
       </c>
       <c r="C1519">
-        <v>6122.7</v>
+        <v>5698.6</v>
       </c>
     </row>
     <row r="1520" spans="1:3">
@@ -17107,7 +17107,7 @@
         <v>79</v>
       </c>
       <c r="C1520">
-        <v>6232.7</v>
+        <v>5798.6</v>
       </c>
     </row>
     <row r="1521" spans="1:3">
@@ -17118,7 +17118,7 @@
         <v>80</v>
       </c>
       <c r="C1521">
-        <v>6342.7</v>
+        <v>5878.6</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
@@ -17129,7 +17129,7 @@
         <v>81</v>
       </c>
       <c r="C1522">
-        <v>6013.7</v>
+        <v>5641.7</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
@@ -17140,7 +17140,7 @@
         <v>82</v>
       </c>
       <c r="C1523">
-        <v>6133.7</v>
+        <v>5721.7</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
@@ -17151,7 +17151,7 @@
         <v>83</v>
       </c>
       <c r="C1524">
-        <v>6213.7</v>
+        <v>5781.7</v>
       </c>
     </row>
     <row r="1525" spans="1:3">
@@ -17162,7 +17162,7 @@
         <v>84</v>
       </c>
       <c r="C1525">
-        <v>6293.7</v>
+        <v>5821.7</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
@@ -17173,7 +17173,7 @@
         <v>85</v>
       </c>
       <c r="C1526">
-        <v>5406.3</v>
+        <v>5735.5</v>
       </c>
     </row>
     <row r="1527" spans="1:3">
@@ -17184,7 +17184,7 @@
         <v>86</v>
       </c>
       <c r="C1527">
-        <v>5346.3</v>
+        <v>5735.5</v>
       </c>
     </row>
     <row r="1528" spans="1:3">
@@ -17195,7 +17195,7 @@
         <v>87</v>
       </c>
       <c r="C1528">
-        <v>5316.3</v>
+        <v>5715.5</v>
       </c>
     </row>
     <row r="1529" spans="1:3">
@@ -17206,7 +17206,7 @@
         <v>88</v>
       </c>
       <c r="C1529">
-        <v>5236.3</v>
+        <v>5665.5</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
@@ -17217,7 +17217,7 @@
         <v>89</v>
       </c>
       <c r="C1530">
-        <v>5261.3</v>
+        <v>5763.4</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
@@ -17228,7 +17228,7 @@
         <v>90</v>
       </c>
       <c r="C1531">
-        <v>5171.3</v>
+        <v>5653.4</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
@@ -17239,7 +17239,7 @@
         <v>91</v>
       </c>
       <c r="C1532">
-        <v>5011.3</v>
+        <v>5503.4</v>
       </c>
     </row>
     <row r="1533" spans="1:3">
@@ -17250,7 +17250,7 @@
         <v>92</v>
       </c>
       <c r="C1533">
-        <v>4841.3</v>
+        <v>5333.4</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
@@ -17261,7 +17261,7 @@
         <v>93</v>
       </c>
       <c r="C1534">
-        <v>4563.2</v>
+        <v>5375.2</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
@@ -17272,7 +17272,7 @@
         <v>94</v>
       </c>
       <c r="C1535">
-        <v>4373.2</v>
+        <v>5215.2</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
@@ -17283,7 +17283,7 @@
         <v>95</v>
       </c>
       <c r="C1536">
-        <v>4293.2</v>
+        <v>5105.2</v>
       </c>
     </row>
     <row r="1537" spans="1:3">
@@ -17294,7 +17294,7 @@
         <v>96</v>
       </c>
       <c r="C1537">
-        <v>4133.2</v>
+        <v>4995.2</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
@@ -22575,6 +22575,1062 @@
       </c>
       <c r="C2017">
         <v>5237.3</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:3">
+      <c r="A2018" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2018">
+        <v>1</v>
+      </c>
+      <c r="C2018">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:3">
+      <c r="A2019" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2019">
+        <v>2</v>
+      </c>
+      <c r="C2019">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:3">
+      <c r="A2020" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2020">
+        <v>3</v>
+      </c>
+      <c r="C2020">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:3">
+      <c r="A2021" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2021">
+        <v>4</v>
+      </c>
+      <c r="C2021">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:3">
+      <c r="A2022" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2022">
+        <v>5</v>
+      </c>
+      <c r="C2022">
+        <v>4412.7</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:3">
+      <c r="A2023" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2023">
+        <v>6</v>
+      </c>
+      <c r="C2023">
+        <v>4362.7</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:3">
+      <c r="A2024" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2024">
+        <v>7</v>
+      </c>
+      <c r="C2024">
+        <v>4332.7</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:3">
+      <c r="A2025" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2025">
+        <v>8</v>
+      </c>
+      <c r="C2025">
+        <v>4292.7</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:3">
+      <c r="A2026" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2026">
+        <v>9</v>
+      </c>
+      <c r="C2026">
+        <v>4463.7</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:3">
+      <c r="A2027" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2027">
+        <v>10</v>
+      </c>
+      <c r="C2027">
+        <v>4443.7</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:3">
+      <c r="A2028" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2028">
+        <v>11</v>
+      </c>
+      <c r="C2028">
+        <v>4423.7</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:3">
+      <c r="A2029" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2029">
+        <v>12</v>
+      </c>
+      <c r="C2029">
+        <v>4413.7</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:3">
+      <c r="A2030" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2030">
+        <v>13</v>
+      </c>
+      <c r="C2030">
+        <v>4444.5</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:3">
+      <c r="A2031" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2031">
+        <v>14</v>
+      </c>
+      <c r="C2031">
+        <v>4444.5</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:3">
+      <c r="A2032" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2032">
+        <v>15</v>
+      </c>
+      <c r="C2032">
+        <v>4444.5</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:3">
+      <c r="A2033" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2033">
+        <v>16</v>
+      </c>
+      <c r="C2033">
+        <v>4444.5</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:3">
+      <c r="A2034" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2034">
+        <v>17</v>
+      </c>
+      <c r="C2034">
+        <v>4607.4</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:3">
+      <c r="A2035" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2035">
+        <v>18</v>
+      </c>
+      <c r="C2035">
+        <v>4617.4</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:3">
+      <c r="A2036" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2036">
+        <v>19</v>
+      </c>
+      <c r="C2036">
+        <v>4637.4</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:3">
+      <c r="A2037" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2037">
+        <v>20</v>
+      </c>
+      <c r="C2037">
+        <v>4667.4</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:3">
+      <c r="A2038" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2038">
+        <v>21</v>
+      </c>
+      <c r="C2038">
+        <v>4818.4</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:3">
+      <c r="A2039" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2039">
+        <v>22</v>
+      </c>
+      <c r="C2039">
+        <v>4878.4</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:3">
+      <c r="A2040" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2040">
+        <v>23</v>
+      </c>
+      <c r="C2040">
+        <v>4948.4</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:3">
+      <c r="A2041" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2041">
+        <v>24</v>
+      </c>
+      <c r="C2041">
+        <v>5038.4</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:3">
+      <c r="A2042" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2042">
+        <v>25</v>
+      </c>
+      <c r="C2042">
+        <v>5162.9</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:3">
+      <c r="A2043" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2043">
+        <v>26</v>
+      </c>
+      <c r="C2043">
+        <v>5262.9</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:3">
+      <c r="A2044" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2044">
+        <v>27</v>
+      </c>
+      <c r="C2044">
+        <v>5372.9</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:3">
+      <c r="A2045" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2045">
+        <v>28</v>
+      </c>
+      <c r="C2045">
+        <v>5482.9</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:3">
+      <c r="A2046" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2046">
+        <v>29</v>
+      </c>
+      <c r="C2046">
+        <v>5783.1</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:3">
+      <c r="A2047" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2047">
+        <v>30</v>
+      </c>
+      <c r="C2047">
+        <v>5863.1</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:3">
+      <c r="A2048" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2048">
+        <v>31</v>
+      </c>
+      <c r="C2048">
+        <v>5943.1</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:3">
+      <c r="A2049" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2049">
+        <v>32</v>
+      </c>
+      <c r="C2049">
+        <v>6003.1</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:3">
+      <c r="A2050" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2050">
+        <v>33</v>
+      </c>
+      <c r="C2050">
+        <v>6072.6</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:3">
+      <c r="A2051" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2051">
+        <v>34</v>
+      </c>
+      <c r="C2051">
+        <v>6092.6</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:3">
+      <c r="A2052" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2052">
+        <v>35</v>
+      </c>
+      <c r="C2052">
+        <v>6092.6</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:3">
+      <c r="A2053" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2053">
+        <v>36</v>
+      </c>
+      <c r="C2053">
+        <v>6092.6</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:3">
+      <c r="A2054" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2054">
+        <v>37</v>
+      </c>
+      <c r="C2054">
+        <v>6107.3</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:3">
+      <c r="A2055" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2055">
+        <v>38</v>
+      </c>
+      <c r="C2055">
+        <v>6077.3</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:3">
+      <c r="A2056" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2056">
+        <v>39</v>
+      </c>
+      <c r="C2056">
+        <v>6037.3</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:3">
+      <c r="A2057" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2057">
+        <v>40</v>
+      </c>
+      <c r="C2057">
+        <v>6007.3</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:3">
+      <c r="A2058" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2058">
+        <v>41</v>
+      </c>
+      <c r="C2058">
+        <v>6151</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:3">
+      <c r="A2059" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2059">
+        <v>42</v>
+      </c>
+      <c r="C2059">
+        <v>6121</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:3">
+      <c r="A2060" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2060">
+        <v>43</v>
+      </c>
+      <c r="C2060">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:3">
+      <c r="A2061" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2061">
+        <v>44</v>
+      </c>
+      <c r="C2061">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:3">
+      <c r="A2062" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2062">
+        <v>45</v>
+      </c>
+      <c r="C2062">
+        <v>5860.1</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:3">
+      <c r="A2063" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2063">
+        <v>46</v>
+      </c>
+      <c r="C2063">
+        <v>5840.1</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:3">
+      <c r="A2064" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2064">
+        <v>47</v>
+      </c>
+      <c r="C2064">
+        <v>5830.1</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:3">
+      <c r="A2065" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2065">
+        <v>48</v>
+      </c>
+      <c r="C2065">
+        <v>5820.1</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:3">
+      <c r="A2066" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2066">
+        <v>49</v>
+      </c>
+      <c r="C2066">
+        <v>5959.7</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:3">
+      <c r="A2067" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2067">
+        <v>50</v>
+      </c>
+      <c r="C2067">
+        <v>5949.7</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:3">
+      <c r="A2068" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2068">
+        <v>51</v>
+      </c>
+      <c r="C2068">
+        <v>5939.7</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:3">
+      <c r="A2069" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2069">
+        <v>52</v>
+      </c>
+      <c r="C2069">
+        <v>5939.7</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:3">
+      <c r="A2070" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2070">
+        <v>53</v>
+      </c>
+      <c r="C2070">
+        <v>5902.3</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:3">
+      <c r="A2071" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2071">
+        <v>54</v>
+      </c>
+      <c r="C2071">
+        <v>5902.3</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:3">
+      <c r="A2072" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2072">
+        <v>55</v>
+      </c>
+      <c r="C2072">
+        <v>5902.3</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:3">
+      <c r="A2073" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2073">
+        <v>56</v>
+      </c>
+      <c r="C2073">
+        <v>5902.3</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:3">
+      <c r="A2074" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2074">
+        <v>57</v>
+      </c>
+      <c r="C2074">
+        <v>5752.5</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:3">
+      <c r="A2075" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2075">
+        <v>58</v>
+      </c>
+      <c r="C2075">
+        <v>5752.5</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:3">
+      <c r="A2076" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2076">
+        <v>59</v>
+      </c>
+      <c r="C2076">
+        <v>5742.5</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:3">
+      <c r="A2077" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2077">
+        <v>60</v>
+      </c>
+      <c r="C2077">
+        <v>5732.5</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:3">
+      <c r="A2078" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2078">
+        <v>61</v>
+      </c>
+      <c r="C2078">
+        <v>5622.8</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:3">
+      <c r="A2079" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2079">
+        <v>62</v>
+      </c>
+      <c r="C2079">
+        <v>5602.8</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:3">
+      <c r="A2080" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2080">
+        <v>63</v>
+      </c>
+      <c r="C2080">
+        <v>5602.8</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:3">
+      <c r="A2081" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2081">
+        <v>64</v>
+      </c>
+      <c r="C2081">
+        <v>5602.8</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:3">
+      <c r="A2082" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2082">
+        <v>65</v>
+      </c>
+      <c r="C2082">
+        <v>5716.6</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:3">
+      <c r="A2083" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2083">
+        <v>66</v>
+      </c>
+      <c r="C2083">
+        <v>5746.6</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:3">
+      <c r="A2084" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2084">
+        <v>67</v>
+      </c>
+      <c r="C2084">
+        <v>5786.6</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:3">
+      <c r="A2085" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2085">
+        <v>68</v>
+      </c>
+      <c r="C2085">
+        <v>5826.6</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:3">
+      <c r="A2086" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2086">
+        <v>69</v>
+      </c>
+      <c r="C2086">
+        <v>5481.8</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:3">
+      <c r="A2087" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2087">
+        <v>70</v>
+      </c>
+      <c r="C2087">
+        <v>5521.8</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:3">
+      <c r="A2088" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2088">
+        <v>71</v>
+      </c>
+      <c r="C2088">
+        <v>5541.8</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:3">
+      <c r="A2089" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2089">
+        <v>72</v>
+      </c>
+      <c r="C2089">
+        <v>5561.8</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:3">
+      <c r="A2090" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2090">
+        <v>73</v>
+      </c>
+      <c r="C2090">
+        <v>5435.5</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:3">
+      <c r="A2091" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2091">
+        <v>74</v>
+      </c>
+      <c r="C2091">
+        <v>5465.5</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:3">
+      <c r="A2092" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2092">
+        <v>75</v>
+      </c>
+      <c r="C2092">
+        <v>5525.5</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:3">
+      <c r="A2093" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2093">
+        <v>76</v>
+      </c>
+      <c r="C2093">
+        <v>5605.5</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:3">
+      <c r="A2094" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2094">
+        <v>77</v>
+      </c>
+      <c r="C2094">
+        <v>5267.9</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:3">
+      <c r="A2095" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2095">
+        <v>78</v>
+      </c>
+      <c r="C2095">
+        <v>5377.9</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:3">
+      <c r="A2096" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2096">
+        <v>79</v>
+      </c>
+      <c r="C2096">
+        <v>5487.9</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:3">
+      <c r="A2097" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2097">
+        <v>80</v>
+      </c>
+      <c r="C2097">
+        <v>5587.9</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:3">
+      <c r="A2098" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2098">
+        <v>81</v>
+      </c>
+      <c r="C2098">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:3">
+      <c r="A2099" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2099">
+        <v>82</v>
+      </c>
+      <c r="C2099">
+        <v>5433</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:3">
+      <c r="A2100" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2100">
+        <v>83</v>
+      </c>
+      <c r="C2100">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:3">
+      <c r="A2101" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2101">
+        <v>84</v>
+      </c>
+      <c r="C2101">
+        <v>5553</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:3">
+      <c r="A2102" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2102">
+        <v>85</v>
+      </c>
+      <c r="C2102">
+        <v>5607.1</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:3">
+      <c r="A2103" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2103">
+        <v>86</v>
+      </c>
+      <c r="C2103">
+        <v>5587.1</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:3">
+      <c r="A2104" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2104">
+        <v>87</v>
+      </c>
+      <c r="C2104">
+        <v>5547.1</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:3">
+      <c r="A2105" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2105">
+        <v>88</v>
+      </c>
+      <c r="C2105">
+        <v>5487.1</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:3">
+      <c r="A2106" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2106">
+        <v>89</v>
+      </c>
+      <c r="C2106">
+        <v>5911.6</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:3">
+      <c r="A2107" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2107">
+        <v>90</v>
+      </c>
+      <c r="C2107">
+        <v>5821.6</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:3">
+      <c r="A2108" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2108">
+        <v>91</v>
+      </c>
+      <c r="C2108">
+        <v>5671.6</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:3">
+      <c r="A2109" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2109">
+        <v>92</v>
+      </c>
+      <c r="C2109">
+        <v>5481.6</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:3">
+      <c r="A2110" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2110">
+        <v>93</v>
+      </c>
+      <c r="C2110">
+        <v>5728.6</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:3">
+      <c r="A2111" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2111">
+        <v>94</v>
+      </c>
+      <c r="C2111">
+        <v>5578.6</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:3">
+      <c r="A2112" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2112">
+        <v>95</v>
+      </c>
+      <c r="C2112">
+        <v>5458.6</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:3">
+      <c r="A2113" s="2">
+        <v>45434</v>
+      </c>
+      <c r="B2113">
+        <v>96</v>
+      </c>
+      <c r="C2113">
+        <v>5348.6</v>
       </c>
     </row>
   </sheetData>
